--- a/章节标题.xlsx
+++ b/章节标题.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\魔禁相关\魔法禁书目录X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616B1F1B-70F9-40EB-9C88-04E95A43E903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBDF6030-328C-46E8-8D89-442BD8D9D384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="22605" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,11 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet10!$A$1:$A$383</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="1363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="1368">
   <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1237,37 +1238,19 @@
     <t>说不定这种终焉也</t>
   </si>
   <si>
-    <t>Before_the_End.</t>
-  </si>
-  <si>
     <t>魔神一直都在那里</t>
   </si>
   <si>
-    <t>Sword_and_Sheath.</t>
-  </si>
-  <si>
     <t>快跑，不然就会死</t>
   </si>
   <si>
-    <t>Chase_With_the_Girl.</t>
-  </si>
-  <si>
     <t>在破碎的蛛网前方</t>
   </si>
   <si>
-    <t>Nightmare_to_Ray_of_Hope.</t>
-  </si>
-  <si>
     <t>不存在胜利的终局</t>
   </si>
   <si>
-    <t>A.A.A.</t>
-  </si>
-  <si>
     <t>说不定这种开端也</t>
-  </si>
-  <si>
-    <t>The_End_is_Named...</t>
   </si>
   <si>
     <t>魔神变得近在咫尺了</t>
@@ -4842,6 +4825,50 @@
   </si>
   <si>
     <t>馒头与钻石高塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许也有这种结局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔神总是在你身边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寸断蜘蛛丝的前方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无胜利之战的终结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或许也有这种开场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Before_the_End.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword_and_Sheath.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chase_With_the_Girl.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nightmare_to_Ray_of_Hope.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.A.A.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The_End_is_Named...</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5682,7 +5709,7 @@
   <dimension ref="A1:G391"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="F297" sqref="F297"/>
+      <selection activeCell="G281" sqref="G281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5699,22 +5726,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25">
       <c r="A1" s="2" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>1</v>
@@ -5722,7 +5749,7 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -5732,10 +5759,10 @@
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -5743,13 +5770,13 @@
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="2" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17" t="s">
@@ -5764,13 +5791,13 @@
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="2" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
@@ -5780,18 +5807,18 @@
         <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="2" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17" t="s">
@@ -5806,13 +5833,13 @@
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
@@ -5827,13 +5854,13 @@
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="2" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
@@ -5857,13 +5884,13 @@
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="2" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
@@ -5878,13 +5905,13 @@
     </row>
     <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="2" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17" t="s">
@@ -5899,13 +5926,13 @@
     </row>
     <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="2" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17" t="s">
@@ -5920,13 +5947,13 @@
     </row>
     <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="2" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17" t="s">
@@ -5941,13 +5968,13 @@
     </row>
     <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="2" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17" t="s">
@@ -5962,13 +5989,13 @@
     </row>
     <row r="14" spans="1:7" ht="14.25">
       <c r="A14" s="2" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17" t="s">
@@ -5992,13 +6019,13 @@
     </row>
     <row r="16" spans="1:7" ht="14.25">
       <c r="A16" s="2" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
@@ -6013,13 +6040,13 @@
     </row>
     <row r="17" spans="1:7" ht="14.25">
       <c r="A17" s="2" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
@@ -6034,13 +6061,13 @@
     </row>
     <row r="18" spans="1:7" ht="14.25">
       <c r="A18" s="2" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
@@ -6055,13 +6082,13 @@
     </row>
     <row r="19" spans="1:7" ht="14.25">
       <c r="A19" s="2" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
@@ -6076,13 +6103,13 @@
     </row>
     <row r="20" spans="1:7" ht="14.25">
       <c r="A20" s="2" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17" t="s">
@@ -6097,13 +6124,13 @@
     </row>
     <row r="21" spans="1:7" ht="14.25">
       <c r="A21" s="2" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
@@ -6127,13 +6154,13 @@
     </row>
     <row r="23" spans="1:7" ht="14.25">
       <c r="A23" s="2" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17" t="s">
@@ -6146,13 +6173,13 @@
     </row>
     <row r="24" spans="1:7" ht="14.25">
       <c r="A24" s="2" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17" t="s">
@@ -6165,13 +6192,13 @@
     </row>
     <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="2" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
@@ -6184,13 +6211,13 @@
     </row>
     <row r="26" spans="1:7" ht="14.25">
       <c r="A26" s="2" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
@@ -6203,13 +6230,13 @@
     </row>
     <row r="27" spans="1:7" ht="14.25">
       <c r="A27" s="2" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
@@ -6222,13 +6249,13 @@
     </row>
     <row r="28" spans="1:7" ht="14.25">
       <c r="A28" s="2" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
@@ -6250,13 +6277,13 @@
     </row>
     <row r="30" spans="1:7" ht="14.25">
       <c r="A30" s="2" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17" t="s">
@@ -6271,20 +6298,20 @@
     </row>
     <row r="31" spans="1:7" ht="14.25">
       <c r="A31" s="2" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>51</v>
@@ -6292,20 +6319,20 @@
     </row>
     <row r="32" spans="1:7" ht="14.25">
       <c r="A32" s="2" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>53</v>
@@ -6313,20 +6340,20 @@
     </row>
     <row r="33" spans="1:7" ht="14.25">
       <c r="A33" s="2" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>55</v>
@@ -6334,20 +6361,20 @@
     </row>
     <row r="34" spans="1:7" ht="14.25">
       <c r="A34" s="2" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>57</v>
@@ -6355,13 +6382,13 @@
     </row>
     <row r="35" spans="1:7" ht="14.25">
       <c r="A35" s="2" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
@@ -6385,13 +6412,13 @@
     </row>
     <row r="37" spans="1:7" ht="14.25">
       <c r="A37" s="2" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
@@ -6404,13 +6431,13 @@
     </row>
     <row r="38" spans="1:7" ht="14.25">
       <c r="A38" s="2" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17" t="s">
@@ -6425,13 +6452,13 @@
     </row>
     <row r="39" spans="1:7" ht="14.25">
       <c r="A39" s="2" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17" t="s">
@@ -6446,13 +6473,13 @@
     </row>
     <row r="40" spans="1:7" ht="14.25">
       <c r="A40" s="2" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17" t="s">
@@ -6467,13 +6494,13 @@
     </row>
     <row r="41" spans="1:7" ht="14.25">
       <c r="A41" s="2" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17" t="s">
@@ -6488,13 +6515,13 @@
     </row>
     <row r="42" spans="1:7" ht="14.25">
       <c r="A42" s="2" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17" t="s">
@@ -6516,13 +6543,13 @@
     </row>
     <row r="44" spans="1:7" ht="14.25">
       <c r="A44" s="2" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17" t="s">
@@ -6537,13 +6564,13 @@
     </row>
     <row r="45" spans="1:7" ht="14.25">
       <c r="A45" s="2" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17" t="s">
@@ -6558,13 +6585,13 @@
     </row>
     <row r="46" spans="1:7" ht="14.25">
       <c r="A46" s="2" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17" t="s">
@@ -6579,13 +6606,13 @@
     </row>
     <row r="47" spans="1:7" ht="14.25">
       <c r="A47" s="2" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17" t="s">
@@ -6600,20 +6627,20 @@
     </row>
     <row r="48" spans="1:7" ht="14.25">
       <c r="A48" s="2" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>78</v>
@@ -6621,13 +6648,13 @@
     </row>
     <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="2" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17" t="s">
@@ -6651,20 +6678,20 @@
     </row>
     <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="2" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17" t="s">
         <v>81</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>82</v>
@@ -6672,20 +6699,20 @@
     </row>
     <row r="52" spans="1:7" ht="14.25">
       <c r="A52" s="2" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>84</v>
@@ -6693,20 +6720,20 @@
     </row>
     <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="2" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>86</v>
@@ -6714,41 +6741,41 @@
     </row>
     <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="2" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25">
       <c r="A55" s="2" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>89</v>
@@ -6756,13 +6783,13 @@
     </row>
     <row r="56" spans="1:7" ht="14.25">
       <c r="A56" s="2" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="2" t="s">
@@ -6786,20 +6813,20 @@
     </row>
     <row r="58" spans="1:7" ht="14.25">
       <c r="A58" s="2" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>93</v>
@@ -6807,20 +6834,20 @@
     </row>
     <row r="59" spans="1:7" ht="14.25">
       <c r="A59" s="2" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>95</v>
@@ -6828,20 +6855,20 @@
     </row>
     <row r="60" spans="1:7" ht="14.25">
       <c r="A60" s="2" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="2" t="s">
         <v>96</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>97</v>
@@ -6849,20 +6876,20 @@
     </row>
     <row r="61" spans="1:7" ht="14.25">
       <c r="A61" s="2" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="2" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>98</v>
@@ -6870,20 +6897,20 @@
     </row>
     <row r="62" spans="1:7" ht="14.25">
       <c r="A62" s="2" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>100</v>
@@ -6891,22 +6918,22 @@
     </row>
     <row r="63" spans="1:7" ht="14.25">
       <c r="A63" s="2" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>103</v>
@@ -6914,20 +6941,20 @@
     </row>
     <row r="64" spans="1:7" ht="14.25">
       <c r="A64" s="2" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>106</v>
@@ -6935,20 +6962,20 @@
     </row>
     <row r="65" spans="1:7" ht="14.25">
       <c r="A65" s="2" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="2" t="s">
         <v>108</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>109</v>
@@ -6956,20 +6983,20 @@
     </row>
     <row r="66" spans="1:7" ht="14.25">
       <c r="A66" s="2" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>112</v>
@@ -6977,20 +7004,20 @@
     </row>
     <row r="67" spans="1:7" ht="14.25">
       <c r="A67" s="2" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>114</v>
@@ -7007,20 +7034,20 @@
     </row>
     <row r="69" spans="1:7" ht="14.25">
       <c r="A69" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="17" t="s">
         <v>115</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>116</v>
@@ -7028,20 +7055,20 @@
     </row>
     <row r="70" spans="1:7" ht="14.25">
       <c r="A70" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>118</v>
@@ -7049,20 +7076,20 @@
     </row>
     <row r="71" spans="1:7" ht="14.25">
       <c r="A71" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>120</v>
@@ -7070,22 +7097,22 @@
     </row>
     <row r="72" spans="1:7" ht="14.25">
       <c r="A72" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>122</v>
@@ -7093,20 +7120,20 @@
     </row>
     <row r="73" spans="1:7" ht="14.25">
       <c r="A73" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="2" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>123</v>
@@ -7114,20 +7141,20 @@
     </row>
     <row r="74" spans="1:7" ht="14.25">
       <c r="A74" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="2" t="s">
         <v>124</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>125</v>
@@ -7135,20 +7162,20 @@
     </row>
     <row r="75" spans="1:7" ht="14.25">
       <c r="A75" s="2" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>127</v>
@@ -7165,13 +7192,13 @@
     </row>
     <row r="77" spans="1:7" ht="14.25">
       <c r="A77" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="2" t="s">
@@ -7186,20 +7213,20 @@
     </row>
     <row r="78" spans="1:7" ht="14.25">
       <c r="A78" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="2" t="s">
         <v>130</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>131</v>
@@ -7207,20 +7234,20 @@
     </row>
     <row r="79" spans="1:7" ht="14.25">
       <c r="A79" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="2" t="s">
         <v>132</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>133</v>
@@ -7228,20 +7255,20 @@
     </row>
     <row r="80" spans="1:7" ht="14.25">
       <c r="A80" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>135</v>
@@ -7249,20 +7276,20 @@
     </row>
     <row r="81" spans="1:7" ht="14.25">
       <c r="A81" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="2" t="s">
         <v>136</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>137</v>
@@ -7270,20 +7297,20 @@
     </row>
     <row r="82" spans="1:7" ht="14.25">
       <c r="A82" s="2" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>139</v>
@@ -7291,20 +7318,20 @@
     </row>
     <row r="83" spans="1:7" ht="14.25">
       <c r="A83" s="2" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="2" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>140</v>
@@ -7312,20 +7339,20 @@
     </row>
     <row r="84" spans="1:7" ht="14.25">
       <c r="A84" s="2" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="2" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>141</v>
@@ -7333,13 +7360,13 @@
     </row>
     <row r="85" spans="1:7" ht="14.25">
       <c r="A85" s="2" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="2" t="s">
@@ -7354,20 +7381,20 @@
     </row>
     <row r="86" spans="1:7" ht="14.25">
       <c r="A86" s="2" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="2" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>145</v>
@@ -7375,20 +7402,20 @@
     </row>
     <row r="87" spans="1:7" ht="14.25">
       <c r="A87" s="2" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="2" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>147</v>
@@ -7396,23 +7423,23 @@
     </row>
     <row r="88" spans="1:7" ht="14.25">
       <c r="A88" s="2" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="2" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="14.25">
@@ -7426,22 +7453,22 @@
     </row>
     <row r="90" spans="1:7" ht="14.25">
       <c r="A90" s="2" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>149</v>
@@ -7449,22 +7476,22 @@
     </row>
     <row r="91" spans="1:7" ht="14.25">
       <c r="A91" s="2" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>151</v>
@@ -7472,22 +7499,22 @@
     </row>
     <row r="92" spans="1:7" ht="14.25">
       <c r="A92" s="2" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>152</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>153</v>
@@ -7495,13 +7522,13 @@
     </row>
     <row r="93" spans="1:7" ht="14.25">
       <c r="A93" s="2" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>154</v>
@@ -7510,7 +7537,7 @@
         <v>154</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>155</v>
@@ -7518,22 +7545,22 @@
     </row>
     <row r="94" spans="1:7" ht="14.25">
       <c r="A94" s="2" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>156</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>157</v>
@@ -7541,22 +7568,22 @@
     </row>
     <row r="95" spans="1:7" ht="14.25">
       <c r="A95" s="2" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>158</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>159</v>
@@ -7573,20 +7600,20 @@
     </row>
     <row r="97" spans="1:7" ht="14.25">
       <c r="A97" s="2" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="2" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>160</v>
@@ -7594,20 +7621,20 @@
     </row>
     <row r="98" spans="1:7" ht="14.25">
       <c r="A98" s="2" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="2" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>161</v>
@@ -7615,20 +7642,20 @@
     </row>
     <row r="99" spans="1:7" ht="14.25">
       <c r="A99" s="2" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="2" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>162</v>
@@ -7636,20 +7663,20 @@
     </row>
     <row r="100" spans="1:7" ht="14.25">
       <c r="A100" s="2" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="2" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>163</v>
@@ -7657,20 +7684,20 @@
     </row>
     <row r="101" spans="1:7" ht="14.25">
       <c r="A101" s="2" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="2" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>164</v>
@@ -7678,20 +7705,20 @@
     </row>
     <row r="102" spans="1:7" ht="14.25">
       <c r="A102" s="2" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="2" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>165</v>
@@ -7708,20 +7735,20 @@
     </row>
     <row r="104" spans="1:7" ht="14.25">
       <c r="A104" s="2" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="2" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>166</v>
@@ -7729,20 +7756,20 @@
     </row>
     <row r="105" spans="1:7" ht="14.25">
       <c r="A105" s="2" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="2" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>167</v>
@@ -7750,20 +7777,20 @@
     </row>
     <row r="106" spans="1:7" ht="14.25">
       <c r="A106" s="2" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="2" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>168</v>
@@ -7771,20 +7798,20 @@
     </row>
     <row r="107" spans="1:7" ht="14.25">
       <c r="A107" s="2" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="2" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>169</v>
@@ -7792,20 +7819,20 @@
     </row>
     <row r="108" spans="1:7" ht="14.25">
       <c r="A108" s="2" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="2" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>170</v>
@@ -7813,20 +7840,20 @@
     </row>
     <row r="109" spans="1:7" ht="14.25">
       <c r="A109" s="2" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>171</v>
@@ -7834,20 +7861,20 @@
     </row>
     <row r="110" spans="1:7" ht="14.25">
       <c r="A110" s="2" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="2" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>172</v>
@@ -7864,20 +7891,20 @@
     </row>
     <row r="112" spans="1:7" ht="14.25">
       <c r="A112" s="2" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="2" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>173</v>
@@ -7885,20 +7912,20 @@
     </row>
     <row r="113" spans="1:7" ht="14.25">
       <c r="A113" s="2" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="2" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>174</v>
@@ -7906,20 +7933,20 @@
     </row>
     <row r="114" spans="1:7" ht="14.25">
       <c r="A114" s="2" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="2" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>175</v>
@@ -7927,20 +7954,20 @@
     </row>
     <row r="115" spans="1:7" ht="14.25">
       <c r="A115" s="2" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="2" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>176</v>
@@ -7948,20 +7975,20 @@
     </row>
     <row r="116" spans="1:7" ht="14.25">
       <c r="A116" s="2" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="2" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>177</v>
@@ -7969,20 +7996,20 @@
     </row>
     <row r="117" spans="1:7" ht="14.25">
       <c r="A117" s="2" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="2" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>178</v>
@@ -7999,22 +8026,22 @@
     </row>
     <row r="119" spans="1:7" ht="14.25">
       <c r="A119" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>179</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>180</v>
@@ -8022,22 +8049,22 @@
     </row>
     <row r="120" spans="1:7" ht="14.25">
       <c r="A120" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>182</v>
@@ -8045,22 +8072,22 @@
     </row>
     <row r="121" spans="1:7" ht="14.25">
       <c r="A121" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>184</v>
@@ -8068,22 +8095,22 @@
     </row>
     <row r="122" spans="1:7" ht="14.25">
       <c r="A122" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>186</v>
@@ -8091,22 +8118,22 @@
     </row>
     <row r="123" spans="1:7" ht="14.25">
       <c r="A123" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>188</v>
@@ -8114,22 +8141,22 @@
     </row>
     <row r="124" spans="1:7" ht="14.25">
       <c r="A124" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>189</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>190</v>
@@ -8137,22 +8164,22 @@
     </row>
     <row r="125" spans="1:7" ht="14.25">
       <c r="A125" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>192</v>
@@ -8160,13 +8187,13 @@
     </row>
     <row r="126" spans="1:7" ht="14.25">
       <c r="A126" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>193</v>
@@ -8175,7 +8202,7 @@
         <v>193</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>194</v>
@@ -8183,22 +8210,22 @@
     </row>
     <row r="127" spans="1:7" ht="14.25">
       <c r="A127" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>196</v>
@@ -8206,22 +8233,22 @@
     </row>
     <row r="128" spans="1:7" ht="14.25">
       <c r="A128" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>198</v>
@@ -8229,19 +8256,19 @@
     </row>
     <row r="129" spans="1:7" ht="14.25">
       <c r="A129" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>200</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>200</v>
@@ -8252,22 +8279,22 @@
     </row>
     <row r="130" spans="1:7" ht="14.25">
       <c r="A130" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>203</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>204</v>
@@ -8275,22 +8302,22 @@
     </row>
     <row r="131" spans="1:7" ht="14.25">
       <c r="A131" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>206</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>207</v>
@@ -8298,22 +8325,22 @@
     </row>
     <row r="132" spans="1:7" ht="14.25">
       <c r="A132" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>210</v>
@@ -8321,22 +8348,22 @@
     </row>
     <row r="133" spans="1:7" ht="14.25">
       <c r="A133" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>212</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>213</v>
@@ -8344,22 +8371,22 @@
     </row>
     <row r="134" spans="1:7" ht="14.25">
       <c r="A134" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>215</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>216</v>
@@ -8367,22 +8394,22 @@
     </row>
     <row r="135" spans="1:7" ht="14.25">
       <c r="A135" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>219</v>
@@ -8390,22 +8417,22 @@
     </row>
     <row r="136" spans="1:7" ht="14.25">
       <c r="A136" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>221</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>219</v>
@@ -8413,22 +8440,22 @@
     </row>
     <row r="137" spans="1:7" ht="14.25">
       <c r="A137" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>223</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>224</v>
@@ -8436,22 +8463,22 @@
     </row>
     <row r="138" spans="1:7" ht="14.25">
       <c r="A138" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>224</v>
@@ -8459,22 +8486,22 @@
     </row>
     <row r="139" spans="1:7" ht="14.25">
       <c r="A139" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>227</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>224</v>
@@ -8482,22 +8509,22 @@
     </row>
     <row r="140" spans="1:7" ht="14.25">
       <c r="A140" s="2" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>229</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>224</v>
@@ -8514,229 +8541,229 @@
     </row>
     <row r="142" spans="1:7" ht="14.25">
       <c r="A142" s="2" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="D142" s="17" t="s">
         <v>230</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14.25">
       <c r="A143" s="2" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>231</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14.25">
       <c r="A144" s="2" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>232</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.25">
       <c r="A145" s="2" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D145" s="17" t="s">
         <v>233</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="14.25">
       <c r="A146" s="2" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>234</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="14.25">
       <c r="A147" s="2" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>235</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="14.25">
       <c r="A148" s="2" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>236</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>236</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="14.25">
       <c r="A149" s="2" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>237</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="14.25">
       <c r="A150" s="2" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D150" s="17" t="s">
         <v>238</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="14.25">
       <c r="A151" s="2" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D151" s="17" t="s">
         <v>239</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>240</v>
@@ -8753,105 +8780,105 @@
     </row>
     <row r="153" spans="1:7" ht="14.25">
       <c r="A153" s="2" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="14.25">
       <c r="A154" s="2" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>242</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="14.25">
       <c r="A155" s="2" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>243</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="14.25">
       <c r="A156" s="2" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>244</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="14.25">
       <c r="A157" s="2" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>245</v>
@@ -8860,33 +8887,33 @@
         <v>245</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="14.25">
       <c r="A158" s="2" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>246</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="14.25">
@@ -8900,19 +8927,19 @@
     </row>
     <row r="160" spans="1:7" ht="14.25">
       <c r="A160" s="2" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>247</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="F160" s="17" t="s">
         <v>247</v>
@@ -8923,22 +8950,22 @@
     </row>
     <row r="161" spans="1:7" ht="14.25">
       <c r="A161" s="2" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="F161" s="17" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>250</v>
@@ -8946,22 +8973,22 @@
     </row>
     <row r="162" spans="1:7" ht="14.25">
       <c r="A162" s="2" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>251</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="F162" s="17" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>252</v>
@@ -8969,22 +8996,22 @@
     </row>
     <row r="163" spans="1:7" ht="14.25">
       <c r="A163" s="2" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>253</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>254</v>
@@ -8992,22 +9019,22 @@
     </row>
     <row r="164" spans="1:7" ht="14.25">
       <c r="A164" s="2" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>256</v>
@@ -9015,13 +9042,13 @@
     </row>
     <row r="165" spans="1:7" ht="14.25">
       <c r="A165" s="2" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D165" s="17" t="s">
         <v>257</v>
@@ -9038,19 +9065,19 @@
     </row>
     <row r="166" spans="1:7" ht="14.25">
       <c r="A166" s="2" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D166" s="17" t="s">
         <v>259</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="F166" s="17" t="s">
         <v>259</v>
@@ -9061,19 +9088,19 @@
     </row>
     <row r="167" spans="1:7" ht="14.25">
       <c r="A167" s="2" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D167" s="17" t="s">
         <v>261</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="F167" s="17" t="s">
         <v>261</v>
@@ -9084,19 +9111,19 @@
     </row>
     <row r="168" spans="1:7" ht="14.25">
       <c r="A168" s="2" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D168" s="17" t="s">
         <v>263</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="F168" s="17" t="s">
         <v>263</v>
@@ -9107,19 +9134,19 @@
     </row>
     <row r="169" spans="1:7" ht="14.25">
       <c r="A169" s="2" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D169" s="17" t="s">
         <v>265</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="F169" s="17" t="s">
         <v>265</v>
@@ -9130,19 +9157,19 @@
     </row>
     <row r="170" spans="1:7" ht="14.25">
       <c r="A170" s="2" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="D170" s="17" t="s">
         <v>267</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="F170" s="17" t="s">
         <v>267</v>
@@ -9153,19 +9180,19 @@
     </row>
     <row r="171" spans="1:7" ht="14.25">
       <c r="A171" s="2" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D171" s="17" t="s">
         <v>269</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="F171" s="17" t="s">
         <v>269</v>
@@ -9176,19 +9203,19 @@
     </row>
     <row r="172" spans="1:7" ht="14.25">
       <c r="A172" s="2" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D172" s="17" t="s">
         <v>271</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="F172" s="17" t="s">
         <v>271</v>
@@ -9199,19 +9226,19 @@
     </row>
     <row r="173" spans="1:7" ht="14.25">
       <c r="A173" s="2" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D173" s="17" t="s">
         <v>273</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="F173" s="17" t="s">
         <v>273</v>
@@ -9231,22 +9258,22 @@
     </row>
     <row r="175" spans="1:7" ht="14.25">
       <c r="A175" s="2" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D175" s="17" t="s">
         <v>275</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>276</v>
@@ -9254,22 +9281,22 @@
     </row>
     <row r="176" spans="1:7" ht="14.25">
       <c r="A176" s="2" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="F176" s="18" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>277</v>
@@ -9277,22 +9304,22 @@
     </row>
     <row r="177" spans="1:7" ht="14.25">
       <c r="A177" s="2" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D177" s="17" t="s">
         <v>278</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>279</v>
@@ -9300,22 +9327,22 @@
     </row>
     <row r="178" spans="1:7" ht="14.25">
       <c r="A178" s="2" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>280</v>
@@ -9323,13 +9350,13 @@
     </row>
     <row r="179" spans="1:7" ht="14.25">
       <c r="A179" s="2" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D179" s="17" t="s">
         <v>281</v>
@@ -9338,7 +9365,7 @@
         <v>281</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>282</v>
@@ -9346,22 +9373,22 @@
     </row>
     <row r="180" spans="1:7" ht="14.25">
       <c r="A180" s="2" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>283</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>284</v>
@@ -9369,22 +9396,22 @@
     </row>
     <row r="181" spans="1:7" ht="14.25">
       <c r="A181" s="2" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D181" s="17" t="s">
         <v>285</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>286</v>
@@ -9401,19 +9428,19 @@
     </row>
     <row r="183" spans="1:7" ht="14.25">
       <c r="A183" s="2" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="F183" s="17" t="s">
         <v>287</v>
@@ -9424,22 +9451,22 @@
     </row>
     <row r="184" spans="1:7" ht="14.25">
       <c r="A184" s="2" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>289</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="F184" s="17" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>290</v>
@@ -9447,22 +9474,22 @@
     </row>
     <row r="185" spans="1:7" ht="14.25">
       <c r="A185" s="2" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>291</v>
@@ -9470,22 +9497,22 @@
     </row>
     <row r="186" spans="1:7" ht="14.25">
       <c r="A186" s="2" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D186" s="17" t="s">
         <v>292</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>293</v>
@@ -9493,45 +9520,45 @@
     </row>
     <row r="187" spans="1:7" ht="14.25">
       <c r="A187" s="2" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="D187" s="17" t="s">
         <v>294</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="14.25">
       <c r="A188" s="2" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>295</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="F188" s="17" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>296</v>
@@ -9548,59 +9575,59 @@
     </row>
     <row r="190" spans="1:7" ht="14.25">
       <c r="A190" s="2" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>297</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="F190" s="17" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="14.25">
       <c r="A191" s="2" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="14.25">
       <c r="A192" s="2" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>298</v>
@@ -9609,102 +9636,102 @@
         <v>298</v>
       </c>
       <c r="F192" s="17" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="14.25">
       <c r="A193" s="2" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="D193" s="17" t="s">
         <v>299</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="F193" s="17" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="14.25">
       <c r="A194" s="2" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>300</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="F194" s="17" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="14.25">
       <c r="A195" s="2" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>301</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="F195" s="17" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="14.25">
       <c r="A196" s="2" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="F196" s="18" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="14.25">
@@ -9718,26 +9745,26 @@
     </row>
     <row r="198" spans="1:7" ht="14.25">
       <c r="A198" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2" t="s">
         <v>302</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E198" s="17" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F198" s="17" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="G198" s="2"/>
     </row>
     <row r="199" spans="1:7" ht="14.25">
       <c r="A199" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
@@ -9756,7 +9783,7 @@
     </row>
     <row r="200" spans="1:7" ht="14.25">
       <c r="A200" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2" t="s">
@@ -9775,7 +9802,7 @@
     </row>
     <row r="201" spans="1:7" ht="14.25">
       <c r="A201" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2" t="s">
@@ -9794,7 +9821,7 @@
     </row>
     <row r="202" spans="1:7" ht="14.25">
       <c r="A202" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2" t="s">
@@ -9813,7 +9840,7 @@
     </row>
     <row r="203" spans="1:7" ht="14.25">
       <c r="A203" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2" t="s">
@@ -9832,7 +9859,7 @@
     </row>
     <row r="204" spans="1:7" ht="14.25">
       <c r="A204" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2" t="s">
@@ -9851,7 +9878,7 @@
     </row>
     <row r="205" spans="1:7" ht="14.25">
       <c r="A205" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2" t="s">
@@ -9870,7 +9897,7 @@
     </row>
     <row r="206" spans="1:7" ht="14.25">
       <c r="A206" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="2" t="s">
@@ -9889,7 +9916,7 @@
     </row>
     <row r="207" spans="1:7" ht="14.25">
       <c r="A207" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="s">
@@ -9908,7 +9935,7 @@
     </row>
     <row r="208" spans="1:7" ht="14.25">
       <c r="A208" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2" t="s">
@@ -9927,7 +9954,7 @@
     </row>
     <row r="209" spans="1:7" ht="14.25">
       <c r="A209" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="2" t="s">
@@ -9946,7 +9973,7 @@
     </row>
     <row r="210" spans="1:7" ht="14.25">
       <c r="A210" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2" t="s">
@@ -9965,7 +9992,7 @@
     </row>
     <row r="211" spans="1:7" ht="14.25">
       <c r="A211" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2" t="s">
@@ -9984,7 +10011,7 @@
     </row>
     <row r="212" spans="1:7" ht="14.25">
       <c r="A212" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2" t="s">
@@ -10003,7 +10030,7 @@
     </row>
     <row r="213" spans="1:7" ht="14.25">
       <c r="A213" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2" t="s">
@@ -10022,7 +10049,7 @@
     </row>
     <row r="214" spans="1:7" ht="14.25">
       <c r="A214" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2" t="s">
@@ -10041,7 +10068,7 @@
     </row>
     <row r="215" spans="1:7" ht="14.25">
       <c r="A215" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2" t="s">
@@ -10060,7 +10087,7 @@
     </row>
     <row r="216" spans="1:7" ht="14.25">
       <c r="A216" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2" t="s">
@@ -10079,7 +10106,7 @@
     </row>
     <row r="217" spans="1:7" ht="14.25">
       <c r="A217" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="2" t="s">
@@ -10098,7 +10125,7 @@
     </row>
     <row r="218" spans="1:7" ht="14.25">
       <c r="A218" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="2" t="s">
@@ -10117,7 +10144,7 @@
     </row>
     <row r="219" spans="1:7" ht="14.25">
       <c r="A219" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2" t="s">
@@ -10136,7 +10163,7 @@
     </row>
     <row r="220" spans="1:7" ht="14.25">
       <c r="A220" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2" t="s">
@@ -10155,7 +10182,7 @@
     </row>
     <row r="221" spans="1:7" ht="14.25">
       <c r="A221" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="2" t="s">
@@ -10174,7 +10201,7 @@
     </row>
     <row r="222" spans="1:7" ht="14.25">
       <c r="A222" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="2" t="s">
@@ -10193,7 +10220,7 @@
     </row>
     <row r="223" spans="1:7" ht="14.25">
       <c r="A223" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="2" t="s">
@@ -10212,7 +10239,7 @@
     </row>
     <row r="224" spans="1:7" ht="14.25">
       <c r="A224" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="2" t="s">
@@ -10231,7 +10258,7 @@
     </row>
     <row r="225" spans="1:7" ht="14.25">
       <c r="A225" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="2" t="s">
@@ -10250,7 +10277,7 @@
     </row>
     <row r="226" spans="1:7" ht="14.25">
       <c r="A226" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2" t="s">
@@ -10269,7 +10296,7 @@
     </row>
     <row r="227" spans="1:7" ht="14.25">
       <c r="A227" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2" t="s">
@@ -10288,7 +10315,7 @@
     </row>
     <row r="228" spans="1:7" ht="14.25">
       <c r="A228" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2" t="s">
@@ -10307,7 +10334,7 @@
     </row>
     <row r="229" spans="1:7" ht="14.25">
       <c r="A229" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2" t="s">
@@ -10326,7 +10353,7 @@
     </row>
     <row r="230" spans="1:7" ht="14.25">
       <c r="A230" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2" t="s">
@@ -10345,7 +10372,7 @@
     </row>
     <row r="231" spans="1:7" ht="14.25">
       <c r="A231" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2" t="s">
@@ -10364,7 +10391,7 @@
     </row>
     <row r="232" spans="1:7" ht="14.25">
       <c r="A232" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2" t="s">
@@ -10383,41 +10410,41 @@
     </row>
     <row r="233" spans="1:7" ht="14.25">
       <c r="A233" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" s="2" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="F233" s="17" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="G233" s="2"/>
     </row>
     <row r="234" spans="1:7" ht="14.25">
       <c r="A234" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>336</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D234" s="17" t="s">
         <v>337</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="F234" s="16" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>338</v>
@@ -10425,23 +10452,23 @@
     </row>
     <row r="235" spans="1:7" ht="16.5">
       <c r="A235" s="2" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="D235" s="17" t="s">
         <v>339</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="F235" s="17" t="s">
         <v>339</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="14.25">
@@ -10455,13 +10482,13 @@
     </row>
     <row r="237" spans="1:7" ht="14.25">
       <c r="A237" s="2" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D237" s="17" t="s">
         <v>340</v>
@@ -10478,22 +10505,22 @@
     </row>
     <row r="238" spans="1:7" ht="14.25">
       <c r="A238" s="2" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="D238" s="17" t="s">
         <v>342</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>343</v>
@@ -10501,22 +10528,22 @@
     </row>
     <row r="239" spans="1:7" ht="14.25">
       <c r="A239" s="2" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="D239" s="17" t="s">
         <v>344</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="F239" s="17" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>345</v>
@@ -10524,13 +10551,13 @@
     </row>
     <row r="240" spans="1:7" ht="14.25">
       <c r="A240" s="2" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="D240" s="17" t="s">
         <v>346</v>
@@ -10547,13 +10574,13 @@
     </row>
     <row r="241" spans="1:7" ht="14.25">
       <c r="A241" s="2" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="D241" s="17" t="s">
         <v>348</v>
@@ -10570,22 +10597,22 @@
     </row>
     <row r="242" spans="1:7" ht="14.25">
       <c r="A242" s="2" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D242" s="17" t="s">
         <v>350</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>351</v>
@@ -10593,36 +10620,36 @@
     </row>
     <row r="243" spans="1:7" ht="14.25">
       <c r="A243" s="2" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>352</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="F243" s="9" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="14.25">
       <c r="A244" s="2" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D244" s="17" t="s">
         <v>353</v>
@@ -10631,79 +10658,79 @@
         <v>353</v>
       </c>
       <c r="F244" s="18" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="14.25">
       <c r="A245" s="2" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D245" s="17" t="s">
         <v>354</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="14.25">
       <c r="A246" s="2" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="D246" s="17" t="s">
         <v>355</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="14.25">
       <c r="A247" s="2" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D247" s="17" t="s">
         <v>356</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="14.25">
@@ -10717,82 +10744,82 @@
     </row>
     <row r="249" spans="1:7" ht="14.25">
       <c r="A249" s="2" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D249" s="17" t="s">
         <v>357</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="14.25">
       <c r="A250" s="2" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="14.25">
       <c r="A251" s="2" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>358</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="14.25">
       <c r="A252" s="2" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>359</v>
@@ -10801,56 +10828,56 @@
         <v>359</v>
       </c>
       <c r="F252" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="G252" s="2" t="s">
         <v>971</v>
-      </c>
-      <c r="G252" s="2" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="14.25">
       <c r="A253" s="2" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>360</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="F253" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="G253" s="2" t="s">
         <v>972</v>
-      </c>
-      <c r="G253" s="2" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="14.25">
       <c r="A254" s="2" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="F254" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="G254" s="2" t="s">
         <v>973</v>
-      </c>
-      <c r="G254" s="2" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="14.25">
@@ -10864,122 +10891,122 @@
     </row>
     <row r="256" spans="1:7" ht="14.25">
       <c r="A256" s="2" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="D256" s="17" t="s">
         <v>362</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="14.25">
       <c r="A257" s="2" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>363</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="14.25">
       <c r="A258" s="2" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>364</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="F258" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="G258" s="2" t="s">
         <v>982</v>
-      </c>
-      <c r="G258" s="2" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="14.25">
       <c r="A259" s="2" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>365</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="F259" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="G259" s="2" t="s">
         <v>983</v>
-      </c>
-      <c r="G259" s="2" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="14.25">
       <c r="A260" s="2" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>366</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="F260" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="G260" s="2" t="s">
         <v>984</v>
-      </c>
-      <c r="G260" s="2" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="14.25">
       <c r="A261" s="2" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>16</v>
@@ -10991,24 +11018,24 @@
         <v>368</v>
       </c>
       <c r="E261" s="17" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="F261" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="G261" s="2" t="s">
         <v>985</v>
-      </c>
-      <c r="G261" s="2" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="14.25">
       <c r="A262" s="2" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="D262" s="17" t="s">
         <v>369</v>
@@ -11017,235 +11044,235 @@
         <v>369</v>
       </c>
       <c r="F262" s="17" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="14.25">
       <c r="A263" s="2" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="F263" s="18" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="14.25">
       <c r="A264" s="2" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="D264" s="17" t="s">
         <v>370</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="F264" s="17" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="14.25">
       <c r="A265" s="2" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="D265" s="17" t="s">
         <v>370</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="F265" s="17" t="s">
         <v>370</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="14.25">
       <c r="A266" s="2" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="E266" s="17" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F266" s="17" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="14.25">
       <c r="A267" s="2" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="F267" s="18" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="14.25">
       <c r="A268" s="2" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="F268" s="18" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="14.25">
       <c r="A269" s="2" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="F269" s="17" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="14.25">
       <c r="A270" s="2" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="D270" s="17" t="s">
         <v>371</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="F270" s="18" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="14.25">
       <c r="A271" s="2" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>372</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="F271" s="16" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="14.25">
       <c r="A272" s="2" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="D272" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E272" s="16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F272" s="17" t="s">
         <v>1008</v>
-      </c>
-      <c r="E272" s="16" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F272" s="17" t="s">
-        <v>1014</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>373</v>
@@ -11253,22 +11280,22 @@
     </row>
     <row r="273" spans="1:7" ht="14.25">
       <c r="A273" s="2" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>376</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="F273" s="17" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>375</v>
@@ -11276,22 +11303,22 @@
     </row>
     <row r="274" spans="1:7" ht="14.25">
       <c r="A274" s="2" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>378</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="F274" s="17" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>377</v>
@@ -11299,22 +11326,22 @@
     </row>
     <row r="275" spans="1:7" ht="14.25">
       <c r="A275" s="2" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>374</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="F275" s="17" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>379</v>
@@ -11322,22 +11349,22 @@
     </row>
     <row r="276" spans="1:7" ht="14.25">
       <c r="A276" s="2" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>380</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="F276" s="17" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>381</v>
@@ -11345,22 +11372,22 @@
     </row>
     <row r="277" spans="1:7" ht="14.25">
       <c r="A277" s="2" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>382</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="F277" s="17" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>383</v>
@@ -11368,22 +11395,22 @@
     </row>
     <row r="278" spans="1:7" ht="14.25">
       <c r="A278" s="2" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>384</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="F278" s="17" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>385</v>
@@ -11391,22 +11418,22 @@
     </row>
     <row r="279" spans="1:7" ht="14.25">
       <c r="A279" s="2" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>386</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="F279" s="17" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>387</v>
@@ -11414,22 +11441,22 @@
     </row>
     <row r="280" spans="1:7" ht="14.25">
       <c r="A280" s="2" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>388</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>389</v>
@@ -11437,22 +11464,22 @@
     </row>
     <row r="281" spans="1:7" ht="14.25">
       <c r="A281" s="2" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>390</v>
@@ -11460,22 +11487,22 @@
     </row>
     <row r="282" spans="1:7" ht="14.25">
       <c r="A282" s="2" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>391</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>392</v>
@@ -11483,48 +11510,48 @@
     </row>
     <row r="283" spans="1:7" ht="14.25">
       <c r="A283" s="2" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>393</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="14.25">
       <c r="A284" s="2" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>394</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="14.25">
@@ -11538,13 +11565,13 @@
     </row>
     <row r="286" spans="1:7" ht="14.25">
       <c r="A286" s="2" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>395</v>
@@ -11553,113 +11580,113 @@
         <v>395</v>
       </c>
       <c r="F286" s="17" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="14.25">
       <c r="A287" s="2" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>396</v>
       </c>
       <c r="E287" s="17" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="F287" s="17" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="14.25">
       <c r="A288" s="2" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="E288" s="17" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="F288" s="17" t="s">
         <v>397</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="14.25">
       <c r="A289" s="2" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="E289" s="17" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="F289" s="17" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="14.25">
       <c r="A290" s="2" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="E290" s="17" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="F290" s="17" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="14.25">
       <c r="A291" s="2" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="D291" s="17" t="s">
         <v>398</v>
@@ -11668,10 +11695,10 @@
         <v>398</v>
       </c>
       <c r="F291" s="17" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="14.25">
@@ -11685,140 +11712,140 @@
     </row>
     <row r="293" spans="1:7" ht="14.25">
       <c r="A293" s="2" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="F293" s="17" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="14.25">
       <c r="A294" s="2" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="F294" s="18" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="14.25">
       <c r="A295" s="2" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="F295" s="18" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="14.25">
       <c r="A296" s="2" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>399</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="F296" s="17" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="14.25">
       <c r="A297" s="2" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>400</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="F297" s="17" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="14.25">
       <c r="A298" s="2" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>401</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="F298" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G298" s="2" t="s">
         <v>1206</v>
-      </c>
-      <c r="G298" s="2" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="14.25">
@@ -11832,140 +11859,140 @@
     </row>
     <row r="300" spans="1:7" ht="14.25">
       <c r="A300" s="2" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D300" s="17" t="s">
         <v>402</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="F300" s="16" t="s">
-        <v>1145</v>
+        <v>1357</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>403</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="14.25">
       <c r="A301" s="2" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="F301" s="16" t="s">
-        <v>1146</v>
+        <v>1358</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>405</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="14.25">
       <c r="A302" s="2" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="F302" s="21" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>407</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="14.25">
       <c r="A303" s="2" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="F303" s="16" t="s">
-        <v>1147</v>
+        <v>1359</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>409</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="14.25">
       <c r="A304" s="2" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="F304" s="16" t="s">
-        <v>1148</v>
+        <v>1360</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>411</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="14.25">
       <c r="A305" s="2" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="F305" s="16" t="s">
-        <v>1149</v>
+        <v>1361</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>413</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="14.25">
@@ -11979,128 +12006,128 @@
     </row>
     <row r="307" spans="1:7" ht="14.25">
       <c r="A307" s="2" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="F307" s="11"/>
       <c r="G307" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="14.25">
       <c r="A308" s="2" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="F308" s="11"/>
       <c r="G308" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="14.25">
       <c r="A309" s="2" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="F309" s="11"/>
       <c r="G309" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="14.25">
       <c r="A310" s="2" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="F310" s="11"/>
       <c r="G310" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="14.25">
       <c r="A311" s="2" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F311" s="11"/>
       <c r="G311" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="14.25">
       <c r="A312" s="2" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="F312" s="11"/>
       <c r="G312" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="14.25">
@@ -12114,149 +12141,149 @@
     </row>
     <row r="314" spans="1:7" ht="14.25">
       <c r="A314" s="2" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="F314" s="11"/>
       <c r="G314" s="2" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="14.25">
       <c r="A315" s="2" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="F315" s="11"/>
       <c r="G315" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="14.25">
       <c r="A316" s="2" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="F316" s="11"/>
       <c r="G316" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="14.25">
       <c r="A317" s="2" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="F317" s="11"/>
       <c r="G317" s="2" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="14.25">
       <c r="A318" s="2" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="F318" s="11"/>
       <c r="G318" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="14.25">
       <c r="A319" s="2" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="F319" s="11"/>
       <c r="G319" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="14.25">
       <c r="A320" s="2" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="F320" s="11"/>
       <c r="G320" s="2" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="14.25">
@@ -12270,128 +12297,128 @@
     </row>
     <row r="322" spans="1:7" ht="14.25">
       <c r="A322" s="2" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="F322" s="11"/>
       <c r="G322" s="2" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="14.25">
       <c r="A323" s="2" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="F323" s="11"/>
       <c r="G323" s="2" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="14.25">
       <c r="A324" s="2" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="F324" s="11"/>
       <c r="G324" s="2" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="14.25">
       <c r="A325" s="2" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="F325" s="11"/>
       <c r="G325" s="2" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="14.25">
       <c r="A326" s="2" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="F326" s="11"/>
       <c r="G326" s="2" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="14.25">
       <c r="A327" s="2" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="F327" s="11"/>
       <c r="G327" s="2" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="14.25">
@@ -12405,128 +12432,128 @@
     </row>
     <row r="329" spans="1:7" ht="14.25">
       <c r="A329" s="2" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="F329" s="11"/>
       <c r="G329" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="14.25">
       <c r="A330" s="2" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="F330" s="11"/>
       <c r="G330" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="14.25">
       <c r="A331" s="2" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="F331" s="11"/>
       <c r="G331" s="2" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="14.25">
       <c r="A332" s="2" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="F332" s="11"/>
       <c r="G332" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="14.25">
       <c r="A333" s="2" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="F333" s="11"/>
       <c r="G333" s="2" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="14.25">
       <c r="A334" s="2" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="F334" s="11"/>
       <c r="G334" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="14.25">
@@ -12540,128 +12567,128 @@
     </row>
     <row r="336" spans="1:7" ht="14.25">
       <c r="A336" s="2" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="F336" s="11"/>
       <c r="G336" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="14.25">
       <c r="A337" s="2" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="F337" s="11"/>
       <c r="G337" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="14.25">
       <c r="A338" s="2" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="F338" s="11"/>
       <c r="G338" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="14.25">
       <c r="A339" s="2" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="F339" s="11"/>
       <c r="G339" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="14.25">
       <c r="A340" s="2" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="F340" s="11"/>
       <c r="G340" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="14.25">
       <c r="A341" s="2" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F341" s="11"/>
       <c r="G341" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="14.25">
@@ -12675,128 +12702,128 @@
     </row>
     <row r="343" spans="1:7" ht="14.25">
       <c r="A343" s="2" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="F343" s="11"/>
       <c r="G343" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="14.25">
       <c r="A344" s="2" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="F344" s="11"/>
       <c r="G344" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="14.25">
       <c r="A345" s="2" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="F345" s="11"/>
       <c r="G345" s="2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="14.25">
       <c r="A346" s="2" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="F346" s="11"/>
       <c r="G346" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="14.25">
       <c r="A347" s="2" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="F347" s="11"/>
       <c r="G347" s="2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="14.25">
       <c r="A348" s="2" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="F348" s="11"/>
       <c r="G348" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="14.25">
@@ -12810,128 +12837,128 @@
     </row>
     <row r="350" spans="1:7" ht="14.25">
       <c r="A350" s="2" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="F350" s="11"/>
       <c r="G350" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="14.25">
       <c r="A351" s="2" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="F351" s="11"/>
       <c r="G351" s="2" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="14.25">
       <c r="A352" s="2" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="F352" s="11"/>
       <c r="G352" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="14.25">
       <c r="A353" s="2" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="F353" s="11"/>
       <c r="G353" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="14.25">
       <c r="A354" s="2" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="F354" s="11"/>
       <c r="G354" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="14.25">
       <c r="A355" s="2" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="F355" s="11"/>
       <c r="G355" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="14.25">
@@ -12945,116 +12972,116 @@
     </row>
     <row r="357" spans="1:7" ht="14.25">
       <c r="A357" s="2" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="E357" s="11"/>
       <c r="F357" s="11"/>
       <c r="G357" s="2" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="14.25">
       <c r="A358" s="2" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D358" s="16" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E358" s="11"/>
       <c r="F358" s="11"/>
       <c r="G358" s="2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="14.25">
       <c r="A359" s="2" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="E359" s="11"/>
       <c r="F359" s="11"/>
       <c r="G359" s="2" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="16.5">
       <c r="A360" s="2" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="E360" s="11"/>
       <c r="F360" s="11"/>
       <c r="G360" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="14.25">
       <c r="A361" s="2" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
       <c r="G361" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="14.25">
       <c r="A362" s="2" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D362" s="16" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
       <c r="G362" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="14.25">
@@ -13068,116 +13095,116 @@
     </row>
     <row r="364" spans="1:7" ht="14.25">
       <c r="A364" s="2" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E364" s="14"/>
       <c r="F364" s="11"/>
       <c r="G364" s="2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="14.25">
       <c r="A365" s="2" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E365" s="14"/>
       <c r="F365" s="11"/>
       <c r="G365" s="2" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="14.25">
       <c r="A366" s="2" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E366" s="14"/>
       <c r="F366" s="11"/>
       <c r="G366" s="2" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="14.25">
       <c r="A367" s="2" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E367" s="14"/>
       <c r="F367" s="11"/>
       <c r="G367" s="2" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="14.25">
       <c r="A368" s="2" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E368" s="14"/>
       <c r="F368" s="11"/>
       <c r="G368" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="57">
       <c r="A369" s="2" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="E369" s="15"/>
       <c r="F369" s="11"/>
       <c r="G369" s="2" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="14.25">
@@ -13191,116 +13218,116 @@
     </row>
     <row r="371" spans="1:7" ht="14.25">
       <c r="A371" s="2" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E371" s="14"/>
       <c r="F371" s="11"/>
       <c r="G371" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="14.25">
       <c r="A372" s="2" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E372" s="14"/>
       <c r="F372" s="11"/>
       <c r="G372" s="2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="14.25">
       <c r="A373" s="2" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E373" s="14"/>
       <c r="F373" s="11"/>
       <c r="G373" s="2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="14.25">
       <c r="A374" s="2" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="E374" s="14"/>
       <c r="F374" s="11"/>
       <c r="G374" s="2" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="14.25">
       <c r="A375" s="2" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="D375" s="17" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="E375" s="14"/>
       <c r="F375" s="11"/>
       <c r="G375" s="2" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="14.25">
       <c r="A376" s="2" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="D376" s="17" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="E376" s="14"/>
       <c r="F376" s="11"/>
       <c r="G376" s="2" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="14.25">
@@ -13314,116 +13341,116 @@
     </row>
     <row r="378" spans="1:7" ht="14.25">
       <c r="A378" s="2" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D378" s="5" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="E378" s="14"/>
       <c r="F378" s="11"/>
       <c r="G378" s="2" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="14.25">
       <c r="A379" s="2" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="D379" s="5" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="E379" s="14"/>
       <c r="F379" s="11"/>
       <c r="G379" s="2" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="14.25">
       <c r="A380" s="2" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D380" s="5" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E380" s="14"/>
       <c r="F380" s="11"/>
       <c r="G380" s="2" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="14.25">
       <c r="A381" s="2" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="D381" s="5" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="E381" s="14"/>
       <c r="F381" s="11"/>
       <c r="G381" s="2" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="14.25">
       <c r="A382" s="2" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="E382" s="14"/>
       <c r="F382" s="11"/>
       <c r="G382" s="2" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="14.25">
       <c r="A383" s="2" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="D383" s="17" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="E383" s="14"/>
       <c r="F383" s="11"/>
       <c r="G383" s="2" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="14.25">
@@ -13437,116 +13464,116 @@
     </row>
     <row r="385" spans="1:7" ht="14.25">
       <c r="A385" s="2" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C385" s="19" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="D385" s="22" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="E385" s="11"/>
       <c r="F385" s="11"/>
       <c r="G385" s="2" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="14.25">
       <c r="A386" s="2" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C386" s="19" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="D386" s="22" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="E386" s="11"/>
       <c r="F386" s="11"/>
       <c r="G386" s="2" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="14.25">
       <c r="A387" s="2" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C387" s="19" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="D387" s="17" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="E387" s="11"/>
       <c r="F387" s="11"/>
       <c r="G387" s="2" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="14.25">
       <c r="A388" s="2" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C388" s="19" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="D388" s="22" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="E388" s="11"/>
       <c r="F388" s="11"/>
       <c r="G388" s="2" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="14.25">
       <c r="A389" s="2" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C389" s="19" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="D389" s="22" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="E389" s="11"/>
       <c r="F389" s="11"/>
       <c r="G389" s="2" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="14.25">
       <c r="A390" s="2" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C390" s="19" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="D390" s="22" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="E390" s="13"/>
       <c r="F390" s="13"/>
       <c r="G390" s="2" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="14.25">

--- a/章节标题.xlsx
+++ b/章节标题.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\魔禁相关\魔法禁书目录X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBDF6030-328C-46E8-8D89-442BD8D9D384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F659124C-A774-4EEA-9F1B-773FEB529032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="22605" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1635" yWindow="675" windowWidth="22605" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet10" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet10!$A$1:$A$383</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1368">
   <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2877,10 +2876,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>异世界交流，起始之点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"R&amp;C OCCULTICS Co.Ltd."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2890,10 +2885,6 @@
   </si>
   <si>
     <t>雪と真紅が覆い尽くす</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白雪与鲜红，覆盖一切 ​​​</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4869,6 +4860,14 @@
   </si>
   <si>
     <t>The_End_is_Named...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异世界交流，其之始点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白雪与鲜红，覆盖一切</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5708,8 +5707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="G281" sqref="G281"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="E359" sqref="E359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5726,22 +5725,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25">
       <c r="A1" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>1</v>
@@ -5749,7 +5748,7 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -5759,10 +5758,10 @@
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -5770,7 +5769,7 @@
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -5791,7 +5790,7 @@
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -5812,7 +5811,7 @@
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -5833,7 +5832,7 @@
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -5854,7 +5853,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -5884,7 +5883,7 @@
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
@@ -5905,7 +5904,7 @@
     </row>
     <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
@@ -5926,7 +5925,7 @@
     </row>
     <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
@@ -5947,7 +5946,7 @@
     </row>
     <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
@@ -5968,7 +5967,7 @@
     </row>
     <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
@@ -5989,7 +5988,7 @@
     </row>
     <row r="14" spans="1:7" ht="14.25">
       <c r="A14" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
@@ -6019,7 +6018,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.25">
       <c r="A16" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
@@ -6040,7 +6039,7 @@
     </row>
     <row r="17" spans="1:7" ht="14.25">
       <c r="A17" s="2" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
@@ -6061,7 +6060,7 @@
     </row>
     <row r="18" spans="1:7" ht="14.25">
       <c r="A18" s="2" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
@@ -6082,7 +6081,7 @@
     </row>
     <row r="19" spans="1:7" ht="14.25">
       <c r="A19" s="2" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
@@ -6103,7 +6102,7 @@
     </row>
     <row r="20" spans="1:7" ht="14.25">
       <c r="A20" s="2" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
@@ -6124,7 +6123,7 @@
     </row>
     <row r="21" spans="1:7" ht="14.25">
       <c r="A21" s="2" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>16</v>
@@ -6154,7 +6153,7 @@
     </row>
     <row r="23" spans="1:7" ht="14.25">
       <c r="A23" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>2</v>
@@ -6173,7 +6172,7 @@
     </row>
     <row r="24" spans="1:7" ht="14.25">
       <c r="A24" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>5</v>
@@ -6192,7 +6191,7 @@
     </row>
     <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
@@ -6211,7 +6210,7 @@
     </row>
     <row r="26" spans="1:7" ht="14.25">
       <c r="A26" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>10</v>
@@ -6230,7 +6229,7 @@
     </row>
     <row r="27" spans="1:7" ht="14.25">
       <c r="A27" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>13</v>
@@ -6249,7 +6248,7 @@
     </row>
     <row r="28" spans="1:7" ht="14.25">
       <c r="A28" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>16</v>
@@ -6277,7 +6276,7 @@
     </row>
     <row r="30" spans="1:7" ht="14.25">
       <c r="A30" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>2</v>
@@ -6298,7 +6297,7 @@
     </row>
     <row r="31" spans="1:7" ht="14.25">
       <c r="A31" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
@@ -6311,7 +6310,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>51</v>
@@ -6319,7 +6318,7 @@
     </row>
     <row r="32" spans="1:7" ht="14.25">
       <c r="A32" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>8</v>
@@ -6332,7 +6331,7 @@
         <v>52</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>53</v>
@@ -6340,7 +6339,7 @@
     </row>
     <row r="33" spans="1:7" ht="14.25">
       <c r="A33" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>10</v>
@@ -6353,7 +6352,7 @@
         <v>54</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>55</v>
@@ -6361,7 +6360,7 @@
     </row>
     <row r="34" spans="1:7" ht="14.25">
       <c r="A34" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>13</v>
@@ -6374,7 +6373,7 @@
         <v>56</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>57</v>
@@ -6382,7 +6381,7 @@
     </row>
     <row r="35" spans="1:7" ht="14.25">
       <c r="A35" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>16</v>
@@ -6412,7 +6411,7 @@
     </row>
     <row r="37" spans="1:7" ht="14.25">
       <c r="A37" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>2</v>
@@ -6431,7 +6430,7 @@
     </row>
     <row r="38" spans="1:7" ht="14.25">
       <c r="A38" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
@@ -6452,7 +6451,7 @@
     </row>
     <row r="39" spans="1:7" ht="14.25">
       <c r="A39" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>8</v>
@@ -6473,7 +6472,7 @@
     </row>
     <row r="40" spans="1:7" ht="14.25">
       <c r="A40" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>10</v>
@@ -6494,7 +6493,7 @@
     </row>
     <row r="41" spans="1:7" ht="14.25">
       <c r="A41" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>13</v>
@@ -6515,7 +6514,7 @@
     </row>
     <row r="42" spans="1:7" ht="14.25">
       <c r="A42" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>16</v>
@@ -6543,7 +6542,7 @@
     </row>
     <row r="44" spans="1:7" ht="14.25">
       <c r="A44" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>2</v>
@@ -6564,7 +6563,7 @@
     </row>
     <row r="45" spans="1:7" ht="14.25">
       <c r="A45" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>5</v>
@@ -6585,7 +6584,7 @@
     </row>
     <row r="46" spans="1:7" ht="14.25">
       <c r="A46" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>8</v>
@@ -6606,7 +6605,7 @@
     </row>
     <row r="47" spans="1:7" ht="14.25">
       <c r="A47" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>10</v>
@@ -6627,7 +6626,7 @@
     </row>
     <row r="48" spans="1:7" ht="14.25">
       <c r="A48" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>13</v>
@@ -6648,7 +6647,7 @@
     </row>
     <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>16</v>
@@ -6678,7 +6677,7 @@
     </row>
     <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>2</v>
@@ -6691,7 +6690,7 @@
         <v>81</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>82</v>
@@ -6699,7 +6698,7 @@
     </row>
     <row r="52" spans="1:7" ht="14.25">
       <c r="A52" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>5</v>
@@ -6712,7 +6711,7 @@
         <v>83</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>84</v>
@@ -6720,7 +6719,7 @@
     </row>
     <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>8</v>
@@ -6733,7 +6732,7 @@
         <v>85</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>86</v>
@@ -6741,7 +6740,7 @@
     </row>
     <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>10</v>
@@ -6754,7 +6753,7 @@
         <v>87</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>559</v>
@@ -6762,7 +6761,7 @@
     </row>
     <row r="55" spans="1:7" ht="14.25">
       <c r="A55" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>13</v>
@@ -6775,7 +6774,7 @@
         <v>88</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>89</v>
@@ -6783,7 +6782,7 @@
     </row>
     <row r="56" spans="1:7" ht="14.25">
       <c r="A56" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>16</v>
@@ -6813,7 +6812,7 @@
     </row>
     <row r="58" spans="1:7" ht="14.25">
       <c r="A58" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>2</v>
@@ -6826,7 +6825,7 @@
         <v>92</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>93</v>
@@ -6834,7 +6833,7 @@
     </row>
     <row r="59" spans="1:7" ht="14.25">
       <c r="A59" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>5</v>
@@ -6847,7 +6846,7 @@
         <v>94</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>95</v>
@@ -6855,7 +6854,7 @@
     </row>
     <row r="60" spans="1:7" ht="14.25">
       <c r="A60" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>8</v>
@@ -6868,7 +6867,7 @@
         <v>96</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>97</v>
@@ -6876,7 +6875,7 @@
     </row>
     <row r="61" spans="1:7" ht="14.25">
       <c r="A61" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>10</v>
@@ -6886,10 +6885,10 @@
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="2" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>98</v>
@@ -6897,7 +6896,7 @@
     </row>
     <row r="62" spans="1:7" ht="14.25">
       <c r="A62" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>13</v>
@@ -6910,7 +6909,7 @@
         <v>99</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>100</v>
@@ -6918,7 +6917,7 @@
     </row>
     <row r="63" spans="1:7" ht="14.25">
       <c r="A63" s="2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>101</v>
@@ -6927,13 +6926,13 @@
         <v>567</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>103</v>
@@ -6941,7 +6940,7 @@
     </row>
     <row r="64" spans="1:7" ht="14.25">
       <c r="A64" s="2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>104</v>
@@ -6954,7 +6953,7 @@
         <v>105</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>106</v>
@@ -6962,7 +6961,7 @@
     </row>
     <row r="65" spans="1:7" ht="14.25">
       <c r="A65" s="2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>107</v>
@@ -6975,7 +6974,7 @@
         <v>108</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>109</v>
@@ -6983,7 +6982,7 @@
     </row>
     <row r="66" spans="1:7" ht="14.25">
       <c r="A66" s="2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>110</v>
@@ -6996,7 +6995,7 @@
         <v>111</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>112</v>
@@ -7004,7 +7003,7 @@
     </row>
     <row r="67" spans="1:7" ht="14.25">
       <c r="A67" s="2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>16</v>
@@ -7017,7 +7016,7 @@
         <v>113</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>114</v>
@@ -7034,7 +7033,7 @@
     </row>
     <row r="69" spans="1:7" ht="14.25">
       <c r="A69" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>2</v>
@@ -7047,7 +7046,7 @@
         <v>115</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>116</v>
@@ -7055,7 +7054,7 @@
     </row>
     <row r="70" spans="1:7" ht="14.25">
       <c r="A70" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>5</v>
@@ -7068,7 +7067,7 @@
         <v>117</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>118</v>
@@ -7076,7 +7075,7 @@
     </row>
     <row r="71" spans="1:7" ht="14.25">
       <c r="A71" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>8</v>
@@ -7089,7 +7088,7 @@
         <v>119</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>120</v>
@@ -7097,7 +7096,7 @@
     </row>
     <row r="72" spans="1:7" ht="14.25">
       <c r="A72" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>10</v>
@@ -7106,13 +7105,13 @@
         <v>575</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>122</v>
@@ -7120,7 +7119,7 @@
     </row>
     <row r="73" spans="1:7" ht="14.25">
       <c r="A73" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>13</v>
@@ -7130,10 +7129,10 @@
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>123</v>
@@ -7141,7 +7140,7 @@
     </row>
     <row r="74" spans="1:7" ht="14.25">
       <c r="A74" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>101</v>
@@ -7154,7 +7153,7 @@
         <v>124</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>125</v>
@@ -7162,7 +7161,7 @@
     </row>
     <row r="75" spans="1:7" ht="14.25">
       <c r="A75" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>16</v>
@@ -7175,7 +7174,7 @@
         <v>126</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>127</v>
@@ -7192,7 +7191,7 @@
     </row>
     <row r="77" spans="1:7" ht="14.25">
       <c r="A77" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>2</v>
@@ -7213,7 +7212,7 @@
     </row>
     <row r="78" spans="1:7" ht="14.25">
       <c r="A78" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>5</v>
@@ -7226,7 +7225,7 @@
         <v>130</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>131</v>
@@ -7234,7 +7233,7 @@
     </row>
     <row r="79" spans="1:7" ht="14.25">
       <c r="A79" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>8</v>
@@ -7247,7 +7246,7 @@
         <v>132</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>133</v>
@@ -7255,7 +7254,7 @@
     </row>
     <row r="80" spans="1:7" ht="14.25">
       <c r="A80" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>10</v>
@@ -7268,7 +7267,7 @@
         <v>134</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>135</v>
@@ -7276,7 +7275,7 @@
     </row>
     <row r="81" spans="1:7" ht="14.25">
       <c r="A81" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>13</v>
@@ -7289,7 +7288,7 @@
         <v>136</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>137</v>
@@ -7297,7 +7296,7 @@
     </row>
     <row r="82" spans="1:7" ht="14.25">
       <c r="A82" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>101</v>
@@ -7310,7 +7309,7 @@
         <v>138</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>139</v>
@@ -7318,7 +7317,7 @@
     </row>
     <row r="83" spans="1:7" ht="14.25">
       <c r="A83" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>104</v>
@@ -7328,10 +7327,10 @@
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>140</v>
@@ -7339,7 +7338,7 @@
     </row>
     <row r="84" spans="1:7" ht="14.25">
       <c r="A84" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>107</v>
@@ -7349,10 +7348,10 @@
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>141</v>
@@ -7360,7 +7359,7 @@
     </row>
     <row r="85" spans="1:7" ht="14.25">
       <c r="A85" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>110</v>
@@ -7381,7 +7380,7 @@
     </row>
     <row r="86" spans="1:7" ht="14.25">
       <c r="A86" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>144</v>
@@ -7391,10 +7390,10 @@
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>145</v>
@@ -7402,7 +7401,7 @@
     </row>
     <row r="87" spans="1:7" ht="14.25">
       <c r="A87" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>146</v>
@@ -7412,10 +7411,10 @@
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>147</v>
@@ -7423,7 +7422,7 @@
     </row>
     <row r="88" spans="1:7" ht="14.25">
       <c r="A88" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>16</v>
@@ -7433,10 +7432,10 @@
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>591</v>
@@ -7453,7 +7452,7 @@
     </row>
     <row r="90" spans="1:7" ht="14.25">
       <c r="A90" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>2</v>
@@ -7465,10 +7464,10 @@
         <v>148</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>149</v>
@@ -7476,7 +7475,7 @@
     </row>
     <row r="91" spans="1:7" ht="14.25">
       <c r="A91" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>5</v>
@@ -7488,10 +7487,10 @@
         <v>150</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>151</v>
@@ -7499,7 +7498,7 @@
     </row>
     <row r="92" spans="1:7" ht="14.25">
       <c r="A92" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>8</v>
@@ -7511,10 +7510,10 @@
         <v>152</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>153</v>
@@ -7522,7 +7521,7 @@
     </row>
     <row r="93" spans="1:7" ht="14.25">
       <c r="A93" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>10</v>
@@ -7537,7 +7536,7 @@
         <v>154</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>155</v>
@@ -7545,7 +7544,7 @@
     </row>
     <row r="94" spans="1:7" ht="14.25">
       <c r="A94" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>13</v>
@@ -7557,10 +7556,10 @@
         <v>156</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>157</v>
@@ -7568,7 +7567,7 @@
     </row>
     <row r="95" spans="1:7" ht="14.25">
       <c r="A95" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>16</v>
@@ -7580,10 +7579,10 @@
         <v>158</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>159</v>
@@ -7600,7 +7599,7 @@
     </row>
     <row r="97" spans="1:7" ht="14.25">
       <c r="A97" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>2</v>
@@ -7610,10 +7609,10 @@
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>160</v>
@@ -7621,7 +7620,7 @@
     </row>
     <row r="98" spans="1:7" ht="14.25">
       <c r="A98" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>5</v>
@@ -7631,10 +7630,10 @@
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>161</v>
@@ -7642,7 +7641,7 @@
     </row>
     <row r="99" spans="1:7" ht="14.25">
       <c r="A99" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>8</v>
@@ -7652,10 +7651,10 @@
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>162</v>
@@ -7663,7 +7662,7 @@
     </row>
     <row r="100" spans="1:7" ht="14.25">
       <c r="A100" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>10</v>
@@ -7673,10 +7672,10 @@
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>163</v>
@@ -7684,7 +7683,7 @@
     </row>
     <row r="101" spans="1:7" ht="14.25">
       <c r="A101" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>13</v>
@@ -7694,10 +7693,10 @@
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>164</v>
@@ -7705,7 +7704,7 @@
     </row>
     <row r="102" spans="1:7" ht="14.25">
       <c r="A102" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>16</v>
@@ -7715,10 +7714,10 @@
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>165</v>
@@ -7735,7 +7734,7 @@
     </row>
     <row r="104" spans="1:7" ht="14.25">
       <c r="A104" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>2</v>
@@ -7745,10 +7744,10 @@
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>166</v>
@@ -7756,7 +7755,7 @@
     </row>
     <row r="105" spans="1:7" ht="14.25">
       <c r="A105" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>5</v>
@@ -7766,10 +7765,10 @@
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>167</v>
@@ -7777,7 +7776,7 @@
     </row>
     <row r="106" spans="1:7" ht="14.25">
       <c r="A106" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>8</v>
@@ -7787,10 +7786,10 @@
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>168</v>
@@ -7798,7 +7797,7 @@
     </row>
     <row r="107" spans="1:7" ht="14.25">
       <c r="A107" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>10</v>
@@ -7808,10 +7807,10 @@
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>169</v>
@@ -7819,7 +7818,7 @@
     </row>
     <row r="108" spans="1:7" ht="14.25">
       <c r="A108" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>13</v>
@@ -7829,10 +7828,10 @@
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>170</v>
@@ -7840,7 +7839,7 @@
     </row>
     <row r="109" spans="1:7" ht="14.25">
       <c r="A109" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>101</v>
@@ -7850,10 +7849,10 @@
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="2" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>171</v>
@@ -7861,7 +7860,7 @@
     </row>
     <row r="110" spans="1:7" ht="14.25">
       <c r="A110" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>16</v>
@@ -7871,10 +7870,10 @@
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>172</v>
@@ -7891,7 +7890,7 @@
     </row>
     <row r="112" spans="1:7" ht="14.25">
       <c r="A112" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>2</v>
@@ -7901,10 +7900,10 @@
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>173</v>
@@ -7912,7 +7911,7 @@
     </row>
     <row r="113" spans="1:7" ht="14.25">
       <c r="A113" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>5</v>
@@ -7922,10 +7921,10 @@
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>174</v>
@@ -7933,7 +7932,7 @@
     </row>
     <row r="114" spans="1:7" ht="14.25">
       <c r="A114" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>8</v>
@@ -7943,10 +7942,10 @@
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>175</v>
@@ -7954,7 +7953,7 @@
     </row>
     <row r="115" spans="1:7" ht="14.25">
       <c r="A115" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>10</v>
@@ -7964,10 +7963,10 @@
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>176</v>
@@ -7975,7 +7974,7 @@
     </row>
     <row r="116" spans="1:7" ht="14.25">
       <c r="A116" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>13</v>
@@ -7985,10 +7984,10 @@
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>177</v>
@@ -7996,7 +7995,7 @@
     </row>
     <row r="117" spans="1:7" ht="14.25">
       <c r="A117" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>16</v>
@@ -8006,10 +8005,10 @@
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>178</v>
@@ -8026,7 +8025,7 @@
     </row>
     <row r="119" spans="1:7" ht="14.25">
       <c r="A119" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>5</v>
@@ -8038,10 +8037,10 @@
         <v>179</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>180</v>
@@ -8049,7 +8048,7 @@
     </row>
     <row r="120" spans="1:7" ht="14.25">
       <c r="A120" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>8</v>
@@ -8061,10 +8060,10 @@
         <v>181</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>182</v>
@@ -8072,7 +8071,7 @@
     </row>
     <row r="121" spans="1:7" ht="14.25">
       <c r="A121" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>10</v>
@@ -8084,10 +8083,10 @@
         <v>183</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>184</v>
@@ -8095,7 +8094,7 @@
     </row>
     <row r="122" spans="1:7" ht="14.25">
       <c r="A122" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>13</v>
@@ -8107,10 +8106,10 @@
         <v>185</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>186</v>
@@ -8118,7 +8117,7 @@
     </row>
     <row r="123" spans="1:7" ht="14.25">
       <c r="A123" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>101</v>
@@ -8130,10 +8129,10 @@
         <v>187</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>188</v>
@@ -8141,7 +8140,7 @@
     </row>
     <row r="124" spans="1:7" ht="14.25">
       <c r="A124" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>104</v>
@@ -8153,10 +8152,10 @@
         <v>189</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>190</v>
@@ -8164,7 +8163,7 @@
     </row>
     <row r="125" spans="1:7" ht="14.25">
       <c r="A125" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>107</v>
@@ -8176,10 +8175,10 @@
         <v>191</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>192</v>
@@ -8187,7 +8186,7 @@
     </row>
     <row r="126" spans="1:7" ht="14.25">
       <c r="A126" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>110</v>
@@ -8202,7 +8201,7 @@
         <v>193</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>194</v>
@@ -8210,7 +8209,7 @@
     </row>
     <row r="127" spans="1:7" ht="14.25">
       <c r="A127" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>144</v>
@@ -8222,10 +8221,10 @@
         <v>195</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>196</v>
@@ -8233,7 +8232,7 @@
     </row>
     <row r="128" spans="1:7" ht="14.25">
       <c r="A128" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>146</v>
@@ -8245,10 +8244,10 @@
         <v>197</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>198</v>
@@ -8256,7 +8255,7 @@
     </row>
     <row r="129" spans="1:7" ht="14.25">
       <c r="A129" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>199</v>
@@ -8268,7 +8267,7 @@
         <v>200</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>200</v>
@@ -8279,7 +8278,7 @@
     </row>
     <row r="130" spans="1:7" ht="14.25">
       <c r="A130" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>202</v>
@@ -8291,10 +8290,10 @@
         <v>203</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>204</v>
@@ -8302,7 +8301,7 @@
     </row>
     <row r="131" spans="1:7" ht="14.25">
       <c r="A131" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>205</v>
@@ -8314,10 +8313,10 @@
         <v>206</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>207</v>
@@ -8325,7 +8324,7 @@
     </row>
     <row r="132" spans="1:7" ht="14.25">
       <c r="A132" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>208</v>
@@ -8337,10 +8336,10 @@
         <v>209</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>210</v>
@@ -8348,7 +8347,7 @@
     </row>
     <row r="133" spans="1:7" ht="14.25">
       <c r="A133" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>211</v>
@@ -8360,10 +8359,10 @@
         <v>212</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>213</v>
@@ -8371,7 +8370,7 @@
     </row>
     <row r="134" spans="1:7" ht="14.25">
       <c r="A134" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>214</v>
@@ -8383,10 +8382,10 @@
         <v>215</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>216</v>
@@ -8394,7 +8393,7 @@
     </row>
     <row r="135" spans="1:7" ht="14.25">
       <c r="A135" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>217</v>
@@ -8406,10 +8405,10 @@
         <v>218</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>219</v>
@@ -8417,7 +8416,7 @@
     </row>
     <row r="136" spans="1:7" ht="14.25">
       <c r="A136" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>220</v>
@@ -8429,10 +8428,10 @@
         <v>221</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>219</v>
@@ -8440,7 +8439,7 @@
     </row>
     <row r="137" spans="1:7" ht="14.25">
       <c r="A137" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>222</v>
@@ -8452,10 +8451,10 @@
         <v>223</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>224</v>
@@ -8463,7 +8462,7 @@
     </row>
     <row r="138" spans="1:7" ht="14.25">
       <c r="A138" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>225</v>
@@ -8472,13 +8471,13 @@
         <v>636</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>224</v>
@@ -8486,7 +8485,7 @@
     </row>
     <row r="139" spans="1:7" ht="14.25">
       <c r="A139" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>226</v>
@@ -8498,10 +8497,10 @@
         <v>227</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>224</v>
@@ -8509,7 +8508,7 @@
     </row>
     <row r="140" spans="1:7" ht="14.25">
       <c r="A140" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>228</v>
@@ -8521,10 +8520,10 @@
         <v>229</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>224</v>
@@ -8541,7 +8540,7 @@
     </row>
     <row r="142" spans="1:7" ht="14.25">
       <c r="A142" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>5</v>
@@ -8553,18 +8552,18 @@
         <v>230</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14.25">
       <c r="A143" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>8</v>
@@ -8576,18 +8575,18 @@
         <v>231</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14.25">
       <c r="A144" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>10</v>
@@ -8599,18 +8598,18 @@
         <v>232</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.25">
       <c r="A145" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>13</v>
@@ -8622,18 +8621,18 @@
         <v>233</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="14.25">
       <c r="A146" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>16</v>
@@ -8645,18 +8644,18 @@
         <v>234</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="14.25">
       <c r="A147" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>101</v>
@@ -8668,18 +8667,18 @@
         <v>235</v>
       </c>
       <c r="E147" s="16" t="s">
+        <v>886</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>888</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="14.25">
       <c r="A148" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>104</v>
@@ -8691,18 +8690,18 @@
         <v>236</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>236</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="14.25">
       <c r="A149" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>107</v>
@@ -8714,18 +8713,18 @@
         <v>237</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="14.25">
       <c r="A150" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>110</v>
@@ -8737,18 +8736,18 @@
         <v>238</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="14.25">
       <c r="A151" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>16</v>
@@ -8760,10 +8759,10 @@
         <v>239</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>240</v>
@@ -8780,7 +8779,7 @@
     </row>
     <row r="153" spans="1:7" ht="14.25">
       <c r="A153" s="2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>2</v>
@@ -8792,18 +8791,18 @@
         <v>241</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="14.25">
       <c r="A154" s="2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>5</v>
@@ -8815,18 +8814,18 @@
         <v>242</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="14.25">
       <c r="A155" s="2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>8</v>
@@ -8838,18 +8837,18 @@
         <v>243</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="14.25">
       <c r="A156" s="2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>10</v>
@@ -8861,18 +8860,18 @@
         <v>244</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="14.25">
       <c r="A157" s="2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>13</v>
@@ -8887,15 +8886,15 @@
         <v>245</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="14.25">
       <c r="A158" s="2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>16</v>
@@ -8907,13 +8906,13 @@
         <v>246</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="14.25">
@@ -8927,7 +8926,7 @@
     </row>
     <row r="160" spans="1:7" ht="14.25">
       <c r="A160" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>2</v>
@@ -8939,7 +8938,7 @@
         <v>247</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F160" s="17" t="s">
         <v>247</v>
@@ -8950,7 +8949,7 @@
     </row>
     <row r="161" spans="1:7" ht="14.25">
       <c r="A161" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>5</v>
@@ -8962,10 +8961,10 @@
         <v>249</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="F161" s="17" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>250</v>
@@ -8973,7 +8972,7 @@
     </row>
     <row r="162" spans="1:7" ht="14.25">
       <c r="A162" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>8</v>
@@ -8985,10 +8984,10 @@
         <v>251</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F162" s="17" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>252</v>
@@ -8996,7 +8995,7 @@
     </row>
     <row r="163" spans="1:7" ht="14.25">
       <c r="A163" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>10</v>
@@ -9008,10 +9007,10 @@
         <v>253</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>254</v>
@@ -9019,7 +9018,7 @@
     </row>
     <row r="164" spans="1:7" ht="14.25">
       <c r="A164" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>13</v>
@@ -9031,10 +9030,10 @@
         <v>255</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="F164" s="18" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>256</v>
@@ -9042,7 +9041,7 @@
     </row>
     <row r="165" spans="1:7" ht="14.25">
       <c r="A165" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>101</v>
@@ -9065,7 +9064,7 @@
     </row>
     <row r="166" spans="1:7" ht="14.25">
       <c r="A166" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>104</v>
@@ -9077,7 +9076,7 @@
         <v>259</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="F166" s="17" t="s">
         <v>259</v>
@@ -9088,7 +9087,7 @@
     </row>
     <row r="167" spans="1:7" ht="14.25">
       <c r="A167" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>107</v>
@@ -9100,7 +9099,7 @@
         <v>261</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F167" s="17" t="s">
         <v>261</v>
@@ -9111,7 +9110,7 @@
     </row>
     <row r="168" spans="1:7" ht="14.25">
       <c r="A168" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>110</v>
@@ -9123,7 +9122,7 @@
         <v>263</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F168" s="17" t="s">
         <v>263</v>
@@ -9134,7 +9133,7 @@
     </row>
     <row r="169" spans="1:7" ht="14.25">
       <c r="A169" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>144</v>
@@ -9146,7 +9145,7 @@
         <v>265</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F169" s="17" t="s">
         <v>265</v>
@@ -9157,7 +9156,7 @@
     </row>
     <row r="170" spans="1:7" ht="14.25">
       <c r="A170" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>146</v>
@@ -9169,7 +9168,7 @@
         <v>267</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F170" s="17" t="s">
         <v>267</v>
@@ -9180,7 +9179,7 @@
     </row>
     <row r="171" spans="1:7" ht="14.25">
       <c r="A171" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>199</v>
@@ -9192,7 +9191,7 @@
         <v>269</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F171" s="17" t="s">
         <v>269</v>
@@ -9203,7 +9202,7 @@
     </row>
     <row r="172" spans="1:7" ht="14.25">
       <c r="A172" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>202</v>
@@ -9215,7 +9214,7 @@
         <v>271</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F172" s="17" t="s">
         <v>271</v>
@@ -9226,7 +9225,7 @@
     </row>
     <row r="173" spans="1:7" ht="14.25">
       <c r="A173" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>16</v>
@@ -9238,7 +9237,7 @@
         <v>273</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="F173" s="17" t="s">
         <v>273</v>
@@ -9258,7 +9257,7 @@
     </row>
     <row r="175" spans="1:7" ht="14.25">
       <c r="A175" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>2</v>
@@ -9270,10 +9269,10 @@
         <v>275</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>276</v>
@@ -9281,22 +9280,22 @@
     </row>
     <row r="176" spans="1:7" ht="14.25">
       <c r="A176" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C176" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="D176" s="17" t="s">
+        <v>905</v>
+      </c>
+      <c r="E176" s="16" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F176" s="18" t="s">
         <v>906</v>
-      </c>
-      <c r="D176" s="17" t="s">
-        <v>907</v>
-      </c>
-      <c r="E176" s="16" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F176" s="18" t="s">
-        <v>908</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>277</v>
@@ -9304,7 +9303,7 @@
     </row>
     <row r="177" spans="1:7" ht="14.25">
       <c r="A177" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>8</v>
@@ -9316,10 +9315,10 @@
         <v>278</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>279</v>
@@ -9327,7 +9326,7 @@
     </row>
     <row r="178" spans="1:7" ht="14.25">
       <c r="A178" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>10</v>
@@ -9336,13 +9335,13 @@
         <v>671</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="F178" s="18" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>280</v>
@@ -9350,7 +9349,7 @@
     </row>
     <row r="179" spans="1:7" ht="14.25">
       <c r="A179" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>13</v>
@@ -9365,7 +9364,7 @@
         <v>281</v>
       </c>
       <c r="F179" s="18" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>282</v>
@@ -9373,7 +9372,7 @@
     </row>
     <row r="180" spans="1:7" ht="14.25">
       <c r="A180" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>101</v>
@@ -9385,10 +9384,10 @@
         <v>283</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>284</v>
@@ -9396,7 +9395,7 @@
     </row>
     <row r="181" spans="1:7" ht="14.25">
       <c r="A181" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>16</v>
@@ -9408,10 +9407,10 @@
         <v>285</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>286</v>
@@ -9428,7 +9427,7 @@
     </row>
     <row r="183" spans="1:7" ht="14.25">
       <c r="A183" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>2</v>
@@ -9437,10 +9436,10 @@
         <v>675</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="F183" s="17" t="s">
         <v>287</v>
@@ -9451,7 +9450,7 @@
     </row>
     <row r="184" spans="1:7" ht="14.25">
       <c r="A184" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>5</v>
@@ -9463,10 +9462,10 @@
         <v>289</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="F184" s="17" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>290</v>
@@ -9474,7 +9473,7 @@
     </row>
     <row r="185" spans="1:7" ht="14.25">
       <c r="A185" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>8</v>
@@ -9483,13 +9482,13 @@
         <v>677</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="F185" s="18" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>291</v>
@@ -9497,7 +9496,7 @@
     </row>
     <row r="186" spans="1:7" ht="14.25">
       <c r="A186" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>10</v>
@@ -9509,10 +9508,10 @@
         <v>292</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="F186" s="18" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>293</v>
@@ -9520,7 +9519,7 @@
     </row>
     <row r="187" spans="1:7" ht="14.25">
       <c r="A187" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>13</v>
@@ -9532,10 +9531,10 @@
         <v>294</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="F187" s="18" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>680</v>
@@ -9543,7 +9542,7 @@
     </row>
     <row r="188" spans="1:7" ht="14.25">
       <c r="A188" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>16</v>
@@ -9555,10 +9554,10 @@
         <v>295</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="F188" s="17" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>296</v>
@@ -9575,7 +9574,7 @@
     </row>
     <row r="190" spans="1:7" ht="14.25">
       <c r="A190" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>2</v>
@@ -9587,18 +9586,18 @@
         <v>297</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="F190" s="17" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="14.25">
       <c r="A191" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>5</v>
@@ -9607,21 +9606,21 @@
         <v>683</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="14.25">
       <c r="A192" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>8</v>
@@ -9636,15 +9635,15 @@
         <v>298</v>
       </c>
       <c r="F192" s="17" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="14.25">
       <c r="A193" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>10</v>
@@ -9656,18 +9655,18 @@
         <v>299</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F193" s="17" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="14.25">
       <c r="A194" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>13</v>
@@ -9679,18 +9678,18 @@
         <v>300</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="F194" s="17" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="14.25">
       <c r="A195" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>101</v>
@@ -9702,18 +9701,18 @@
         <v>301</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F195" s="17" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="14.25">
       <c r="A196" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>16</v>
@@ -9722,16 +9721,16 @@
         <v>688</v>
       </c>
       <c r="D196" s="17" t="s">
+        <v>930</v>
+      </c>
+      <c r="E196" s="16" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F196" s="18" t="s">
         <v>932</v>
       </c>
-      <c r="E196" s="16" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F196" s="18" t="s">
-        <v>934</v>
-      </c>
       <c r="G196" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="14.25">
@@ -9745,7 +9744,7 @@
     </row>
     <row r="198" spans="1:7" ht="14.25">
       <c r="A198" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2" t="s">
@@ -9764,7 +9763,7 @@
     </row>
     <row r="199" spans="1:7" ht="14.25">
       <c r="A199" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
@@ -9783,7 +9782,7 @@
     </row>
     <row r="200" spans="1:7" ht="14.25">
       <c r="A200" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2" t="s">
@@ -9802,7 +9801,7 @@
     </row>
     <row r="201" spans="1:7" ht="14.25">
       <c r="A201" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2" t="s">
@@ -9821,7 +9820,7 @@
     </row>
     <row r="202" spans="1:7" ht="14.25">
       <c r="A202" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2" t="s">
@@ -9840,7 +9839,7 @@
     </row>
     <row r="203" spans="1:7" ht="14.25">
       <c r="A203" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2" t="s">
@@ -9859,7 +9858,7 @@
     </row>
     <row r="204" spans="1:7" ht="14.25">
       <c r="A204" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2" t="s">
@@ -9878,7 +9877,7 @@
     </row>
     <row r="205" spans="1:7" ht="14.25">
       <c r="A205" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2" t="s">
@@ -9897,7 +9896,7 @@
     </row>
     <row r="206" spans="1:7" ht="14.25">
       <c r="A206" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="2" t="s">
@@ -9916,7 +9915,7 @@
     </row>
     <row r="207" spans="1:7" ht="14.25">
       <c r="A207" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="s">
@@ -9935,7 +9934,7 @@
     </row>
     <row r="208" spans="1:7" ht="14.25">
       <c r="A208" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2" t="s">
@@ -9954,7 +9953,7 @@
     </row>
     <row r="209" spans="1:7" ht="14.25">
       <c r="A209" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="2" t="s">
@@ -9973,7 +9972,7 @@
     </row>
     <row r="210" spans="1:7" ht="14.25">
       <c r="A210" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2" t="s">
@@ -9992,7 +9991,7 @@
     </row>
     <row r="211" spans="1:7" ht="14.25">
       <c r="A211" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2" t="s">
@@ -10011,7 +10010,7 @@
     </row>
     <row r="212" spans="1:7" ht="14.25">
       <c r="A212" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2" t="s">
@@ -10030,7 +10029,7 @@
     </row>
     <row r="213" spans="1:7" ht="14.25">
       <c r="A213" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2" t="s">
@@ -10049,7 +10048,7 @@
     </row>
     <row r="214" spans="1:7" ht="14.25">
       <c r="A214" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2" t="s">
@@ -10068,7 +10067,7 @@
     </row>
     <row r="215" spans="1:7" ht="14.25">
       <c r="A215" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2" t="s">
@@ -10087,7 +10086,7 @@
     </row>
     <row r="216" spans="1:7" ht="14.25">
       <c r="A216" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2" t="s">
@@ -10106,7 +10105,7 @@
     </row>
     <row r="217" spans="1:7" ht="14.25">
       <c r="A217" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="2" t="s">
@@ -10125,7 +10124,7 @@
     </row>
     <row r="218" spans="1:7" ht="14.25">
       <c r="A218" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="2" t="s">
@@ -10144,7 +10143,7 @@
     </row>
     <row r="219" spans="1:7" ht="14.25">
       <c r="A219" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2" t="s">
@@ -10163,7 +10162,7 @@
     </row>
     <row r="220" spans="1:7" ht="14.25">
       <c r="A220" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2" t="s">
@@ -10182,7 +10181,7 @@
     </row>
     <row r="221" spans="1:7" ht="14.25">
       <c r="A221" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="2" t="s">
@@ -10201,7 +10200,7 @@
     </row>
     <row r="222" spans="1:7" ht="14.25">
       <c r="A222" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="2" t="s">
@@ -10220,7 +10219,7 @@
     </row>
     <row r="223" spans="1:7" ht="14.25">
       <c r="A223" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="2" t="s">
@@ -10239,7 +10238,7 @@
     </row>
     <row r="224" spans="1:7" ht="14.25">
       <c r="A224" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="2" t="s">
@@ -10258,7 +10257,7 @@
     </row>
     <row r="225" spans="1:7" ht="14.25">
       <c r="A225" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="2" t="s">
@@ -10277,7 +10276,7 @@
     </row>
     <row r="226" spans="1:7" ht="14.25">
       <c r="A226" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2" t="s">
@@ -10296,7 +10295,7 @@
     </row>
     <row r="227" spans="1:7" ht="14.25">
       <c r="A227" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2" t="s">
@@ -10315,7 +10314,7 @@
     </row>
     <row r="228" spans="1:7" ht="14.25">
       <c r="A228" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2" t="s">
@@ -10334,7 +10333,7 @@
     </row>
     <row r="229" spans="1:7" ht="14.25">
       <c r="A229" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2" t="s">
@@ -10353,7 +10352,7 @@
     </row>
     <row r="230" spans="1:7" ht="14.25">
       <c r="A230" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2" t="s">
@@ -10372,7 +10371,7 @@
     </row>
     <row r="231" spans="1:7" ht="14.25">
       <c r="A231" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2" t="s">
@@ -10391,7 +10390,7 @@
     </row>
     <row r="232" spans="1:7" ht="14.25">
       <c r="A232" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2" t="s">
@@ -10410,7 +10409,7 @@
     </row>
     <row r="233" spans="1:7" ht="14.25">
       <c r="A233" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" s="2" t="s">
@@ -10420,7 +10419,7 @@
         <v>691</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="F233" s="17" t="s">
         <v>691</v>
@@ -10429,7 +10428,7 @@
     </row>
     <row r="234" spans="1:7" ht="14.25">
       <c r="A234" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>336</v>
@@ -10441,10 +10440,10 @@
         <v>337</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F234" s="16" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>338</v>
@@ -10452,7 +10451,7 @@
     </row>
     <row r="235" spans="1:7" ht="16.5">
       <c r="A235" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2" t="s">
@@ -10462,13 +10461,13 @@
         <v>339</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="F235" s="17" t="s">
         <v>339</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="14.25">
@@ -10482,7 +10481,7 @@
     </row>
     <row r="237" spans="1:7" ht="14.25">
       <c r="A237" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>2</v>
@@ -10505,7 +10504,7 @@
     </row>
     <row r="238" spans="1:7" ht="14.25">
       <c r="A238" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>5</v>
@@ -10517,10 +10516,10 @@
         <v>342</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G238" s="2" t="s">
         <v>343</v>
@@ -10528,7 +10527,7 @@
     </row>
     <row r="239" spans="1:7" ht="14.25">
       <c r="A239" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>8</v>
@@ -10540,10 +10539,10 @@
         <v>344</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F239" s="17" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G239" s="2" t="s">
         <v>345</v>
@@ -10551,7 +10550,7 @@
     </row>
     <row r="240" spans="1:7" ht="14.25">
       <c r="A240" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>10</v>
@@ -10574,7 +10573,7 @@
     </row>
     <row r="241" spans="1:7" ht="14.25">
       <c r="A241" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>13</v>
@@ -10597,7 +10596,7 @@
     </row>
     <row r="242" spans="1:7" ht="14.25">
       <c r="A242" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>16</v>
@@ -10609,10 +10608,10 @@
         <v>350</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G242" s="2" t="s">
         <v>351</v>
@@ -10620,7 +10619,7 @@
     </row>
     <row r="243" spans="1:7" ht="14.25">
       <c r="A243" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>101</v>
@@ -10632,18 +10631,18 @@
         <v>352</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F243" s="9" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="14.25">
       <c r="A244" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>104</v>
@@ -10658,15 +10657,15 @@
         <v>353</v>
       </c>
       <c r="F244" s="18" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="14.25">
       <c r="A245" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>107</v>
@@ -10678,18 +10677,18 @@
         <v>354</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="14.25">
       <c r="A246" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>110</v>
@@ -10701,18 +10700,18 @@
         <v>355</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="14.25">
       <c r="A247" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>16</v>
@@ -10724,13 +10723,13 @@
         <v>356</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="14.25">
@@ -10744,7 +10743,7 @@
     </row>
     <row r="249" spans="1:7" ht="14.25">
       <c r="A249" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>2</v>
@@ -10756,18 +10755,18 @@
         <v>357</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="14.25">
       <c r="A250" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>5</v>
@@ -10776,21 +10775,21 @@
         <v>706</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="14.25">
       <c r="A251" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>8</v>
@@ -10802,18 +10801,18 @@
         <v>358</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="14.25">
       <c r="A252" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>10</v>
@@ -10828,15 +10827,15 @@
         <v>359</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="14.25">
       <c r="A253" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>13</v>
@@ -10848,18 +10847,18 @@
         <v>360</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="14.25">
       <c r="A254" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>16</v>
@@ -10871,13 +10870,13 @@
         <v>361</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="14.25">
@@ -10891,7 +10890,7 @@
     </row>
     <row r="256" spans="1:7" ht="14.25">
       <c r="A256" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>2</v>
@@ -10903,18 +10902,18 @@
         <v>362</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="14.25">
       <c r="A257" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>5</v>
@@ -10926,18 +10925,18 @@
         <v>363</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="14.25">
       <c r="A258" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>8</v>
@@ -10949,18 +10948,18 @@
         <v>364</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="14.25">
       <c r="A259" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>10</v>
@@ -10972,18 +10971,18 @@
         <v>365</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="14.25">
       <c r="A260" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>13</v>
@@ -10995,18 +10994,18 @@
         <v>366</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="14.25">
       <c r="A261" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>16</v>
@@ -11018,18 +11017,18 @@
         <v>368</v>
       </c>
       <c r="E261" s="17" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F261" s="17" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="14.25">
       <c r="A262" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>2</v>
@@ -11044,15 +11043,15 @@
         <v>369</v>
       </c>
       <c r="F262" s="17" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="14.25">
       <c r="A263" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>101</v>
@@ -11061,21 +11060,21 @@
         <v>717</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F263" s="18" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="14.25">
       <c r="A264" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>104</v>
@@ -11087,18 +11086,18 @@
         <v>370</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F264" s="17" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="14.25">
       <c r="A265" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>104</v>
@@ -11110,18 +11109,18 @@
         <v>370</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F265" s="17" t="s">
         <v>370</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="14.25">
       <c r="A266" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2" t="s">
@@ -11142,7 +11141,7 @@
     </row>
     <row r="267" spans="1:7" ht="14.25">
       <c r="A267" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>104</v>
@@ -11151,21 +11150,21 @@
         <v>718</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F267" s="18" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="14.25">
       <c r="A268" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>107</v>
@@ -11174,21 +11173,21 @@
         <v>720</v>
       </c>
       <c r="D268" s="17" t="s">
+        <v>985</v>
+      </c>
+      <c r="E268" s="16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F268" s="18" t="s">
         <v>987</v>
       </c>
-      <c r="E268" s="16" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F268" s="18" t="s">
-        <v>989</v>
-      </c>
       <c r="G268" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="14.25">
       <c r="A269" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>110</v>
@@ -11200,18 +11199,18 @@
         <v>722</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F269" s="17" t="s">
         <v>722</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="14.25">
       <c r="A270" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>16</v>
@@ -11223,18 +11222,18 @@
         <v>371</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="F270" s="18" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="14.25">
       <c r="A271" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>2</v>
@@ -11246,18 +11245,18 @@
         <v>372</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="F271" s="16" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="14.25">
       <c r="A272" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>144</v>
@@ -11266,13 +11265,13 @@
         <v>725</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="F272" s="17" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>373</v>
@@ -11280,22 +11279,22 @@
     </row>
     <row r="273" spans="1:7" ht="14.25">
       <c r="A273" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>376</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F273" s="17" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>375</v>
@@ -11303,22 +11302,22 @@
     </row>
     <row r="274" spans="1:7" ht="14.25">
       <c r="A274" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>378</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F274" s="17" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>377</v>
@@ -11326,7 +11325,7 @@
     </row>
     <row r="275" spans="1:7" ht="14.25">
       <c r="A275" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>202</v>
@@ -11338,10 +11337,10 @@
         <v>374</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F275" s="17" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>379</v>
@@ -11349,7 +11348,7 @@
     </row>
     <row r="276" spans="1:7" ht="14.25">
       <c r="A276" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>205</v>
@@ -11361,10 +11360,10 @@
         <v>380</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="F276" s="17" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>381</v>
@@ -11372,7 +11371,7 @@
     </row>
     <row r="277" spans="1:7" ht="14.25">
       <c r="A277" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>208</v>
@@ -11384,10 +11383,10 @@
         <v>382</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="F277" s="17" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>383</v>
@@ -11395,7 +11394,7 @@
     </row>
     <row r="278" spans="1:7" ht="14.25">
       <c r="A278" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>211</v>
@@ -11407,10 +11406,10 @@
         <v>384</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F278" s="17" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>385</v>
@@ -11418,7 +11417,7 @@
     </row>
     <row r="279" spans="1:7" ht="14.25">
       <c r="A279" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>214</v>
@@ -11430,10 +11429,10 @@
         <v>386</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F279" s="17" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>387</v>
@@ -11441,7 +11440,7 @@
     </row>
     <row r="280" spans="1:7" ht="14.25">
       <c r="A280" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>217</v>
@@ -11453,10 +11452,10 @@
         <v>388</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>389</v>
@@ -11464,7 +11463,7 @@
     </row>
     <row r="281" spans="1:7" ht="14.25">
       <c r="A281" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>220</v>
@@ -11473,13 +11472,13 @@
         <v>732</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>390</v>
@@ -11487,7 +11486,7 @@
     </row>
     <row r="282" spans="1:7" ht="14.25">
       <c r="A282" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>222</v>
@@ -11499,10 +11498,10 @@
         <v>391</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>392</v>
@@ -11510,7 +11509,7 @@
     </row>
     <row r="283" spans="1:7" ht="14.25">
       <c r="A283" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>225</v>
@@ -11522,18 +11521,18 @@
         <v>393</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="14.25">
       <c r="A284" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>16</v>
@@ -11545,13 +11544,13 @@
         <v>394</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="14.25">
@@ -11565,7 +11564,7 @@
     </row>
     <row r="286" spans="1:7" ht="14.25">
       <c r="A286" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>2</v>
@@ -11580,15 +11579,15 @@
         <v>395</v>
       </c>
       <c r="F286" s="17" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="14.25">
       <c r="A287" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>5</v>
@@ -11600,18 +11599,18 @@
         <v>396</v>
       </c>
       <c r="E287" s="17" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F287" s="17" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="14.25">
       <c r="A288" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>8</v>
@@ -11620,21 +11619,21 @@
         <v>738</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E288" s="17" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F288" s="17" t="s">
         <v>397</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="14.25">
       <c r="A289" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>10</v>
@@ -11643,21 +11642,21 @@
         <v>739</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E289" s="17" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F289" s="17" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="14.25">
       <c r="A290" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>13</v>
@@ -11666,21 +11665,21 @@
         <v>740</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E290" s="17" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F290" s="17" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="14.25">
       <c r="A291" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>16</v>
@@ -11695,10 +11694,10 @@
         <v>398</v>
       </c>
       <c r="F291" s="17" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="14.25">
@@ -11712,7 +11711,7 @@
     </row>
     <row r="293" spans="1:7" ht="14.25">
       <c r="A293" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>2</v>
@@ -11721,21 +11720,21 @@
         <v>742</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="F293" s="17" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="14.25">
       <c r="A294" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>5</v>
@@ -11744,21 +11743,21 @@
         <v>743</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="F294" s="18" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="14.25">
       <c r="A295" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>8</v>
@@ -11767,21 +11766,21 @@
         <v>744</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F295" s="18" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="14.25">
       <c r="A296" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>10</v>
@@ -11793,18 +11792,18 @@
         <v>399</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F296" s="17" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="14.25">
       <c r="A297" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>13</v>
@@ -11816,18 +11815,18 @@
         <v>400</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F297" s="17" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="14.25">
       <c r="A298" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>16</v>
@@ -11839,13 +11838,13 @@
         <v>401</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="14.25">
@@ -11859,7 +11858,7 @@
     </row>
     <row r="300" spans="1:7" ht="14.25">
       <c r="A300" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>2</v>
@@ -11871,18 +11870,18 @@
         <v>402</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F300" s="16" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="14.25">
       <c r="A301" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>5</v>
@@ -11894,18 +11893,18 @@
         <v>403</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="F301" s="16" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="14.25">
       <c r="A302" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>8</v>
@@ -11917,18 +11916,18 @@
         <v>404</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="F302" s="21" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="14.25">
       <c r="A303" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>10</v>
@@ -11940,18 +11939,18 @@
         <v>405</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="F303" s="16" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="14.25">
       <c r="A304" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>13</v>
@@ -11963,18 +11962,18 @@
         <v>406</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="F304" s="16" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="14.25">
       <c r="A305" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>16</v>
@@ -11986,13 +11985,13 @@
         <v>407</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F305" s="16" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="14.25">
@@ -12006,7 +12005,7 @@
     </row>
     <row r="307" spans="1:7" ht="14.25">
       <c r="A307" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>2</v>
@@ -12018,7 +12017,7 @@
         <v>408</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="F307" s="11"/>
       <c r="G307" s="2" t="s">
@@ -12027,7 +12026,7 @@
     </row>
     <row r="308" spans="1:7" ht="14.25">
       <c r="A308" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>5</v>
@@ -12039,7 +12038,7 @@
         <v>410</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="F308" s="11"/>
       <c r="G308" s="2" t="s">
@@ -12048,7 +12047,7 @@
     </row>
     <row r="309" spans="1:7" ht="14.25">
       <c r="A309" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>8</v>
@@ -12060,7 +12059,7 @@
         <v>412</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="F309" s="11"/>
       <c r="G309" s="2" t="s">
@@ -12069,7 +12068,7 @@
     </row>
     <row r="310" spans="1:7" ht="14.25">
       <c r="A310" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>10</v>
@@ -12081,7 +12080,7 @@
         <v>414</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="F310" s="11"/>
       <c r="G310" s="2" t="s">
@@ -12090,7 +12089,7 @@
     </row>
     <row r="311" spans="1:7" ht="14.25">
       <c r="A311" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>13</v>
@@ -12111,7 +12110,7 @@
     </row>
     <row r="312" spans="1:7" ht="14.25">
       <c r="A312" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>16</v>
@@ -12123,7 +12122,7 @@
         <v>418</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="F312" s="11"/>
       <c r="G312" s="2" t="s">
@@ -12141,7 +12140,7 @@
     </row>
     <row r="314" spans="1:7" ht="14.25">
       <c r="A314" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>2</v>
@@ -12153,7 +12152,7 @@
         <v>420</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F314" s="11"/>
       <c r="G314" s="2" t="s">
@@ -12162,7 +12161,7 @@
     </row>
     <row r="315" spans="1:7" ht="14.25">
       <c r="A315" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>5</v>
@@ -12174,7 +12173,7 @@
         <v>422</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F315" s="11"/>
       <c r="G315" s="2" t="s">
@@ -12183,7 +12182,7 @@
     </row>
     <row r="316" spans="1:7" ht="14.25">
       <c r="A316" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>8</v>
@@ -12195,7 +12194,7 @@
         <v>424</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F316" s="11"/>
       <c r="G316" s="2" t="s">
@@ -12204,7 +12203,7 @@
     </row>
     <row r="317" spans="1:7" ht="14.25">
       <c r="A317" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>10</v>
@@ -12216,7 +12215,7 @@
         <v>426</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F317" s="11"/>
       <c r="G317" s="2" t="s">
@@ -12225,7 +12224,7 @@
     </row>
     <row r="318" spans="1:7" ht="14.25">
       <c r="A318" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>13</v>
@@ -12237,7 +12236,7 @@
         <v>427</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F318" s="11"/>
       <c r="G318" s="2" t="s">
@@ -12246,7 +12245,7 @@
     </row>
     <row r="319" spans="1:7" ht="14.25">
       <c r="A319" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>101</v>
@@ -12258,7 +12257,7 @@
         <v>429</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="F319" s="11"/>
       <c r="G319" s="2" t="s">
@@ -12267,7 +12266,7 @@
     </row>
     <row r="320" spans="1:7" ht="14.25">
       <c r="A320" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>16</v>
@@ -12279,7 +12278,7 @@
         <v>431</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F320" s="11"/>
       <c r="G320" s="2" t="s">
@@ -12297,7 +12296,7 @@
     </row>
     <row r="322" spans="1:7" ht="14.25">
       <c r="A322" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>2</v>
@@ -12309,7 +12308,7 @@
         <v>433</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="F322" s="11"/>
       <c r="G322" s="2" t="s">
@@ -12318,7 +12317,7 @@
     </row>
     <row r="323" spans="1:7" ht="14.25">
       <c r="A323" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>5</v>
@@ -12330,7 +12329,7 @@
         <v>435</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F323" s="11"/>
       <c r="G323" s="2" t="s">
@@ -12339,7 +12338,7 @@
     </row>
     <row r="324" spans="1:7" ht="14.25">
       <c r="A324" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>8</v>
@@ -12351,7 +12350,7 @@
         <v>437</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F324" s="11"/>
       <c r="G324" s="2" t="s">
@@ -12360,7 +12359,7 @@
     </row>
     <row r="325" spans="1:7" ht="14.25">
       <c r="A325" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>10</v>
@@ -12372,7 +12371,7 @@
         <v>439</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F325" s="11"/>
       <c r="G325" s="2" t="s">
@@ -12381,7 +12380,7 @@
     </row>
     <row r="326" spans="1:7" ht="14.25">
       <c r="A326" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>13</v>
@@ -12393,7 +12392,7 @@
         <v>441</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F326" s="11"/>
       <c r="G326" s="2" t="s">
@@ -12402,7 +12401,7 @@
     </row>
     <row r="327" spans="1:7" ht="14.25">
       <c r="A327" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>16</v>
@@ -12414,7 +12413,7 @@
         <v>443</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="F327" s="11"/>
       <c r="G327" s="2" t="s">
@@ -12432,7 +12431,7 @@
     </row>
     <row r="329" spans="1:7" ht="14.25">
       <c r="A329" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>2</v>
@@ -12444,7 +12443,7 @@
         <v>445</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F329" s="11"/>
       <c r="G329" s="2" t="s">
@@ -12453,7 +12452,7 @@
     </row>
     <row r="330" spans="1:7" ht="14.25">
       <c r="A330" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>5</v>
@@ -12465,7 +12464,7 @@
         <v>447</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F330" s="11"/>
       <c r="G330" s="2" t="s">
@@ -12474,7 +12473,7 @@
     </row>
     <row r="331" spans="1:7" ht="14.25">
       <c r="A331" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>8</v>
@@ -12486,7 +12485,7 @@
         <v>449</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="F331" s="11"/>
       <c r="G331" s="2" t="s">
@@ -12495,7 +12494,7 @@
     </row>
     <row r="332" spans="1:7" ht="14.25">
       <c r="A332" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>10</v>
@@ -12507,7 +12506,7 @@
         <v>451</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F332" s="11"/>
       <c r="G332" s="2" t="s">
@@ -12516,7 +12515,7 @@
     </row>
     <row r="333" spans="1:7" ht="14.25">
       <c r="A333" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>13</v>
@@ -12528,7 +12527,7 @@
         <v>453</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="F333" s="11"/>
       <c r="G333" s="2" t="s">
@@ -12537,7 +12536,7 @@
     </row>
     <row r="334" spans="1:7" ht="14.25">
       <c r="A334" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>16</v>
@@ -12549,7 +12548,7 @@
         <v>455</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="F334" s="11"/>
       <c r="G334" s="2" t="s">
@@ -12567,7 +12566,7 @@
     </row>
     <row r="336" spans="1:7" ht="14.25">
       <c r="A336" s="2" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>2</v>
@@ -12579,7 +12578,7 @@
         <v>457</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="F336" s="11"/>
       <c r="G336" s="2" t="s">
@@ -12588,7 +12587,7 @@
     </row>
     <row r="337" spans="1:7" ht="14.25">
       <c r="A337" s="2" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>5</v>
@@ -12600,7 +12599,7 @@
         <v>782</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F337" s="11"/>
       <c r="G337" s="2" t="s">
@@ -12609,7 +12608,7 @@
     </row>
     <row r="338" spans="1:7" ht="14.25">
       <c r="A338" s="2" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>8</v>
@@ -12621,7 +12620,7 @@
         <v>460</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="F338" s="11"/>
       <c r="G338" s="2" t="s">
@@ -12630,7 +12629,7 @@
     </row>
     <row r="339" spans="1:7" ht="14.25">
       <c r="A339" s="2" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>10</v>
@@ -12642,7 +12641,7 @@
         <v>462</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="F339" s="11"/>
       <c r="G339" s="2" t="s">
@@ -12651,7 +12650,7 @@
     </row>
     <row r="340" spans="1:7" ht="14.25">
       <c r="A340" s="2" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>13</v>
@@ -12663,7 +12662,7 @@
         <v>464</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="F340" s="11"/>
       <c r="G340" s="2" t="s">
@@ -12672,7 +12671,7 @@
     </row>
     <row r="341" spans="1:7" ht="14.25">
       <c r="A341" s="2" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>16</v>
@@ -12702,7 +12701,7 @@
     </row>
     <row r="343" spans="1:7" ht="14.25">
       <c r="A343" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>2</v>
@@ -12714,7 +12713,7 @@
         <v>468</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="F343" s="11"/>
       <c r="G343" s="2" t="s">
@@ -12723,7 +12722,7 @@
     </row>
     <row r="344" spans="1:7" ht="14.25">
       <c r="A344" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>5</v>
@@ -12735,7 +12734,7 @@
         <v>470</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="F344" s="11"/>
       <c r="G344" s="2" t="s">
@@ -12744,7 +12743,7 @@
     </row>
     <row r="345" spans="1:7" ht="14.25">
       <c r="A345" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>8</v>
@@ -12756,7 +12755,7 @@
         <v>472</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="F345" s="11"/>
       <c r="G345" s="2" t="s">
@@ -12765,7 +12764,7 @@
     </row>
     <row r="346" spans="1:7" ht="14.25">
       <c r="A346" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>10</v>
@@ -12777,7 +12776,7 @@
         <v>474</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="F346" s="11"/>
       <c r="G346" s="2" t="s">
@@ -12786,7 +12785,7 @@
     </row>
     <row r="347" spans="1:7" ht="14.25">
       <c r="A347" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>13</v>
@@ -12798,7 +12797,7 @@
         <v>476</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="F347" s="11"/>
       <c r="G347" s="2" t="s">
@@ -12807,7 +12806,7 @@
     </row>
     <row r="348" spans="1:7" ht="14.25">
       <c r="A348" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>16</v>
@@ -12819,7 +12818,7 @@
         <v>478</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="F348" s="11"/>
       <c r="G348" s="2" t="s">
@@ -12837,7 +12836,7 @@
     </row>
     <row r="350" spans="1:7" ht="14.25">
       <c r="A350" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>2</v>
@@ -12849,7 +12848,7 @@
         <v>480</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F350" s="11"/>
       <c r="G350" s="2" t="s">
@@ -12858,7 +12857,7 @@
     </row>
     <row r="351" spans="1:7" ht="14.25">
       <c r="A351" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>5</v>
@@ -12870,7 +12869,7 @@
         <v>482</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="F351" s="11"/>
       <c r="G351" s="2" t="s">
@@ -12879,7 +12878,7 @@
     </row>
     <row r="352" spans="1:7" ht="14.25">
       <c r="A352" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>8</v>
@@ -12891,7 +12890,7 @@
         <v>483</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="F352" s="11"/>
       <c r="G352" s="2" t="s">
@@ -12900,7 +12899,7 @@
     </row>
     <row r="353" spans="1:7" ht="14.25">
       <c r="A353" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>10</v>
@@ -12912,7 +12911,7 @@
         <v>485</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="F353" s="11"/>
       <c r="G353" s="2" t="s">
@@ -12921,7 +12920,7 @@
     </row>
     <row r="354" spans="1:7" ht="14.25">
       <c r="A354" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>13</v>
@@ -12933,7 +12932,7 @@
         <v>487</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="F354" s="11"/>
       <c r="G354" s="2" t="s">
@@ -12942,7 +12941,7 @@
     </row>
     <row r="355" spans="1:7" ht="14.25">
       <c r="A355" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>16</v>
@@ -12954,7 +12953,7 @@
         <v>489</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="F355" s="11"/>
       <c r="G355" s="2" t="s">
@@ -12972,7 +12971,7 @@
     </row>
     <row r="357" spans="1:7" ht="14.25">
       <c r="A357" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>2</v>
@@ -12981,7 +12980,7 @@
         <v>800</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E357" s="11"/>
       <c r="F357" s="11"/>
@@ -12991,7 +12990,7 @@
     </row>
     <row r="358" spans="1:7" ht="14.25">
       <c r="A358" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>5</v>
@@ -13010,7 +13009,7 @@
     </row>
     <row r="359" spans="1:7" ht="14.25">
       <c r="A359" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>8</v>
@@ -13019,7 +13018,7 @@
         <v>803</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E359" s="11"/>
       <c r="F359" s="11"/>
@@ -13029,7 +13028,7 @@
     </row>
     <row r="360" spans="1:7" ht="16.5">
       <c r="A360" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>10</v>
@@ -13038,7 +13037,7 @@
         <v>804</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E360" s="11"/>
       <c r="F360" s="11"/>
@@ -13048,7 +13047,7 @@
     </row>
     <row r="361" spans="1:7" ht="14.25">
       <c r="A361" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>13</v>
@@ -13057,7 +13056,7 @@
         <v>805</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
@@ -13067,7 +13066,7 @@
     </row>
     <row r="362" spans="1:7" ht="14.25">
       <c r="A362" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>16</v>
@@ -13076,7 +13075,7 @@
         <v>806</v>
       </c>
       <c r="D362" s="16" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
@@ -13095,7 +13094,7 @@
     </row>
     <row r="364" spans="1:7" ht="14.25">
       <c r="A364" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>2</v>
@@ -13114,7 +13113,7 @@
     </row>
     <row r="365" spans="1:7" ht="14.25">
       <c r="A365" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>5</v>
@@ -13133,7 +13132,7 @@
     </row>
     <row r="366" spans="1:7" ht="14.25">
       <c r="A366" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>8</v>
@@ -13152,7 +13151,7 @@
     </row>
     <row r="367" spans="1:7" ht="14.25">
       <c r="A367" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>10</v>
@@ -13171,7 +13170,7 @@
     </row>
     <row r="368" spans="1:7" ht="14.25">
       <c r="A368" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>13</v>
@@ -13190,7 +13189,7 @@
     </row>
     <row r="369" spans="1:7" ht="57">
       <c r="A369" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>16</v>
@@ -13218,7 +13217,7 @@
     </row>
     <row r="371" spans="1:7" ht="14.25">
       <c r="A371" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>2</v>
@@ -13237,7 +13236,7 @@
     </row>
     <row r="372" spans="1:7" ht="14.25">
       <c r="A372" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>5</v>
@@ -13256,7 +13255,7 @@
     </row>
     <row r="373" spans="1:7" ht="14.25">
       <c r="A373" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>8</v>
@@ -13275,7 +13274,7 @@
     </row>
     <row r="374" spans="1:7" ht="14.25">
       <c r="A374" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>10</v>
@@ -13294,7 +13293,7 @@
     </row>
     <row r="375" spans="1:7" ht="14.25">
       <c r="A375" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>13</v>
@@ -13313,7 +13312,7 @@
     </row>
     <row r="376" spans="1:7" ht="14.25">
       <c r="A376" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>16</v>
@@ -13341,7 +13340,7 @@
     </row>
     <row r="378" spans="1:7" ht="14.25">
       <c r="A378" s="2" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>817</v>
@@ -13353,14 +13352,16 @@
         <v>819</v>
       </c>
       <c r="E378" s="14"/>
-      <c r="F378" s="11"/>
+      <c r="F378" s="5" t="s">
+        <v>819</v>
+      </c>
       <c r="G378" s="2" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="14.25">
       <c r="A379" s="2" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>821</v>
@@ -13372,14 +13373,16 @@
         <v>823</v>
       </c>
       <c r="E379" s="14"/>
-      <c r="F379" s="11"/>
+      <c r="F379" s="5" t="s">
+        <v>823</v>
+      </c>
       <c r="G379" s="2" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="14.25">
       <c r="A380" s="2" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>825</v>
@@ -13391,14 +13394,16 @@
         <v>827</v>
       </c>
       <c r="E380" s="14"/>
-      <c r="F380" s="11"/>
+      <c r="F380" s="5" t="s">
+        <v>827</v>
+      </c>
       <c r="G380" s="2" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="14.25">
       <c r="A381" s="2" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>829</v>
@@ -13410,14 +13415,16 @@
         <v>831</v>
       </c>
       <c r="E381" s="14"/>
-      <c r="F381" s="11"/>
+      <c r="F381" s="5" t="s">
+        <v>831</v>
+      </c>
       <c r="G381" s="2" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="14.25">
       <c r="A382" s="2" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>833</v>
@@ -13426,31 +13433,35 @@
         <v>834</v>
       </c>
       <c r="D382" s="5" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E382" s="14"/>
+      <c r="F382" s="5" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G382" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="E382" s="14"/>
-      <c r="F382" s="11"/>
-      <c r="G382" s="2" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="14.25">
       <c r="A383" s="2" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B383" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C383" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="C383" s="2" t="s">
+      <c r="D383" s="17" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E383" s="14"/>
+      <c r="F383" s="17" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G383" s="2" t="s">
         <v>838</v>
-      </c>
-      <c r="D383" s="17" t="s">
-        <v>839</v>
-      </c>
-      <c r="E383" s="14"/>
-      <c r="F383" s="11"/>
-      <c r="G383" s="2" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="14.25">
@@ -13464,116 +13475,116 @@
     </row>
     <row r="385" spans="1:7" ht="14.25">
       <c r="A385" s="2" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C385" s="19" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="D385" s="22" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="E385" s="11"/>
       <c r="F385" s="11"/>
       <c r="G385" s="2" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="14.25">
       <c r="A386" s="2" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C386" s="19" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="D386" s="22" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="E386" s="11"/>
       <c r="F386" s="11"/>
       <c r="G386" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="14.25">
       <c r="A387" s="2" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C387" s="19" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="D387" s="17" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="E387" s="11"/>
       <c r="F387" s="11"/>
       <c r="G387" s="2" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="14.25">
       <c r="A388" s="2" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C388" s="19" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="D388" s="22" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="E388" s="11"/>
       <c r="F388" s="11"/>
       <c r="G388" s="2" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="14.25">
       <c r="A389" s="2" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C389" s="19" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="D389" s="22" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="E389" s="11"/>
       <c r="F389" s="11"/>
       <c r="G389" s="2" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="14.25">
       <c r="A390" s="2" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C390" s="19" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="D390" s="22" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="E390" s="13"/>
       <c r="F390" s="13"/>
       <c r="G390" s="2" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="14.25">

--- a/章节标题.xlsx
+++ b/章节标题.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\魔禁相关\魔法禁书目录X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F659124C-A774-4EEA-9F1B-773FEB529032}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B75FEE-4187-48F9-9113-994FFC3A7D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1635" yWindow="675" windowWidth="22605" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1371">
   <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>Welcome_to_Tomorrow.</t>
-  </si>
-  <si>
-    <t>舞台的表面</t>
   </si>
   <si>
     <t>开学式</t>
@@ -3205,9 +3202,6 @@
   <si>
     <t>火船与炮火的战争</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到学园都市的返程</t>
   </si>
   <si>
     <t>何方先发制人？</t>
@@ -4523,10 +4517,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>去正与负的应走道路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>锅与肉与食欲的大战争</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4543,10 +4533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天空被钢铁群所覆盖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>答案连接着下一个谜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4576,10 +4562,6 @@
   </si>
   <si>
     <t>存活者所得到的战利品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极品子弹献给亲爱的你</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4868,6 +4850,38 @@
   </si>
   <si>
     <t>白雪与鲜红，覆盖一切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舞台的表面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台的表面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台的内幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开学式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到学园都市的返程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极子弹献给亲爱的你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往正负的应走之路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢铁之群覆盖的天空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5707,8 +5721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="E359" sqref="E359"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5725,22 +5739,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25">
       <c r="A1" s="2" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>1</v>
@@ -5748,7 +5762,7 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -5758,10 +5772,10 @@
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -5769,13 +5783,13 @@
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="2" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17" t="s">
@@ -5790,13 +5804,13 @@
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="2" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17" t="s">
@@ -5806,18 +5820,18 @@
         <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17" t="s">
@@ -5832,13 +5846,13 @@
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
@@ -5853,13 +5867,13 @@
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
@@ -5883,13 +5897,13 @@
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17" t="s">
@@ -5904,13 +5918,13 @@
     </row>
     <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="17" t="s">
@@ -5925,13 +5939,13 @@
     </row>
     <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17" t="s">
@@ -5946,13 +5960,13 @@
     </row>
     <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="17" t="s">
@@ -5967,13 +5981,13 @@
     </row>
     <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="17" t="s">
@@ -5988,13 +6002,13 @@
     </row>
     <row r="14" spans="1:7" ht="14.25">
       <c r="A14" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17" t="s">
@@ -6018,13 +6032,13 @@
     </row>
     <row r="16" spans="1:7" ht="14.25">
       <c r="A16" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
@@ -6039,13 +6053,13 @@
     </row>
     <row r="17" spans="1:7" ht="14.25">
       <c r="A17" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
@@ -6060,13 +6074,13 @@
     </row>
     <row r="18" spans="1:7" ht="14.25">
       <c r="A18" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
@@ -6081,13 +6095,13 @@
     </row>
     <row r="19" spans="1:7" ht="14.25">
       <c r="A19" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
@@ -6102,13 +6116,13 @@
     </row>
     <row r="20" spans="1:7" ht="14.25">
       <c r="A20" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17" t="s">
@@ -6123,13 +6137,13 @@
     </row>
     <row r="21" spans="1:7" ht="14.25">
       <c r="A21" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
@@ -6153,13 +6167,13 @@
     </row>
     <row r="23" spans="1:7" ht="14.25">
       <c r="A23" s="2" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17" t="s">
@@ -6172,13 +6186,13 @@
     </row>
     <row r="24" spans="1:7" ht="14.25">
       <c r="A24" s="2" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17" t="s">
@@ -6191,13 +6205,13 @@
     </row>
     <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="2" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17" t="s">
@@ -6210,13 +6224,13 @@
     </row>
     <row r="26" spans="1:7" ht="14.25">
       <c r="A26" s="2" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17" t="s">
@@ -6229,13 +6243,13 @@
     </row>
     <row r="27" spans="1:7" ht="14.25">
       <c r="A27" s="2" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17" t="s">
@@ -6248,13 +6262,13 @@
     </row>
     <row r="28" spans="1:7" ht="14.25">
       <c r="A28" s="2" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17" t="s">
@@ -6276,13 +6290,13 @@
     </row>
     <row r="30" spans="1:7" ht="14.25">
       <c r="A30" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17" t="s">
@@ -6297,20 +6311,20 @@
     </row>
     <row r="31" spans="1:7" ht="14.25">
       <c r="A31" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17" t="s">
         <v>50</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>51</v>
@@ -6318,20 +6332,20 @@
     </row>
     <row r="32" spans="1:7" ht="14.25">
       <c r="A32" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>53</v>
@@ -6339,20 +6353,20 @@
     </row>
     <row r="33" spans="1:7" ht="14.25">
       <c r="A33" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>55</v>
@@ -6360,20 +6374,20 @@
     </row>
     <row r="34" spans="1:7" ht="14.25">
       <c r="A34" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>57</v>
@@ -6381,13 +6395,13 @@
     </row>
     <row r="35" spans="1:7" ht="14.25">
       <c r="A35" s="2" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
@@ -6411,123 +6425,123 @@
     </row>
     <row r="37" spans="1:7" ht="14.25">
       <c r="A37" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>60</v>
+        <v>1363</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>1364</v>
       </c>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="14.25">
       <c r="A38" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25">
       <c r="A39" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="14.25">
       <c r="A40" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.25">
       <c r="A41" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25">
       <c r="A42" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>1365</v>
       </c>
       <c r="G42" s="2"/>
     </row>
@@ -6542,128 +6556,128 @@
     </row>
     <row r="44" spans="1:7" ht="14.25">
       <c r="A44" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.25">
       <c r="A45" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.25">
       <c r="A46" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14.25">
       <c r="A47" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.25">
       <c r="A48" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="14.25">
@@ -6677,128 +6691,128 @@
     </row>
     <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>917</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.25">
       <c r="A52" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>917</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>918</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D53" s="17"/>
       <c r="E53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>933</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>935</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D54" s="17"/>
       <c r="E54" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="14.25">
       <c r="A55" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D55" s="17"/>
       <c r="E55" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>919</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>920</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25">
       <c r="A56" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D56" s="17"/>
       <c r="E56" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="14.25">
@@ -6812,214 +6826,214 @@
     </row>
     <row r="58" spans="1:7" ht="14.25">
       <c r="A58" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>1267</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="14.25">
       <c r="A59" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D59" s="17"/>
       <c r="E59" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>1262</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="14.25">
       <c r="A60" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D60" s="17"/>
       <c r="E60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>1261</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.25">
       <c r="A61" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="2" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="14.25">
       <c r="A62" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D62" s="17"/>
       <c r="E62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>1265</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="14.25">
       <c r="A63" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="F63" s="9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>1272</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="14.25">
       <c r="A64" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>1268</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.25">
       <c r="A65" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D65" s="17"/>
       <c r="E65" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>1269</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="14.25">
       <c r="A66" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>1271</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="14.25">
       <c r="A67" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D67" s="17"/>
       <c r="E67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>1270</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="14.25">
@@ -7033,151 +7047,151 @@
     </row>
     <row r="69" spans="1:7" ht="14.25">
       <c r="A69" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>921</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F69" s="18" t="s">
-        <v>922</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="14.25">
       <c r="A70" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>922</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="F70" s="18" t="s">
-        <v>923</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="14.25">
       <c r="A71" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>923</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="F71" s="18" t="s">
-        <v>924</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="14.25">
       <c r="A72" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>924</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F72" s="18" t="s">
-        <v>925</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="14.25">
       <c r="A73" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="F73" s="18" t="s">
         <v>926</v>
       </c>
-      <c r="F73" s="18" t="s">
-        <v>927</v>
-      </c>
       <c r="G73" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="14.25">
       <c r="A74" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>920</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="F74" s="18" t="s">
-        <v>921</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="14.25">
       <c r="A75" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>928</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="14.25">
@@ -7191,254 +7205,254 @@
     </row>
     <row r="77" spans="1:7" ht="14.25">
       <c r="A77" s="2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D77" s="17"/>
       <c r="E77" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="14.25">
       <c r="A78" s="2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>1273</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="14.25">
       <c r="A79" s="2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>1274</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="14.25">
       <c r="A80" s="2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>1275</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="14.25">
       <c r="A81" s="2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D81" s="17"/>
       <c r="E81" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>1296</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="14.25">
       <c r="A82" s="2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>1276</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="14.25">
       <c r="A83" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="14.25">
       <c r="A84" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="14.25">
       <c r="A85" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="14.25">
       <c r="A86" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="14.25">
       <c r="A87" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="14.25">
       <c r="A88" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>1281</v>
+        <v>1369</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="14.25">
@@ -7452,140 +7466,140 @@
     </row>
     <row r="90" spans="1:7" ht="14.25">
       <c r="A90" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>934</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>936</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="14.25">
       <c r="A91" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E91" s="17" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>1282</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="14.25">
       <c r="A92" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="14.25">
       <c r="A93" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>1284</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="14.25">
       <c r="A94" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="14.25">
       <c r="A95" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>862</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="14.25">
@@ -7599,128 +7613,128 @@
     </row>
     <row r="97" spans="1:7" ht="14.25">
       <c r="A97" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="14.25">
       <c r="A98" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="14.25">
       <c r="A99" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="14.25">
       <c r="A100" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="14.25">
       <c r="A101" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>1286</v>
+        <v>1370</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="14.25">
       <c r="A102" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D102" s="17"/>
       <c r="E102" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="14.25">
@@ -7734,149 +7748,149 @@
     </row>
     <row r="104" spans="1:7" ht="14.25">
       <c r="A104" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D104" s="17"/>
       <c r="E104" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>1295</v>
+        <v>1368</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="14.25">
       <c r="A105" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="14.25">
       <c r="A106" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D106" s="17"/>
       <c r="E106" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="14.25">
       <c r="A107" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D107" s="17"/>
       <c r="E107" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="14.25">
       <c r="A108" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D108" s="17"/>
       <c r="E108" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="14.25">
       <c r="A109" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="2" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="14.25">
       <c r="A110" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D110" s="17"/>
       <c r="E110" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="14.25">
@@ -7890,128 +7904,128 @@
     </row>
     <row r="112" spans="1:7" ht="14.25">
       <c r="A112" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D112" s="17"/>
       <c r="E112" s="2" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="14.25">
       <c r="A113" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D113" s="17"/>
       <c r="E113" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="14.25">
       <c r="A114" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D114" s="17"/>
       <c r="E114" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="14.25">
       <c r="A115" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D115" s="17"/>
       <c r="E115" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="14.25">
       <c r="A116" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D116" s="17"/>
       <c r="E116" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="14.25">
       <c r="A117" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D117" s="17"/>
       <c r="E117" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="14.25">
@@ -8025,508 +8039,508 @@
     </row>
     <row r="119" spans="1:7" ht="14.25">
       <c r="A119" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D119" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G119" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="14.25">
       <c r="A120" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D120" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>1304</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>1305</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="14.25">
       <c r="A121" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>843</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>844</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>1303</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="14.25">
       <c r="A122" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>844</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>845</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>1307</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="14.25">
       <c r="A123" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D123" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>1308</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="14.25">
       <c r="A124" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>1047</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>1309</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="14.25">
       <c r="A125" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>845</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>846</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="14.25">
       <c r="A126" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D126" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="F126" s="9" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="14.25">
       <c r="A127" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F127" s="9" t="s">
-        <v>856</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="14.25">
       <c r="A128" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>846</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>847</v>
-      </c>
-      <c r="F128" s="9" t="s">
-        <v>1311</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="14.25">
       <c r="A129" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="E129" s="16" t="s">
+        <v>847</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>848</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="14.25">
       <c r="A130" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="E130" s="16" t="s">
+        <v>848</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>849</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>1312</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="14.25">
       <c r="A131" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="D131" s="2" t="s">
+      <c r="E131" s="16" t="s">
+        <v>849</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>850</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>1313</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="14.25">
       <c r="A132" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="E132" s="16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>1309</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>1314</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="14.25">
       <c r="A133" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="D133" s="2" t="s">
+      <c r="E133" s="16" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>1050</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>1315</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="14.25">
       <c r="A134" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="E134" s="16" t="s">
+        <v>850</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>851</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="14.25">
       <c r="A135" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="E135" s="16" t="s">
+        <v>851</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>852</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>1324</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="14.25">
       <c r="A136" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="E136" s="16" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="14.25">
       <c r="A137" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="E137" s="16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>1051</v>
-      </c>
-      <c r="F137" s="9" t="s">
-        <v>1318</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="14.25">
       <c r="A138" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="14.25">
       <c r="A139" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="E139" s="16" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="14.25">
       <c r="A140" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="E140" s="16" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="14.25">
@@ -8540,232 +8554,232 @@
     </row>
     <row r="142" spans="1:7" ht="14.25">
       <c r="A142" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="14.25">
       <c r="A143" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="14.25">
       <c r="A144" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="14.25">
       <c r="A145" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="14.25">
       <c r="A146" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="14.25">
       <c r="A147" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="14.25">
       <c r="A148" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="14.25">
       <c r="A149" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="14.25">
       <c r="A150" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="14.25">
       <c r="A151" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D151" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>886</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G151" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>887</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>1330</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="14.25">
@@ -8779,140 +8793,140 @@
     </row>
     <row r="153" spans="1:7" ht="14.25">
       <c r="A153" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="14.25">
       <c r="A154" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="14.25">
       <c r="A155" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="14.25">
       <c r="A156" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="14.25">
       <c r="A157" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="14.25">
       <c r="A158" s="2" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="14.25">
@@ -8926,324 +8940,324 @@
     </row>
     <row r="160" spans="1:7" ht="14.25">
       <c r="A160" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F160" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="E160" s="16" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F160" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="14.25">
       <c r="A161" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D161" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E161" s="16" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F161" s="17" t="s">
+        <v>891</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="E161" s="16" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F161" s="17" t="s">
-        <v>892</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="14.25">
       <c r="A162" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D162" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>892</v>
+      </c>
+      <c r="F162" s="17" t="s">
+        <v>892</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="E162" s="16" t="s">
-        <v>893</v>
-      </c>
-      <c r="F162" s="17" t="s">
-        <v>893</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="14.25">
       <c r="A163" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E163" s="16" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="E163" s="16" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F163" s="9" t="s">
-        <v>894</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="14.25">
       <c r="A164" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D164" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F164" s="18" t="s">
+        <v>894</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="E164" s="16" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F164" s="18" t="s">
-        <v>895</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="14.25">
       <c r="A165" s="2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D165" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="E165" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="F165" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="E165" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="F165" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="14.25">
       <c r="A166" s="2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D166" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E166" s="16" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F166" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="E166" s="16" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F166" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="14.25">
       <c r="A167" s="2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D167" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E167" s="16" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F167" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="E167" s="16" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F167" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="14.25">
       <c r="A168" s="2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D168" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E168" s="16" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F168" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="E168" s="16" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F168" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="14.25">
       <c r="A169" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D169" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E169" s="16" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F169" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="G169" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="E169" s="16" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F169" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="14.25">
       <c r="A170" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D170" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="E170" s="16" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F170" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="E170" s="16" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F170" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="14.25">
       <c r="A171" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D171" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F171" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="E171" s="16" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F171" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="14.25">
       <c r="A172" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D172" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E172" s="16" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F172" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="G172" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="E172" s="16" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F172" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="14.25">
       <c r="A173" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D173" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F173" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="G173" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="E173" s="16" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F173" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="14.25">
@@ -9257,163 +9271,163 @@
     </row>
     <row r="175" spans="1:7" ht="14.25">
       <c r="A175" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D175" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="E175" s="16" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F175" s="18" t="s">
+        <v>906</v>
+      </c>
+      <c r="G175" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="E175" s="16" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F175" s="18" t="s">
-        <v>907</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="14.25">
       <c r="A176" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C176" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="D176" s="17" t="s">
         <v>904</v>
       </c>
-      <c r="D176" s="17" t="s">
+      <c r="E176" s="16" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F176" s="18" t="s">
         <v>905</v>
       </c>
-      <c r="E176" s="16" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F176" s="18" t="s">
-        <v>906</v>
-      </c>
       <c r="G176" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="14.25">
       <c r="A177" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D177" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E177" s="16" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F177" s="18" t="s">
+        <v>907</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="E177" s="16" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F177" s="18" t="s">
-        <v>908</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="14.25">
       <c r="A178" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D178" s="17" t="s">
+        <v>909</v>
+      </c>
+      <c r="E178" s="16" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F178" s="18" t="s">
         <v>910</v>
       </c>
-      <c r="E178" s="16" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F178" s="18" t="s">
-        <v>911</v>
-      </c>
       <c r="G178" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="14.25">
       <c r="A179" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D179" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="E179" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F179" s="18" t="s">
+        <v>908</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="E179" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="F179" s="18" t="s">
-        <v>909</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="14.25">
       <c r="A180" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E180" s="16" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G180" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>1081</v>
-      </c>
-      <c r="F180" s="9" t="s">
-        <v>1323</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="14.25">
       <c r="A181" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D181" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="E181" s="16" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F181" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="G181" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="E181" s="16" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F181" s="18" t="s">
-        <v>912</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="14.25">
@@ -9427,140 +9441,140 @@
     </row>
     <row r="183" spans="1:7" ht="14.25">
       <c r="A183" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="F183" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="G183" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="14.25">
       <c r="A184" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D184" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E184" s="16" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F184" s="17" t="s">
+        <v>936</v>
+      </c>
+      <c r="G184" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="E184" s="16" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F184" s="17" t="s">
-        <v>938</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="14.25">
       <c r="A185" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D185" s="17" t="s">
+        <v>912</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F185" s="18" t="s">
         <v>913</v>
       </c>
-      <c r="E185" s="16" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F185" s="18" t="s">
-        <v>914</v>
-      </c>
       <c r="G185" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="14.25">
       <c r="A186" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D186" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="E186" s="16" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F186" s="18" t="s">
+        <v>914</v>
+      </c>
+      <c r="G186" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="E186" s="16" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F186" s="18" t="s">
-        <v>915</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="14.25">
       <c r="A187" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C187" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D187" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="E187" s="16" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F187" s="18" t="s">
+        <v>915</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="D187" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="E187" s="16" t="s">
-        <v>1087</v>
-      </c>
-      <c r="F187" s="18" t="s">
-        <v>916</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="14.25">
       <c r="A188" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E188" s="16" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F188" s="17" t="s">
+        <v>937</v>
+      </c>
+      <c r="G188" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="E188" s="16" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F188" s="17" t="s">
-        <v>939</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="14.25">
@@ -9574,163 +9588,163 @@
     </row>
     <row r="190" spans="1:7" ht="14.25">
       <c r="A190" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="F190" s="17" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="14.25">
       <c r="A191" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="F191" s="18" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="14.25">
       <c r="A192" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F192" s="17" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="14.25">
       <c r="A193" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="F193" s="17" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="14.25">
       <c r="A194" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="F194" s="17" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="14.25">
       <c r="A195" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F195" s="17" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="14.25">
       <c r="A196" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D196" s="17" t="s">
+        <v>928</v>
+      </c>
+      <c r="E196" s="16" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F196" s="18" t="s">
         <v>930</v>
       </c>
-      <c r="E196" s="16" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F196" s="18" t="s">
-        <v>932</v>
-      </c>
       <c r="G196" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="14.25">
@@ -9744,730 +9758,730 @@
     </row>
     <row r="198" spans="1:7" ht="14.25">
       <c r="A198" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E198" s="17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F198" s="17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G198" s="2"/>
     </row>
     <row r="199" spans="1:7" ht="14.25">
       <c r="A199" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E199" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F199" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G199" s="2"/>
     </row>
     <row r="200" spans="1:7" ht="14.25">
       <c r="A200" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E200" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F200" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G200" s="2"/>
     </row>
     <row r="201" spans="1:7" ht="14.25">
       <c r="A201" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E201" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F201" s="17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G201" s="2"/>
     </row>
     <row r="202" spans="1:7" ht="14.25">
       <c r="A202" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E202" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F202" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G202" s="2"/>
     </row>
     <row r="203" spans="1:7" ht="14.25">
       <c r="A203" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E203" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F203" s="17" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G203" s="2"/>
     </row>
     <row r="204" spans="1:7" ht="14.25">
       <c r="A204" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E204" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F204" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G204" s="2"/>
     </row>
     <row r="205" spans="1:7" ht="14.25">
       <c r="A205" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E205" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F205" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G205" s="2"/>
     </row>
     <row r="206" spans="1:7" ht="14.25">
       <c r="A206" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E206" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F206" s="17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G206" s="2"/>
     </row>
     <row r="207" spans="1:7" ht="14.25">
       <c r="A207" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E207" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F207" s="17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G207" s="2"/>
     </row>
     <row r="208" spans="1:7" ht="14.25">
       <c r="A208" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E208" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F208" s="17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G208" s="2"/>
     </row>
     <row r="209" spans="1:7" ht="14.25">
       <c r="A209" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E209" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F209" s="17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G209" s="2"/>
     </row>
     <row r="210" spans="1:7" ht="14.25">
       <c r="A210" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E210" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F210" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G210" s="2"/>
     </row>
     <row r="211" spans="1:7" ht="14.25">
       <c r="A211" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E211" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F211" s="17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G211" s="2"/>
     </row>
     <row r="212" spans="1:7" ht="14.25">
       <c r="A212" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E212" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F212" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G212" s="2"/>
     </row>
     <row r="213" spans="1:7" ht="14.25">
       <c r="A213" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E213" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F213" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G213" s="2"/>
     </row>
     <row r="214" spans="1:7" ht="14.25">
       <c r="A214" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E214" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F214" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G214" s="2"/>
     </row>
     <row r="215" spans="1:7" ht="14.25">
       <c r="A215" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E215" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F215" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G215" s="2"/>
     </row>
     <row r="216" spans="1:7" ht="14.25">
       <c r="A216" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E216" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F216" s="17" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G216" s="2"/>
     </row>
     <row r="217" spans="1:7" ht="14.25">
       <c r="A217" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E217" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F217" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G217" s="2"/>
     </row>
     <row r="218" spans="1:7" ht="14.25">
       <c r="A218" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E218" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F218" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G218" s="2"/>
     </row>
     <row r="219" spans="1:7" ht="14.25">
       <c r="A219" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E219" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F219" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G219" s="2"/>
     </row>
     <row r="220" spans="1:7" ht="14.25">
       <c r="A220" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E220" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F220" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G220" s="2"/>
     </row>
     <row r="221" spans="1:7" ht="14.25">
       <c r="A221" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E221" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F221" s="17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G221" s="2"/>
     </row>
     <row r="222" spans="1:7" ht="14.25">
       <c r="A222" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E222" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F222" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G222" s="2"/>
     </row>
     <row r="223" spans="1:7" ht="14.25">
       <c r="A223" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E223" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F223" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G223" s="2"/>
     </row>
     <row r="224" spans="1:7" ht="14.25">
       <c r="A224" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E224" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F224" s="17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G224" s="2"/>
     </row>
     <row r="225" spans="1:7" ht="14.25">
       <c r="A225" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E225" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F225" s="17" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G225" s="2"/>
     </row>
     <row r="226" spans="1:7" ht="14.25">
       <c r="A226" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E226" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F226" s="17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G226" s="2"/>
     </row>
     <row r="227" spans="1:7" ht="14.25">
       <c r="A227" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E227" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F227" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G227" s="2"/>
     </row>
     <row r="228" spans="1:7" ht="14.25">
       <c r="A228" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E228" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F228" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G228" s="2"/>
     </row>
     <row r="229" spans="1:7" ht="14.25">
       <c r="A229" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E229" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F229" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G229" s="2"/>
     </row>
     <row r="230" spans="1:7" ht="14.25">
       <c r="A230" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E230" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F230" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G230" s="2"/>
     </row>
     <row r="231" spans="1:7" ht="14.25">
       <c r="A231" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E231" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F231" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G231" s="2"/>
     </row>
     <row r="232" spans="1:7" ht="14.25">
       <c r="A232" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E232" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F232" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G232" s="2"/>
     </row>
     <row r="233" spans="1:7" ht="14.25">
       <c r="A233" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D233" s="17" t="s">
         <v>690</v>
       </c>
-      <c r="D233" s="17" t="s">
-        <v>691</v>
-      </c>
       <c r="E233" s="16" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F233" s="17" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G233" s="2"/>
     </row>
     <row r="234" spans="1:7" ht="14.25">
       <c r="A234" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="D234" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="D234" s="17" t="s">
+      <c r="E234" s="16" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F234" s="16" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G234" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="E234" s="16" t="s">
-        <v>1095</v>
-      </c>
-      <c r="F234" s="16" t="s">
-        <v>1095</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="16.5">
       <c r="A235" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="F235" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="14.25">
@@ -10481,255 +10495,255 @@
     </row>
     <row r="237" spans="1:7" ht="14.25">
       <c r="A237" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D237" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="E237" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="F237" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="G237" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="E237" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="F237" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="14.25">
       <c r="A238" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D238" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="E238" s="16" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="G238" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="E238" s="16" t="s">
-        <v>1098</v>
-      </c>
-      <c r="F238" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="G238" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="14.25">
       <c r="A239" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D239" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="E239" s="16" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F239" s="17" t="s">
+        <v>951</v>
+      </c>
+      <c r="G239" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="E239" s="16" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F239" s="17" t="s">
-        <v>953</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="14.25">
       <c r="A240" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D240" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="E240" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="F240" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="G240" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="E240" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="F240" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="14.25">
       <c r="A241" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D241" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="E241" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="F241" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="G241" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="E241" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="F241" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="14.25">
       <c r="A242" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D242" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="E242" s="16" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="G242" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="E242" s="16" t="s">
-        <v>1100</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="14.25">
       <c r="A243" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F243" s="9" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="14.25">
       <c r="A244" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F244" s="18" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="14.25">
       <c r="A245" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="14.25">
       <c r="A246" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="14.25">
       <c r="A247" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="14.25">
@@ -10743,140 +10757,140 @@
     </row>
     <row r="249" spans="1:7" ht="14.25">
       <c r="A249" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="14.25">
       <c r="A250" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="14.25">
       <c r="A251" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="14.25">
       <c r="A252" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="14.25">
       <c r="A253" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="14.25">
       <c r="A254" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="14.25">
@@ -10890,667 +10904,667 @@
     </row>
     <row r="256" spans="1:7" ht="14.25">
       <c r="A256" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="14.25">
       <c r="A257" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="14.25">
       <c r="A258" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="14.25">
       <c r="A259" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="14.25">
       <c r="A260" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="14.25">
       <c r="A261" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C261" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D261" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="D261" s="17" t="s">
-        <v>368</v>
-      </c>
       <c r="E261" s="17" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F261" s="17" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="14.25">
       <c r="A262" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F262" s="17" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="14.25">
       <c r="A263" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="F263" s="18" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="14.25">
       <c r="A264" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F264" s="17" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="14.25">
       <c r="A265" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F265" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="14.25">
       <c r="A266" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E266" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F266" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="14.25">
       <c r="A267" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F267" s="18" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="14.25">
       <c r="A268" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D268" s="17" t="s">
+        <v>983</v>
+      </c>
+      <c r="E268" s="16" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F268" s="18" t="s">
         <v>985</v>
       </c>
-      <c r="E268" s="16" t="s">
-        <v>1118</v>
-      </c>
-      <c r="F268" s="18" t="s">
-        <v>987</v>
-      </c>
       <c r="G268" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="14.25">
       <c r="A269" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C269" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="D269" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="D269" s="17" t="s">
-        <v>722</v>
-      </c>
       <c r="E269" s="16" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="F269" s="17" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="14.25">
       <c r="A270" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="F270" s="18" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="14.25">
       <c r="A271" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F271" s="16" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="14.25">
       <c r="A272" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="F272" s="17" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="14.25">
       <c r="A273" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="F273" s="17" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="14.25">
       <c r="A274" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="F274" s="17" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="14.25">
       <c r="A275" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F275" s="17" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="14.25">
       <c r="A276" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D276" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E276" s="16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F276" s="17" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G276" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="E276" s="16" t="s">
-        <v>1126</v>
-      </c>
-      <c r="F276" s="17" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G276" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="14.25">
       <c r="A277" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D277" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E277" s="16" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F277" s="17" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G277" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="E277" s="16" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F277" s="17" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G277" s="2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="14.25">
       <c r="A278" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D278" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E278" s="16" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F278" s="17" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G278" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="E278" s="16" t="s">
-        <v>1128</v>
-      </c>
-      <c r="F278" s="17" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G278" s="2" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="14.25">
       <c r="A279" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D279" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E279" s="16" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F279" s="17" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G279" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="E279" s="16" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F279" s="17" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G279" s="2" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="14.25">
       <c r="A280" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D280" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E280" s="16" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G280" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="E280" s="16" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G280" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="14.25">
       <c r="A281" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="14.25">
       <c r="A282" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D282" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E282" s="16" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G282" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="E282" s="16" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F282" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G282" s="2" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="14.25">
       <c r="A283" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="14.25">
       <c r="A284" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="F284" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="14.25">
@@ -11564,140 +11578,140 @@
     </row>
     <row r="286" spans="1:7" ht="14.25">
       <c r="A286" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F286" s="17" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="14.25">
       <c r="A287" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E287" s="17" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F287" s="17" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="14.25">
       <c r="A288" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E288" s="17" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F288" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="14.25">
       <c r="A289" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E289" s="17" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F289" s="17" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="14.25">
       <c r="A290" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E290" s="17" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F290" s="17" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="14.25">
       <c r="A291" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E291" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F291" s="17" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="14.25">
@@ -11711,140 +11725,140 @@
     </row>
     <row r="293" spans="1:7" ht="14.25">
       <c r="A293" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F293" s="17" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="14.25">
       <c r="A294" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="F294" s="18" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="14.25">
       <c r="A295" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F295" s="18" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="14.25">
       <c r="A296" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F296" s="17" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="14.25">
       <c r="A297" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F297" s="17" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="14.25">
       <c r="A298" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="14.25">
@@ -11858,140 +11872,140 @@
     </row>
     <row r="300" spans="1:7" ht="14.25">
       <c r="A300" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="F300" s="16" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G300" s="2" t="s">
         <v>1355</v>
-      </c>
-      <c r="G300" s="2" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="14.25">
       <c r="A301" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="F301" s="16" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G301" s="2" t="s">
         <v>1356</v>
-      </c>
-      <c r="G301" s="2" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="14.25">
       <c r="A302" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="F302" s="21" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="14.25">
       <c r="A303" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F303" s="16" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="14.25">
       <c r="A304" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="F304" s="16" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="14.25">
       <c r="A305" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="F305" s="16" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="14.25">
@@ -12005,128 +12019,128 @@
     </row>
     <row r="307" spans="1:7" ht="14.25">
       <c r="A307" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="F307" s="11"/>
       <c r="G307" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="14.25">
       <c r="A308" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F308" s="11"/>
       <c r="G308" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="14.25">
       <c r="A309" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="F309" s="11"/>
       <c r="G309" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="14.25">
       <c r="A310" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="F310" s="11"/>
       <c r="G310" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="14.25">
       <c r="A311" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F311" s="11"/>
       <c r="G311" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="14.25">
       <c r="A312" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="F312" s="11"/>
       <c r="G312" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="14.25">
@@ -12140,149 +12154,149 @@
     </row>
     <row r="314" spans="1:7" ht="14.25">
       <c r="A314" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="F314" s="11"/>
       <c r="G314" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="14.25">
       <c r="A315" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="F315" s="11"/>
       <c r="G315" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="14.25">
       <c r="A316" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F316" s="11"/>
       <c r="G316" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="14.25">
       <c r="A317" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F317" s="11"/>
       <c r="G317" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="14.25">
       <c r="A318" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F318" s="11"/>
       <c r="G318" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="14.25">
       <c r="A319" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F319" s="11"/>
       <c r="G319" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="14.25">
       <c r="A320" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F320" s="11"/>
       <c r="G320" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="14.25">
@@ -12296,128 +12310,128 @@
     </row>
     <row r="322" spans="1:7" ht="14.25">
       <c r="A322" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="F322" s="11"/>
       <c r="G322" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="14.25">
       <c r="A323" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="F323" s="11"/>
       <c r="G323" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="14.25">
       <c r="A324" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="F324" s="11"/>
       <c r="G324" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="14.25">
       <c r="A325" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F325" s="11"/>
       <c r="G325" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="14.25">
       <c r="A326" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F326" s="11"/>
       <c r="G326" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="14.25">
       <c r="A327" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F327" s="11"/>
       <c r="G327" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="14.25">
@@ -12431,128 +12445,128 @@
     </row>
     <row r="329" spans="1:7" ht="14.25">
       <c r="A329" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F329" s="11"/>
       <c r="G329" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="14.25">
       <c r="A330" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="F330" s="11"/>
       <c r="G330" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="14.25">
       <c r="A331" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F331" s="11"/>
       <c r="G331" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="14.25">
       <c r="A332" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="F332" s="11"/>
       <c r="G332" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="14.25">
       <c r="A333" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="F333" s="11"/>
       <c r="G333" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="14.25">
       <c r="A334" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F334" s="11"/>
       <c r="G334" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="14.25">
@@ -12566,128 +12580,128 @@
     </row>
     <row r="336" spans="1:7" ht="14.25">
       <c r="A336" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="F336" s="11"/>
       <c r="G336" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="14.25">
       <c r="A337" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C337" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="D337" s="17" t="s">
         <v>781</v>
       </c>
-      <c r="D337" s="17" t="s">
-        <v>782</v>
-      </c>
       <c r="E337" s="16" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="F337" s="11"/>
       <c r="G337" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="14.25">
       <c r="A338" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="F338" s="11"/>
       <c r="G338" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="14.25">
       <c r="A339" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F339" s="11"/>
       <c r="G339" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="14.25">
       <c r="A340" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="F340" s="11"/>
       <c r="G340" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="14.25">
       <c r="A341" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F341" s="11"/>
       <c r="G341" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="14.25">
@@ -12701,128 +12715,128 @@
     </row>
     <row r="343" spans="1:7" ht="14.25">
       <c r="A343" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="F343" s="11"/>
       <c r="G343" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="14.25">
       <c r="A344" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="F344" s="11"/>
       <c r="G344" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="14.25">
       <c r="A345" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="F345" s="11"/>
       <c r="G345" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="14.25">
       <c r="A346" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="F346" s="11"/>
       <c r="G346" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="14.25">
       <c r="A347" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="F347" s="11"/>
       <c r="G347" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="14.25">
       <c r="A348" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="F348" s="11"/>
       <c r="G348" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="14.25">
@@ -12836,128 +12850,128 @@
     </row>
     <row r="350" spans="1:7" ht="14.25">
       <c r="A350" s="2" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="F350" s="11"/>
       <c r="G350" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="14.25">
       <c r="A351" s="2" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="F351" s="11"/>
       <c r="G351" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="14.25">
       <c r="A352" s="2" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F352" s="11"/>
       <c r="G352" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="14.25">
       <c r="A353" s="2" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="F353" s="11"/>
       <c r="G353" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="14.25">
       <c r="A354" s="2" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="F354" s="11"/>
       <c r="G354" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="14.25">
       <c r="A355" s="2" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="F355" s="11"/>
       <c r="G355" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="14.25">
@@ -12971,116 +12985,116 @@
     </row>
     <row r="357" spans="1:7" ht="14.25">
       <c r="A357" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E357" s="11"/>
       <c r="F357" s="11"/>
       <c r="G357" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="14.25">
       <c r="A358" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D358" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E358" s="11"/>
       <c r="F358" s="11"/>
       <c r="G358" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="14.25">
       <c r="A359" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E359" s="11"/>
       <c r="F359" s="11"/>
       <c r="G359" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="16.5">
       <c r="A360" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E360" s="11"/>
       <c r="F360" s="11"/>
       <c r="G360" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="14.25">
       <c r="A361" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
       <c r="G361" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="14.25">
       <c r="A362" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D362" s="16" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
       <c r="G362" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="14.25">
@@ -13094,116 +13108,116 @@
     </row>
     <row r="364" spans="1:7" ht="14.25">
       <c r="A364" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E364" s="14"/>
       <c r="F364" s="11"/>
       <c r="G364" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="14.25">
       <c r="A365" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E365" s="14"/>
       <c r="F365" s="11"/>
       <c r="G365" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="14.25">
       <c r="A366" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E366" s="14"/>
       <c r="F366" s="11"/>
       <c r="G366" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="14.25">
       <c r="A367" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E367" s="14"/>
       <c r="F367" s="11"/>
       <c r="G367" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="14.25">
       <c r="A368" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E368" s="14"/>
       <c r="F368" s="11"/>
       <c r="G368" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="57">
       <c r="A369" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C369" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="D369" s="4" t="s">
         <v>808</v>
-      </c>
-      <c r="D369" s="4" t="s">
-        <v>809</v>
       </c>
       <c r="E369" s="15"/>
       <c r="F369" s="11"/>
       <c r="G369" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="14.25">
@@ -13217,116 +13231,116 @@
     </row>
     <row r="371" spans="1:7" ht="14.25">
       <c r="A371" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E371" s="14"/>
       <c r="F371" s="11"/>
       <c r="G371" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="14.25">
       <c r="A372" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E372" s="14"/>
       <c r="F372" s="11"/>
       <c r="G372" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="14.25">
       <c r="A373" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E373" s="14"/>
       <c r="F373" s="11"/>
       <c r="G373" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="14.25">
       <c r="A374" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C374" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D374" s="17" t="s">
         <v>813</v>
-      </c>
-      <c r="D374" s="17" t="s">
-        <v>814</v>
       </c>
       <c r="E374" s="14"/>
       <c r="F374" s="11"/>
       <c r="G374" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="14.25">
       <c r="A375" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D375" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E375" s="14"/>
       <c r="F375" s="11"/>
       <c r="G375" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="14.25">
       <c r="A376" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D376" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E376" s="14"/>
       <c r="F376" s="11"/>
       <c r="G376" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="377" spans="1:7" ht="14.25">
@@ -13340,128 +13354,128 @@
     </row>
     <row r="378" spans="1:7" ht="14.25">
       <c r="A378" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B378" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C378" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="C378" s="2" t="s">
+      <c r="D378" s="5" t="s">
         <v>818</v>
-      </c>
-      <c r="D378" s="5" t="s">
-        <v>819</v>
       </c>
       <c r="E378" s="14"/>
       <c r="F378" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="G378" s="2" t="s">
         <v>819</v>
-      </c>
-      <c r="G378" s="2" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="14.25">
       <c r="A379" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B379" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C379" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="C379" s="2" t="s">
+      <c r="D379" s="5" t="s">
         <v>822</v>
-      </c>
-      <c r="D379" s="5" t="s">
-        <v>823</v>
       </c>
       <c r="E379" s="14"/>
       <c r="F379" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="G379" s="2" t="s">
         <v>823</v>
-      </c>
-      <c r="G379" s="2" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="380" spans="1:7" ht="14.25">
       <c r="A380" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B380" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C380" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="C380" s="2" t="s">
+      <c r="D380" s="5" t="s">
         <v>826</v>
-      </c>
-      <c r="D380" s="5" t="s">
-        <v>827</v>
       </c>
       <c r="E380" s="14"/>
       <c r="F380" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="G380" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="G380" s="2" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="14.25">
       <c r="A381" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B381" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C381" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="C381" s="2" t="s">
+      <c r="D381" s="5" t="s">
         <v>830</v>
-      </c>
-      <c r="D381" s="5" t="s">
-        <v>831</v>
       </c>
       <c r="E381" s="14"/>
       <c r="F381" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="G381" s="2" t="s">
         <v>831</v>
-      </c>
-      <c r="G381" s="2" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="14.25">
       <c r="A382" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B382" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C382" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="C382" s="2" t="s">
-        <v>834</v>
-      </c>
       <c r="D382" s="5" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="E382" s="14"/>
       <c r="F382" s="5" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="14.25">
       <c r="A383" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B383" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C383" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="C383" s="2" t="s">
-        <v>837</v>
-      </c>
       <c r="D383" s="17" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="E383" s="14"/>
       <c r="F383" s="17" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="14.25">
@@ -13475,116 +13489,116 @@
     </row>
     <row r="385" spans="1:7" ht="14.25">
       <c r="A385" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C385" s="19" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="D385" s="22" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="E385" s="11"/>
       <c r="F385" s="11"/>
       <c r="G385" s="2" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="14.25">
       <c r="A386" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C386" s="19" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D386" s="22" t="s">
         <v>1342</v>
-      </c>
-      <c r="D386" s="22" t="s">
-        <v>1347</v>
       </c>
       <c r="E386" s="11"/>
       <c r="F386" s="11"/>
       <c r="G386" s="2" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="14.25">
       <c r="A387" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C387" s="19" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D387" s="17" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="E387" s="11"/>
       <c r="F387" s="11"/>
       <c r="G387" s="2" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="14.25">
       <c r="A388" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C388" s="19" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D388" s="22" t="s">
         <v>1346</v>
-      </c>
-      <c r="D388" s="22" t="s">
-        <v>1351</v>
       </c>
       <c r="E388" s="11"/>
       <c r="F388" s="11"/>
       <c r="G388" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="14.25">
       <c r="A389" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C389" s="19" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D389" s="22" t="s">
         <v>1345</v>
-      </c>
-      <c r="D389" s="22" t="s">
-        <v>1350</v>
       </c>
       <c r="E389" s="11"/>
       <c r="F389" s="11"/>
       <c r="G389" s="2" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="14.25">
       <c r="A390" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C390" s="19" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="D390" s="22" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="E390" s="13"/>
       <c r="F390" s="13"/>
       <c r="G390" s="2" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="14.25">

--- a/章节标题.xlsx
+++ b/章节标题.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\魔禁相关\魔法禁书目录X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B75FEE-4187-48F9-9113-994FFC3A7D8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDA3D87-642F-467F-8E5D-66F21718BC31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1635" yWindow="675" windowWidth="22605" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="1371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="1377">
   <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4577,10 +4577,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>谁将会是谁的守护者呢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从失败中站起来的人们</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4882,6 +4878,34 @@
   </si>
   <si>
     <t>钢铁之群覆盖的天空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际上这才算步入正题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血之圣诞节，开宴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑之药丸，白之雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在零的空白之中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上条当麻化现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自铁窗之内的致意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁又会是谁的守护者呢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5721,8 +5745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6435,10 +6459,10 @@
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F37" s="18" t="s">
         <v>1363</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>1364</v>
       </c>
       <c r="G37" s="2"/>
     </row>
@@ -6457,7 +6481,7 @@
         <v>60</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>61</v>
@@ -6541,7 +6565,7 @@
         <v>68</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="G42" s="2"/>
     </row>
@@ -7188,7 +7212,7 @@
         <v>125</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>126</v>
@@ -7449,7 +7473,7 @@
         <v>860</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>590</v>
@@ -7710,7 +7734,7 @@
         <v>866</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>163</v>
@@ -7761,7 +7785,7 @@
         <v>868</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>165</v>
@@ -7917,7 +7941,7 @@
         <v>874</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>172</v>
@@ -7959,7 +7983,7 @@
         <v>876</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>174</v>
@@ -8001,7 +8025,7 @@
         <v>878</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>1294</v>
+        <v>1376</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>176</v>
@@ -8022,7 +8046,7 @@
         <v>879</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>177</v>
@@ -8054,7 +8078,7 @@
         <v>1043</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>179</v>
@@ -8074,10 +8098,10 @@
         <v>180</v>
       </c>
       <c r="E120" s="16" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F120" s="9" t="s">
         <v>1299</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>1300</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>181</v>
@@ -8100,7 +8124,7 @@
         <v>843</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>183</v>
@@ -8123,7 +8147,7 @@
         <v>844</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>185</v>
@@ -8146,7 +8170,7 @@
         <v>1044</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>187</v>
@@ -8169,7 +8193,7 @@
         <v>1045</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>189</v>
@@ -8192,7 +8216,7 @@
         <v>845</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>191</v>
@@ -8215,7 +8239,7 @@
         <v>192</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>193</v>
@@ -8261,7 +8285,7 @@
         <v>846</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>197</v>
@@ -8307,7 +8331,7 @@
         <v>848</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>203</v>
@@ -8330,7 +8354,7 @@
         <v>849</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>206</v>
@@ -8353,7 +8377,7 @@
         <v>1047</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>209</v>
@@ -8376,7 +8400,7 @@
         <v>1048</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>212</v>
@@ -8399,7 +8423,7 @@
         <v>850</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>215</v>
@@ -8422,7 +8446,7 @@
         <v>851</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>218</v>
@@ -8445,7 +8469,7 @@
         <v>852</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>218</v>
@@ -8468,7 +8492,7 @@
         <v>1049</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>223</v>
@@ -8485,13 +8509,13 @@
         <v>635</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E138" s="16" t="s">
         <v>853</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>223</v>
@@ -8514,7 +8538,7 @@
         <v>1050</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>223</v>
@@ -8537,7 +8561,7 @@
         <v>854</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>223</v>
@@ -8566,10 +8590,10 @@
         <v>229</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>882</v>
@@ -8661,7 +8685,7 @@
         <v>1054</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>881</v>
@@ -8730,7 +8754,7 @@
         <v>1056</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>889</v>
@@ -8753,7 +8777,7 @@
         <v>1057</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>890</v>
@@ -8776,7 +8800,7 @@
         <v>886</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>239</v>
@@ -8808,7 +8832,7 @@
         <v>1058</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>897</v>
@@ -8831,7 +8855,7 @@
         <v>1059</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>898</v>
@@ -8854,7 +8878,7 @@
         <v>1060</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>899</v>
@@ -8923,7 +8947,7 @@
         <v>1062</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>902</v>
@@ -9401,7 +9425,7 @@
         <v>1079</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>283</v>
@@ -10648,7 +10672,7 @@
         <v>1099</v>
       </c>
       <c r="F243" s="9" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>953</v>
@@ -10671,7 +10695,7 @@
         <v>352</v>
       </c>
       <c r="F244" s="18" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G244" s="2" t="s">
         <v>954</v>
@@ -10694,7 +10718,7 @@
         <v>1100</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="G245" s="2" t="s">
         <v>955</v>
@@ -10717,7 +10741,7 @@
         <v>1101</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G246" s="2" t="s">
         <v>956</v>
@@ -10740,7 +10764,7 @@
         <v>1102</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="G247" s="2" t="s">
         <v>957</v>
@@ -11170,7 +11194,7 @@
         <v>1115</v>
       </c>
       <c r="F267" s="18" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="G267" s="2" t="s">
         <v>991</v>
@@ -11763,7 +11787,7 @@
         <v>1134</v>
       </c>
       <c r="F294" s="18" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="G294" s="2" t="s">
         <v>1198</v>
@@ -11786,7 +11810,7 @@
         <v>1032</v>
       </c>
       <c r="F295" s="18" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G295" s="2" t="s">
         <v>1199</v>
@@ -11832,7 +11856,7 @@
         <v>1034</v>
       </c>
       <c r="F297" s="17" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>1201</v>
@@ -11887,10 +11911,10 @@
         <v>1135</v>
       </c>
       <c r="F300" s="16" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="14.25">
@@ -11910,10 +11934,10 @@
         <v>1136</v>
       </c>
       <c r="F301" s="16" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="14.25">
@@ -11936,7 +11960,7 @@
         <v>1257</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="14.25">
@@ -11956,10 +11980,10 @@
         <v>1137</v>
       </c>
       <c r="F303" s="16" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="14.25">
@@ -11979,10 +12003,10 @@
         <v>1138</v>
       </c>
       <c r="F304" s="16" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="14.25">
@@ -12002,10 +12026,10 @@
         <v>1139</v>
       </c>
       <c r="F305" s="16" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="14.25">
@@ -13447,11 +13471,11 @@
         <v>833</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E382" s="14"/>
       <c r="F382" s="5" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="G382" s="2" t="s">
         <v>834</v>
@@ -13468,11 +13492,11 @@
         <v>836</v>
       </c>
       <c r="D383" s="17" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E383" s="14"/>
       <c r="F383" s="17" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="G383" s="2" t="s">
         <v>837</v>
@@ -13495,13 +13519,15 @@
         <v>2</v>
       </c>
       <c r="C385" s="19" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E385" s="11"/>
+      <c r="F385" s="22" t="s">
         <v>1335</v>
       </c>
-      <c r="D385" s="22" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E385" s="11"/>
-      <c r="F385" s="11"/>
       <c r="G385" s="2" t="s">
         <v>1187</v>
       </c>
@@ -13514,13 +13540,15 @@
         <v>5</v>
       </c>
       <c r="C386" s="19" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D386" s="22" t="s">
-        <v>1342</v>
+        <v>1336</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>1370</v>
       </c>
       <c r="E386" s="11"/>
-      <c r="F386" s="11"/>
+      <c r="F386" s="22" t="s">
+        <v>1341</v>
+      </c>
       <c r="G386" s="2" t="s">
         <v>1188</v>
       </c>
@@ -13535,11 +13563,13 @@
       <c r="C387" s="19" t="s">
         <v>1186</v>
       </c>
-      <c r="D387" s="17" t="s">
-        <v>1338</v>
+      <c r="D387" s="2" t="s">
+        <v>1372</v>
       </c>
       <c r="E387" s="11"/>
-      <c r="F387" s="11"/>
+      <c r="F387" s="17" t="s">
+        <v>1337</v>
+      </c>
       <c r="G387" s="2" t="s">
         <v>1189</v>
       </c>
@@ -13552,13 +13582,15 @@
         <v>10</v>
       </c>
       <c r="C388" s="19" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D388" s="22" t="s">
-        <v>1346</v>
+        <v>1340</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>1373</v>
       </c>
       <c r="E388" s="11"/>
-      <c r="F388" s="11"/>
+      <c r="F388" s="22" t="s">
+        <v>1345</v>
+      </c>
       <c r="G388" s="2" t="s">
         <v>1190</v>
       </c>
@@ -13571,13 +13603,15 @@
         <v>13</v>
       </c>
       <c r="C389" s="19" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D389" s="22" t="s">
-        <v>1345</v>
+        <v>1339</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>1374</v>
       </c>
       <c r="E389" s="11"/>
-      <c r="F389" s="11"/>
+      <c r="F389" s="22" t="s">
+        <v>1344</v>
+      </c>
       <c r="G389" s="2" t="s">
         <v>1191</v>
       </c>
@@ -13590,13 +13624,15 @@
         <v>16</v>
       </c>
       <c r="C390" s="19" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E390" s="13"/>
+      <c r="F390" s="22" t="s">
         <v>1343</v>
       </c>
-      <c r="D390" s="22" t="s">
-        <v>1344</v>
-      </c>
-      <c r="E390" s="13"/>
-      <c r="F390" s="13"/>
       <c r="G390" s="2" t="s">
         <v>1192</v>
       </c>

--- a/章节标题.xlsx
+++ b/章节标题.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Desktop\魔禁相关\魔法禁书目录X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C50C83F-BC76-41A9-AF20-BB784711CC7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7472134-90BF-4998-8840-E17D279DE85F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="795" windowWidth="22605" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7290" yWindow="1050" windowWidth="28365" windowHeight="19950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet10" sheetId="1" r:id="rId1"/>
@@ -3414,10 +3414,6 @@
   </si>
   <si>
     <t>接受吗，不接受吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「平凡的高中生」</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4695,10 +4691,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在更迭动荡的世界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>血の降誕祭、開宴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4926,6 +4918,14 @@
   </si>
   <si>
     <t>哪边会先发制人？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更迭动荡的世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“平凡高中生”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5765,8 +5765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="E187" sqref="E187"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="F295" sqref="F295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5783,22 +5783,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25">
       <c r="A1" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1020</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1021</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>1</v>
@@ -5806,10 +5806,10 @@
     </row>
     <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="2" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -5819,7 +5819,7 @@
         <v>833</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
@@ -5827,7 +5827,7 @@
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="2" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -5848,7 +5848,7 @@
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="2" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -5869,7 +5869,7 @@
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -5890,7 +5890,7 @@
     </row>
     <row r="6" spans="1:7" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -5911,10 +5911,10 @@
     </row>
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>515</v>
@@ -5941,10 +5941,10 @@
     </row>
     <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>516</v>
@@ -5962,7 +5962,7 @@
     </row>
     <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
@@ -6046,10 +6046,10 @@
     </row>
     <row r="14" spans="1:7" ht="14.25">
       <c r="A14" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>521</v>
@@ -6076,10 +6076,10 @@
     </row>
     <row r="16" spans="1:7" ht="14.25">
       <c r="A16" s="2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>522</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="17" spans="1:7" ht="14.25">
       <c r="A17" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -6118,7 +6118,7 @@
     </row>
     <row r="18" spans="1:7" ht="14.25">
       <c r="A18" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -6139,7 +6139,7 @@
     </row>
     <row r="19" spans="1:7" ht="14.25">
       <c r="A19" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="20" spans="1:7" ht="14.25">
       <c r="A20" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
@@ -6181,10 +6181,10 @@
     </row>
     <row r="21" spans="1:7" ht="14.25">
       <c r="A21" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>526</v>
@@ -6211,10 +6211,10 @@
     </row>
     <row r="23" spans="1:7" ht="14.25">
       <c r="A23" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>527</v>
@@ -6230,7 +6230,7 @@
     </row>
     <row r="24" spans="1:7" ht="14.25">
       <c r="A24" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
@@ -6268,7 +6268,7 @@
     </row>
     <row r="26" spans="1:7" ht="14.25">
       <c r="A26" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="27" spans="1:7" ht="14.25">
       <c r="A27" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
@@ -6306,10 +6306,10 @@
     </row>
     <row r="28" spans="1:7" ht="14.25">
       <c r="A28" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>532</v>
@@ -6334,10 +6334,10 @@
     </row>
     <row r="30" spans="1:7" ht="14.25">
       <c r="A30" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>533</v>
@@ -6355,7 +6355,7 @@
     </row>
     <row r="31" spans="1:7" ht="14.25">
       <c r="A31" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
@@ -6376,7 +6376,7 @@
     </row>
     <row r="32" spans="1:7" ht="14.25">
       <c r="A32" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="33" spans="1:7" ht="14.25">
       <c r="A33" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="34" spans="1:7" ht="14.25">
       <c r="A34" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
@@ -6439,10 +6439,10 @@
     </row>
     <row r="35" spans="1:7" ht="14.25">
       <c r="A35" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>538</v>
@@ -6469,26 +6469,26 @@
     </row>
     <row r="37" spans="1:7" ht="14.25">
       <c r="A37" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>539</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" ht="14.25">
       <c r="A38" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
@@ -6501,7 +6501,7 @@
         <v>58</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>59</v>
@@ -6509,7 +6509,7 @@
     </row>
     <row r="39" spans="1:7" ht="14.25">
       <c r="A39" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="40" spans="1:7" ht="14.25">
       <c r="A40" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
@@ -6551,7 +6551,7 @@
     </row>
     <row r="41" spans="1:7" ht="14.25">
       <c r="A41" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
@@ -6572,10 +6572,10 @@
     </row>
     <row r="42" spans="1:7" ht="14.25">
       <c r="A42" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>544</v>
@@ -6585,7 +6585,7 @@
         <v>66</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="G42" s="2"/>
     </row>
@@ -6600,10 +6600,10 @@
     </row>
     <row r="44" spans="1:7" ht="14.25">
       <c r="A44" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>545</v>
@@ -6621,7 +6621,7 @@
     </row>
     <row r="45" spans="1:7" ht="14.25">
       <c r="A45" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>4</v>
@@ -6642,7 +6642,7 @@
     </row>
     <row r="46" spans="1:7" ht="14.25">
       <c r="A46" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="47" spans="1:7" ht="14.25">
       <c r="A47" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>9</v>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="48" spans="1:7" ht="14.25">
       <c r="A48" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>12</v>
@@ -6705,10 +6705,10 @@
     </row>
     <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>550</v>
@@ -6735,10 +6735,10 @@
     </row>
     <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>551</v>
@@ -6756,7 +6756,7 @@
     </row>
     <row r="52" spans="1:7" ht="14.25">
       <c r="A52" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4</v>
@@ -6777,7 +6777,7 @@
     </row>
     <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
@@ -6798,7 +6798,7 @@
     </row>
     <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>9</v>
@@ -6819,7 +6819,7 @@
     </row>
     <row r="55" spans="1:7" ht="14.25">
       <c r="A55" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>12</v>
@@ -6840,10 +6840,10 @@
     </row>
     <row r="56" spans="1:7" ht="14.25">
       <c r="A56" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>557</v>
@@ -6870,10 +6870,10 @@
     </row>
     <row r="58" spans="1:7" ht="14.25">
       <c r="A58" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>558</v>
@@ -6883,7 +6883,7 @@
         <v>89</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>90</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="59" spans="1:7" ht="14.25">
       <c r="A59" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>4</v>
@@ -6904,7 +6904,7 @@
         <v>91</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>92</v>
@@ -6912,7 +6912,7 @@
     </row>
     <row r="60" spans="1:7" ht="14.25">
       <c r="A60" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>7</v>
@@ -6925,7 +6925,7 @@
         <v>93</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>94</v>
@@ -6933,7 +6933,7 @@
     </row>
     <row r="61" spans="1:7" ht="14.25">
       <c r="A61" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>9</v>
@@ -6943,10 +6943,10 @@
       </c>
       <c r="D61" s="17"/>
       <c r="E61" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F61" s="9" t="s">
         <v>1252</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>1253</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>95</v>
@@ -6954,7 +6954,7 @@
     </row>
     <row r="62" spans="1:7" ht="14.25">
       <c r="A62" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>12</v>
@@ -6967,7 +6967,7 @@
         <v>96</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>97</v>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="63" spans="1:7" ht="14.25">
       <c r="A63" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>98</v>
@@ -6984,13 +6984,13 @@
         <v>563</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>100</v>
@@ -6998,7 +6998,7 @@
     </row>
     <row r="64" spans="1:7" ht="14.25">
       <c r="A64" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>101</v>
@@ -7011,7 +7011,7 @@
         <v>102</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>103</v>
@@ -7019,7 +7019,7 @@
     </row>
     <row r="65" spans="1:7" ht="14.25">
       <c r="A65" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>104</v>
@@ -7032,7 +7032,7 @@
         <v>105</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>106</v>
@@ -7040,7 +7040,7 @@
     </row>
     <row r="66" spans="1:7" ht="14.25">
       <c r="A66" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>107</v>
@@ -7053,7 +7053,7 @@
         <v>108</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>109</v>
@@ -7061,10 +7061,10 @@
     </row>
     <row r="67" spans="1:7" ht="14.25">
       <c r="A67" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>567</v>
@@ -7074,7 +7074,7 @@
         <v>110</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>111</v>
@@ -7091,10 +7091,10 @@
     </row>
     <row r="69" spans="1:7" ht="14.25">
       <c r="A69" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>568</v>
@@ -7112,7 +7112,7 @@
     </row>
     <row r="70" spans="1:7" ht="14.25">
       <c r="A70" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>4</v>
@@ -7133,7 +7133,7 @@
     </row>
     <row r="71" spans="1:7" ht="14.25">
       <c r="A71" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>7</v>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="72" spans="1:7" ht="14.25">
       <c r="A72" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>9</v>
@@ -7163,7 +7163,7 @@
         <v>571</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>118</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="73" spans="1:7" ht="14.25">
       <c r="A73" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>12</v>
@@ -7198,7 +7198,7 @@
     </row>
     <row r="74" spans="1:7" ht="14.25">
       <c r="A74" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>98</v>
@@ -7219,10 +7219,10 @@
     </row>
     <row r="75" spans="1:7" ht="14.25">
       <c r="A75" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>574</v>
@@ -7232,7 +7232,7 @@
         <v>123</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>124</v>
@@ -7249,10 +7249,10 @@
     </row>
     <row r="77" spans="1:7" ht="14.25">
       <c r="A77" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>575</v>
@@ -7270,7 +7270,7 @@
     </row>
     <row r="78" spans="1:7" ht="14.25">
       <c r="A78" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>4</v>
@@ -7283,7 +7283,7 @@
         <v>127</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>128</v>
@@ -7291,7 +7291,7 @@
     </row>
     <row r="79" spans="1:7" ht="14.25">
       <c r="A79" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>7</v>
@@ -7304,7 +7304,7 @@
         <v>129</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>130</v>
@@ -7312,7 +7312,7 @@
     </row>
     <row r="80" spans="1:7" ht="14.25">
       <c r="A80" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>9</v>
@@ -7325,7 +7325,7 @@
         <v>131</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>132</v>
@@ -7333,7 +7333,7 @@
     </row>
     <row r="81" spans="1:7" ht="14.25">
       <c r="A81" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>12</v>
@@ -7346,7 +7346,7 @@
         <v>133</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>134</v>
@@ -7354,7 +7354,7 @@
     </row>
     <row r="82" spans="1:7" ht="14.25">
       <c r="A82" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>98</v>
@@ -7367,7 +7367,7 @@
         <v>135</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>136</v>
@@ -7375,7 +7375,7 @@
     </row>
     <row r="83" spans="1:7" ht="14.25">
       <c r="A83" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>101</v>
@@ -7388,7 +7388,7 @@
         <v>851</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>137</v>
@@ -7396,7 +7396,7 @@
     </row>
     <row r="84" spans="1:7" ht="14.25">
       <c r="A84" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>104</v>
@@ -7409,7 +7409,7 @@
         <v>852</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>138</v>
@@ -7417,7 +7417,7 @@
     </row>
     <row r="85" spans="1:7" ht="14.25">
       <c r="A85" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>107</v>
@@ -7438,7 +7438,7 @@
     </row>
     <row r="86" spans="1:7" ht="14.25">
       <c r="A86" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>141</v>
@@ -7451,7 +7451,7 @@
         <v>853</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>142</v>
@@ -7459,7 +7459,7 @@
     </row>
     <row r="87" spans="1:7" ht="14.25">
       <c r="A87" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>143</v>
@@ -7472,7 +7472,7 @@
         <v>854</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>144</v>
@@ -7480,10 +7480,10 @@
     </row>
     <row r="88" spans="1:7" ht="14.25">
       <c r="A88" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>586</v>
@@ -7493,7 +7493,7 @@
         <v>855</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>587</v>
@@ -7510,10 +7510,10 @@
     </row>
     <row r="90" spans="1:7" ht="14.25">
       <c r="A90" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>588</v>
@@ -7522,7 +7522,7 @@
         <v>145</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F90" s="9" t="s">
         <v>926</v>
@@ -7533,7 +7533,7 @@
     </row>
     <row r="91" spans="1:7" ht="14.25">
       <c r="A91" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>4</v>
@@ -7545,10 +7545,10 @@
         <v>147</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>148</v>
@@ -7556,7 +7556,7 @@
     </row>
     <row r="92" spans="1:7" ht="14.25">
       <c r="A92" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>7</v>
@@ -7568,10 +7568,10 @@
         <v>149</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>150</v>
@@ -7579,7 +7579,7 @@
     </row>
     <row r="93" spans="1:7" ht="14.25">
       <c r="A93" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>9</v>
@@ -7594,7 +7594,7 @@
         <v>151</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>152</v>
@@ -7602,7 +7602,7 @@
     </row>
     <row r="94" spans="1:7" ht="14.25">
       <c r="A94" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>12</v>
@@ -7614,10 +7614,10 @@
         <v>153</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>154</v>
@@ -7625,10 +7625,10 @@
     </row>
     <row r="95" spans="1:7" ht="14.25">
       <c r="A95" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>593</v>
@@ -7657,10 +7657,10 @@
     </row>
     <row r="97" spans="1:7" ht="14.25">
       <c r="A97" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>594</v>
@@ -7670,7 +7670,7 @@
         <v>857</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>157</v>
@@ -7678,7 +7678,7 @@
     </row>
     <row r="98" spans="1:7" ht="14.25">
       <c r="A98" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>4</v>
@@ -7691,7 +7691,7 @@
         <v>858</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>158</v>
@@ -7699,7 +7699,7 @@
     </row>
     <row r="99" spans="1:7" ht="14.25">
       <c r="A99" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>7</v>
@@ -7712,7 +7712,7 @@
         <v>859</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>159</v>
@@ -7720,7 +7720,7 @@
     </row>
     <row r="100" spans="1:7" ht="14.25">
       <c r="A100" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>9</v>
@@ -7741,7 +7741,7 @@
     </row>
     <row r="101" spans="1:7" ht="14.25">
       <c r="A101" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>12</v>
@@ -7754,7 +7754,7 @@
         <v>861</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>161</v>
@@ -7762,10 +7762,10 @@
     </row>
     <row r="102" spans="1:7" ht="14.25">
       <c r="A102" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>599</v>
@@ -7775,7 +7775,7 @@
         <v>862</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>162</v>
@@ -7792,10 +7792,10 @@
     </row>
     <row r="104" spans="1:7" ht="14.25">
       <c r="A104" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>600</v>
@@ -7805,7 +7805,7 @@
         <v>863</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>163</v>
@@ -7813,7 +7813,7 @@
     </row>
     <row r="105" spans="1:7" ht="14.25">
       <c r="A105" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>4</v>
@@ -7834,7 +7834,7 @@
     </row>
     <row r="106" spans="1:7" ht="14.25">
       <c r="A106" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>7</v>
@@ -7847,7 +7847,7 @@
         <v>865</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>165</v>
@@ -7855,7 +7855,7 @@
     </row>
     <row r="107" spans="1:7" ht="14.25">
       <c r="A107" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>9</v>
@@ -7868,7 +7868,7 @@
         <v>866</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>166</v>
@@ -7876,7 +7876,7 @@
     </row>
     <row r="108" spans="1:7" ht="14.25">
       <c r="A108" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>12</v>
@@ -7889,7 +7889,7 @@
         <v>867</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>167</v>
@@ -7897,7 +7897,7 @@
     </row>
     <row r="109" spans="1:7" ht="14.25">
       <c r="A109" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>98</v>
@@ -7907,10 +7907,10 @@
       </c>
       <c r="D109" s="17"/>
       <c r="E109" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>168</v>
@@ -7918,10 +7918,10 @@
     </row>
     <row r="110" spans="1:7" ht="14.25">
       <c r="A110" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>606</v>
@@ -7931,7 +7931,7 @@
         <v>868</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>169</v>
@@ -7948,10 +7948,10 @@
     </row>
     <row r="112" spans="1:7" ht="14.25">
       <c r="A112" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>607</v>
@@ -7961,7 +7961,7 @@
         <v>869</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>170</v>
@@ -7969,7 +7969,7 @@
     </row>
     <row r="113" spans="1:7" ht="14.25">
       <c r="A113" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>4</v>
@@ -7982,7 +7982,7 @@
         <v>870</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>171</v>
@@ -7990,7 +7990,7 @@
     </row>
     <row r="114" spans="1:7" ht="14.25">
       <c r="A114" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>7</v>
@@ -8003,7 +8003,7 @@
         <v>871</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>172</v>
@@ -8011,7 +8011,7 @@
     </row>
     <row r="115" spans="1:7" ht="14.25">
       <c r="A115" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>9</v>
@@ -8024,7 +8024,7 @@
         <v>872</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>173</v>
@@ -8032,7 +8032,7 @@
     </row>
     <row r="116" spans="1:7" ht="14.25">
       <c r="A116" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>12</v>
@@ -8045,7 +8045,7 @@
         <v>873</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>174</v>
@@ -8053,10 +8053,10 @@
     </row>
     <row r="117" spans="1:7" ht="14.25">
       <c r="A117" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>612</v>
@@ -8066,7 +8066,7 @@
         <v>874</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>175</v>
@@ -8083,7 +8083,7 @@
     </row>
     <row r="119" spans="1:7" ht="14.25">
       <c r="A119" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>4</v>
@@ -8095,10 +8095,10 @@
         <v>176</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>177</v>
@@ -8106,7 +8106,7 @@
     </row>
     <row r="120" spans="1:7" ht="14.25">
       <c r="A120" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>7</v>
@@ -8118,10 +8118,10 @@
         <v>178</v>
       </c>
       <c r="E120" s="16" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F120" s="9" t="s">
         <v>1287</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>1288</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>179</v>
@@ -8129,7 +8129,7 @@
     </row>
     <row r="121" spans="1:7" ht="14.25">
       <c r="A121" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>9</v>
@@ -8144,7 +8144,7 @@
         <v>838</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>181</v>
@@ -8152,7 +8152,7 @@
     </row>
     <row r="122" spans="1:7" ht="14.25">
       <c r="A122" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>12</v>
@@ -8167,7 +8167,7 @@
         <v>839</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>183</v>
@@ -8175,7 +8175,7 @@
     </row>
     <row r="123" spans="1:7" ht="14.25">
       <c r="A123" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>98</v>
@@ -8187,10 +8187,10 @@
         <v>184</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>185</v>
@@ -8198,7 +8198,7 @@
     </row>
     <row r="124" spans="1:7" ht="14.25">
       <c r="A124" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>101</v>
@@ -8210,10 +8210,10 @@
         <v>186</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>187</v>
@@ -8221,7 +8221,7 @@
     </row>
     <row r="125" spans="1:7" ht="14.25">
       <c r="A125" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>104</v>
@@ -8236,7 +8236,7 @@
         <v>840</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>189</v>
@@ -8244,7 +8244,7 @@
     </row>
     <row r="126" spans="1:7" ht="14.25">
       <c r="A126" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>107</v>
@@ -8259,7 +8259,7 @@
         <v>190</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>191</v>
@@ -8267,7 +8267,7 @@
     </row>
     <row r="127" spans="1:7" ht="14.25">
       <c r="A127" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>141</v>
@@ -8279,7 +8279,7 @@
         <v>192</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F127" s="9" t="s">
         <v>850</v>
@@ -8290,7 +8290,7 @@
     </row>
     <row r="128" spans="1:7" ht="14.25">
       <c r="A128" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>143</v>
@@ -8305,7 +8305,7 @@
         <v>841</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>195</v>
@@ -8313,7 +8313,7 @@
     </row>
     <row r="129" spans="1:7" ht="14.25">
       <c r="A129" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>196</v>
@@ -8328,7 +8328,7 @@
         <v>842</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>198</v>
@@ -8336,7 +8336,7 @@
     </row>
     <row r="130" spans="1:7" ht="14.25">
       <c r="A130" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>199</v>
@@ -8351,7 +8351,7 @@
         <v>843</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>201</v>
@@ -8359,7 +8359,7 @@
     </row>
     <row r="131" spans="1:7" ht="14.25">
       <c r="A131" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>202</v>
@@ -8374,7 +8374,7 @@
         <v>844</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>204</v>
@@ -8382,7 +8382,7 @@
     </row>
     <row r="132" spans="1:7" ht="14.25">
       <c r="A132" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>205</v>
@@ -8394,10 +8394,10 @@
         <v>206</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>207</v>
@@ -8405,7 +8405,7 @@
     </row>
     <row r="133" spans="1:7" ht="14.25">
       <c r="A133" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>208</v>
@@ -8417,10 +8417,10 @@
         <v>209</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>210</v>
@@ -8428,7 +8428,7 @@
     </row>
     <row r="134" spans="1:7" ht="14.25">
       <c r="A134" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>211</v>
@@ -8443,7 +8443,7 @@
         <v>845</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>213</v>
@@ -8451,7 +8451,7 @@
     </row>
     <row r="135" spans="1:7" ht="14.25">
       <c r="A135" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>214</v>
@@ -8466,7 +8466,7 @@
         <v>846</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>216</v>
@@ -8474,7 +8474,7 @@
     </row>
     <row r="136" spans="1:7" ht="14.25">
       <c r="A136" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>217</v>
@@ -8489,7 +8489,7 @@
         <v>847</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>216</v>
@@ -8497,7 +8497,7 @@
     </row>
     <row r="137" spans="1:7" ht="14.25">
       <c r="A137" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>219</v>
@@ -8509,10 +8509,10 @@
         <v>220</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>221</v>
@@ -8520,7 +8520,7 @@
     </row>
     <row r="138" spans="1:7" ht="14.25">
       <c r="A138" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>222</v>
@@ -8529,13 +8529,13 @@
         <v>632</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E138" s="16" t="s">
         <v>848</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>221</v>
@@ -8543,7 +8543,7 @@
     </row>
     <row r="139" spans="1:7" ht="14.25">
       <c r="A139" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>223</v>
@@ -8555,10 +8555,10 @@
         <v>224</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>221</v>
@@ -8566,7 +8566,7 @@
     </row>
     <row r="140" spans="1:7" ht="14.25">
       <c r="A140" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>225</v>
@@ -8581,7 +8581,7 @@
         <v>849</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>221</v>
@@ -8598,7 +8598,7 @@
     </row>
     <row r="142" spans="1:7" ht="14.25">
       <c r="A142" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>4</v>
@@ -8610,10 +8610,10 @@
         <v>227</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>877</v>
@@ -8621,7 +8621,7 @@
     </row>
     <row r="143" spans="1:7" ht="14.25">
       <c r="A143" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>7</v>
@@ -8633,10 +8633,10 @@
         <v>228</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F143" s="16" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>878</v>
@@ -8644,7 +8644,7 @@
     </row>
     <row r="144" spans="1:7" ht="14.25">
       <c r="A144" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>9</v>
@@ -8656,10 +8656,10 @@
         <v>229</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F144" s="16" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>879</v>
@@ -8667,7 +8667,7 @@
     </row>
     <row r="145" spans="1:7" ht="14.25">
       <c r="A145" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>12</v>
@@ -8679,10 +8679,10 @@
         <v>230</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>875</v>
@@ -8690,10 +8690,10 @@
     </row>
     <row r="146" spans="1:7" ht="14.25">
       <c r="A146" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>639</v>
@@ -8702,10 +8702,10 @@
         <v>231</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F146" s="21" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>876</v>
@@ -8713,7 +8713,7 @@
     </row>
     <row r="147" spans="1:7" ht="14.25">
       <c r="A147" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>98</v>
@@ -8722,13 +8722,13 @@
         <v>640</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E147" s="16" t="s">
         <v>880</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>882</v>
@@ -8736,7 +8736,7 @@
     </row>
     <row r="148" spans="1:7" ht="14.25">
       <c r="A148" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>101</v>
@@ -8748,7 +8748,7 @@
         <v>232</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>232</v>
@@ -8759,7 +8759,7 @@
     </row>
     <row r="149" spans="1:7" ht="14.25">
       <c r="A149" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>104</v>
@@ -8771,10 +8771,10 @@
         <v>233</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>884</v>
@@ -8782,7 +8782,7 @@
     </row>
     <row r="150" spans="1:7" ht="14.25">
       <c r="A150" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>107</v>
@@ -8794,10 +8794,10 @@
         <v>234</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>885</v>
@@ -8805,10 +8805,10 @@
     </row>
     <row r="151" spans="1:7" ht="14.25">
       <c r="A151" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>644</v>
@@ -8820,7 +8820,7 @@
         <v>881</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>236</v>
@@ -8837,10 +8837,10 @@
     </row>
     <row r="153" spans="1:7" ht="14.25">
       <c r="A153" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>645</v>
@@ -8849,10 +8849,10 @@
         <v>237</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>892</v>
@@ -8860,7 +8860,7 @@
     </row>
     <row r="154" spans="1:7" ht="14.25">
       <c r="A154" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>4</v>
@@ -8872,10 +8872,10 @@
         <v>238</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>893</v>
@@ -8883,7 +8883,7 @@
     </row>
     <row r="155" spans="1:7" ht="14.25">
       <c r="A155" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>7</v>
@@ -8895,10 +8895,10 @@
         <v>239</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>894</v>
@@ -8906,7 +8906,7 @@
     </row>
     <row r="156" spans="1:7" ht="14.25">
       <c r="A156" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>9</v>
@@ -8918,7 +8918,7 @@
         <v>240</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>890</v>
@@ -8929,7 +8929,7 @@
     </row>
     <row r="157" spans="1:7" ht="14.25">
       <c r="A157" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>12</v>
@@ -8952,10 +8952,10 @@
     </row>
     <row r="158" spans="1:7" ht="14.25">
       <c r="A158" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>650</v>
@@ -8964,10 +8964,10 @@
         <v>242</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F158" s="21" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>897</v>
@@ -8984,10 +8984,10 @@
     </row>
     <row r="160" spans="1:7" ht="14.25">
       <c r="A160" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>651</v>
@@ -8996,10 +8996,10 @@
         <v>243</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F160" s="17" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>244</v>
@@ -9007,7 +9007,7 @@
     </row>
     <row r="161" spans="1:7" ht="14.25">
       <c r="A161" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>4</v>
@@ -9019,7 +9019,7 @@
         <v>245</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F161" s="17" t="s">
         <v>886</v>
@@ -9030,7 +9030,7 @@
     </row>
     <row r="162" spans="1:7" ht="14.25">
       <c r="A162" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>7</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="163" spans="1:7" ht="14.25">
       <c r="A163" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>9</v>
@@ -9065,7 +9065,7 @@
         <v>249</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F163" s="9" t="s">
         <v>888</v>
@@ -9076,7 +9076,7 @@
     </row>
     <row r="164" spans="1:7" ht="14.25">
       <c r="A164" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>12</v>
@@ -9088,7 +9088,7 @@
         <v>251</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F164" s="18" t="s">
         <v>889</v>
@@ -9099,7 +9099,7 @@
     </row>
     <row r="165" spans="1:7" ht="14.25">
       <c r="A165" s="2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>98</v>
@@ -9122,7 +9122,7 @@
     </row>
     <row r="166" spans="1:7" ht="14.25">
       <c r="A166" s="2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>101</v>
@@ -9134,7 +9134,7 @@
         <v>255</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F166" s="17" t="s">
         <v>255</v>
@@ -9145,7 +9145,7 @@
     </row>
     <row r="167" spans="1:7" ht="14.25">
       <c r="A167" s="2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>104</v>
@@ -9157,7 +9157,7 @@
         <v>257</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F167" s="17" t="s">
         <v>257</v>
@@ -9168,7 +9168,7 @@
     </row>
     <row r="168" spans="1:7" ht="14.25">
       <c r="A168" s="2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>107</v>
@@ -9180,7 +9180,7 @@
         <v>259</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F168" s="17" t="s">
         <v>259</v>
@@ -9191,7 +9191,7 @@
     </row>
     <row r="169" spans="1:7" ht="14.25">
       <c r="A169" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>141</v>
@@ -9203,7 +9203,7 @@
         <v>261</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F169" s="17" t="s">
         <v>261</v>
@@ -9214,7 +9214,7 @@
     </row>
     <row r="170" spans="1:7" ht="14.25">
       <c r="A170" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>143</v>
@@ -9226,7 +9226,7 @@
         <v>263</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F170" s="17" t="s">
         <v>263</v>
@@ -9237,7 +9237,7 @@
     </row>
     <row r="171" spans="1:7" ht="14.25">
       <c r="A171" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>196</v>
@@ -9249,7 +9249,7 @@
         <v>265</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F171" s="17" t="s">
         <v>265</v>
@@ -9260,7 +9260,7 @@
     </row>
     <row r="172" spans="1:7" ht="14.25">
       <c r="A172" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>199</v>
@@ -9272,7 +9272,7 @@
         <v>267</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F172" s="17" t="s">
         <v>267</v>
@@ -9283,10 +9283,10 @@
     </row>
     <row r="173" spans="1:7" ht="14.25">
       <c r="A173" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>664</v>
@@ -9295,7 +9295,7 @@
         <v>269</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F173" s="17" t="s">
         <v>269</v>
@@ -9315,10 +9315,10 @@
     </row>
     <row r="175" spans="1:7" ht="14.25">
       <c r="A175" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>665</v>
@@ -9327,10 +9327,10 @@
         <v>271</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F175" s="18" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>272</v>
@@ -9338,7 +9338,7 @@
     </row>
     <row r="176" spans="1:7" ht="14.25">
       <c r="A176" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>4</v>
@@ -9350,7 +9350,7 @@
         <v>899</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F176" s="18" t="s">
         <v>900</v>
@@ -9361,7 +9361,7 @@
     </row>
     <row r="177" spans="1:7" ht="14.25">
       <c r="A177" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>7</v>
@@ -9373,10 +9373,10 @@
         <v>274</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F177" s="18" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>275</v>
@@ -9384,7 +9384,7 @@
     </row>
     <row r="178" spans="1:7" ht="14.25">
       <c r="A178" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>9</v>
@@ -9396,7 +9396,7 @@
         <v>902</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F178" s="18" t="s">
         <v>903</v>
@@ -9407,7 +9407,7 @@
     </row>
     <row r="179" spans="1:7" ht="14.25">
       <c r="A179" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>12</v>
@@ -9430,7 +9430,7 @@
     </row>
     <row r="180" spans="1:7" ht="14.25">
       <c r="A180" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>98</v>
@@ -9442,10 +9442,10 @@
         <v>279</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>280</v>
@@ -9453,10 +9453,10 @@
     </row>
     <row r="181" spans="1:7" ht="14.25">
       <c r="A181" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>670</v>
@@ -9465,7 +9465,7 @@
         <v>281</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F181" s="18" t="s">
         <v>904</v>
@@ -9485,10 +9485,10 @@
     </row>
     <row r="183" spans="1:7" ht="14.25">
       <c r="A183" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>671</v>
@@ -9497,7 +9497,7 @@
         <v>927</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F183" s="17" t="s">
         <v>283</v>
@@ -9508,7 +9508,7 @@
     </row>
     <row r="184" spans="1:7" ht="14.25">
       <c r="A184" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>4</v>
@@ -9520,7 +9520,7 @@
         <v>285</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F184" s="17" t="s">
         <v>928</v>
@@ -9531,7 +9531,7 @@
     </row>
     <row r="185" spans="1:7" ht="14.25">
       <c r="A185" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>7</v>
@@ -9543,7 +9543,7 @@
         <v>905</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F185" s="18" t="s">
         <v>906</v>
@@ -9554,7 +9554,7 @@
     </row>
     <row r="186" spans="1:7" ht="14.25">
       <c r="A186" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>9</v>
@@ -9566,7 +9566,7 @@
         <v>288</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F186" s="18" t="s">
         <v>907</v>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="187" spans="1:7" ht="14.25">
       <c r="A187" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>12</v>
@@ -9589,7 +9589,7 @@
         <v>290</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F187" s="18" t="s">
         <v>908</v>
@@ -9600,10 +9600,10 @@
     </row>
     <row r="188" spans="1:7" ht="14.25">
       <c r="A188" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>677</v>
@@ -9612,7 +9612,7 @@
         <v>291</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F188" s="17" t="s">
         <v>929</v>
@@ -9632,10 +9632,10 @@
     </row>
     <row r="190" spans="1:7" ht="14.25">
       <c r="A190" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>678</v>
@@ -9644,7 +9644,7 @@
         <v>293</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F190" s="17" t="s">
         <v>930</v>
@@ -9655,7 +9655,7 @@
     </row>
     <row r="191" spans="1:7" ht="14.25">
       <c r="A191" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>4</v>
@@ -9667,10 +9667,10 @@
         <v>921</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>934</v>
@@ -9678,7 +9678,7 @@
     </row>
     <row r="192" spans="1:7" ht="14.25">
       <c r="A192" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>7</v>
@@ -9701,7 +9701,7 @@
     </row>
     <row r="193" spans="1:7" ht="14.25">
       <c r="A193" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>9</v>
@@ -9713,7 +9713,7 @@
         <v>295</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F193" s="17" t="s">
         <v>937</v>
@@ -9724,7 +9724,7 @@
     </row>
     <row r="194" spans="1:7" ht="14.25">
       <c r="A194" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>12</v>
@@ -9736,7 +9736,7 @@
         <v>296</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F194" s="17" t="s">
         <v>931</v>
@@ -9747,7 +9747,7 @@
     </row>
     <row r="195" spans="1:7" ht="14.25">
       <c r="A195" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>98</v>
@@ -9759,7 +9759,7 @@
         <v>297</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F195" s="17" t="s">
         <v>932</v>
@@ -9770,10 +9770,10 @@
     </row>
     <row r="196" spans="1:7" ht="14.25">
       <c r="A196" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>684</v>
@@ -9782,7 +9782,7 @@
         <v>920</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F196" s="18" t="s">
         <v>922</v>
@@ -9802,7 +9802,7 @@
     </row>
     <row r="198" spans="1:7" ht="14.25">
       <c r="A198" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2" t="s">
@@ -9821,7 +9821,7 @@
     </row>
     <row r="199" spans="1:7" ht="14.25">
       <c r="A199" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
@@ -9840,7 +9840,7 @@
     </row>
     <row r="200" spans="1:7" ht="14.25">
       <c r="A200" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2" t="s">
@@ -9859,7 +9859,7 @@
     </row>
     <row r="201" spans="1:7" ht="14.25">
       <c r="A201" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2" t="s">
@@ -9878,7 +9878,7 @@
     </row>
     <row r="202" spans="1:7" ht="14.25">
       <c r="A202" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2" t="s">
@@ -9897,7 +9897,7 @@
     </row>
     <row r="203" spans="1:7" ht="14.25">
       <c r="A203" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2" t="s">
@@ -9916,7 +9916,7 @@
     </row>
     <row r="204" spans="1:7" ht="14.25">
       <c r="A204" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2" t="s">
@@ -9935,7 +9935,7 @@
     </row>
     <row r="205" spans="1:7" ht="14.25">
       <c r="A205" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2" t="s">
@@ -9954,7 +9954,7 @@
     </row>
     <row r="206" spans="1:7" ht="14.25">
       <c r="A206" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="2" t="s">
@@ -9973,7 +9973,7 @@
     </row>
     <row r="207" spans="1:7" ht="14.25">
       <c r="A207" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="s">
@@ -9992,7 +9992,7 @@
     </row>
     <row r="208" spans="1:7" ht="14.25">
       <c r="A208" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2" t="s">
@@ -10011,7 +10011,7 @@
     </row>
     <row r="209" spans="1:7" ht="14.25">
       <c r="A209" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="2" t="s">
@@ -10030,7 +10030,7 @@
     </row>
     <row r="210" spans="1:7" ht="14.25">
       <c r="A210" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2" t="s">
@@ -10049,7 +10049,7 @@
     </row>
     <row r="211" spans="1:7" ht="14.25">
       <c r="A211" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2" t="s">
@@ -10068,7 +10068,7 @@
     </row>
     <row r="212" spans="1:7" ht="14.25">
       <c r="A212" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2" t="s">
@@ -10087,7 +10087,7 @@
     </row>
     <row r="213" spans="1:7" ht="14.25">
       <c r="A213" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2" t="s">
@@ -10106,7 +10106,7 @@
     </row>
     <row r="214" spans="1:7" ht="14.25">
       <c r="A214" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2" t="s">
@@ -10125,7 +10125,7 @@
     </row>
     <row r="215" spans="1:7" ht="14.25">
       <c r="A215" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2" t="s">
@@ -10144,7 +10144,7 @@
     </row>
     <row r="216" spans="1:7" ht="14.25">
       <c r="A216" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2" t="s">
@@ -10163,7 +10163,7 @@
     </row>
     <row r="217" spans="1:7" ht="14.25">
       <c r="A217" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="2" t="s">
@@ -10182,7 +10182,7 @@
     </row>
     <row r="218" spans="1:7" ht="14.25">
       <c r="A218" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="2" t="s">
@@ -10201,7 +10201,7 @@
     </row>
     <row r="219" spans="1:7" ht="14.25">
       <c r="A219" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2" t="s">
@@ -10220,7 +10220,7 @@
     </row>
     <row r="220" spans="1:7" ht="14.25">
       <c r="A220" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2" t="s">
@@ -10239,7 +10239,7 @@
     </row>
     <row r="221" spans="1:7" ht="14.25">
       <c r="A221" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" s="2" t="s">
@@ -10258,7 +10258,7 @@
     </row>
     <row r="222" spans="1:7" ht="14.25">
       <c r="A222" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" s="2" t="s">
@@ -10277,7 +10277,7 @@
     </row>
     <row r="223" spans="1:7" ht="14.25">
       <c r="A223" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" s="2" t="s">
@@ -10296,7 +10296,7 @@
     </row>
     <row r="224" spans="1:7" ht="14.25">
       <c r="A224" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" s="2" t="s">
@@ -10315,7 +10315,7 @@
     </row>
     <row r="225" spans="1:7" ht="14.25">
       <c r="A225" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" s="2" t="s">
@@ -10334,7 +10334,7 @@
     </row>
     <row r="226" spans="1:7" ht="14.25">
       <c r="A226" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" s="2" t="s">
@@ -10353,7 +10353,7 @@
     </row>
     <row r="227" spans="1:7" ht="14.25">
       <c r="A227" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2" t="s">
@@ -10372,7 +10372,7 @@
     </row>
     <row r="228" spans="1:7" ht="14.25">
       <c r="A228" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" s="2" t="s">
@@ -10391,7 +10391,7 @@
     </row>
     <row r="229" spans="1:7" ht="14.25">
       <c r="A229" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" s="2" t="s">
@@ -10410,7 +10410,7 @@
     </row>
     <row r="230" spans="1:7" ht="14.25">
       <c r="A230" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2" t="s">
@@ -10429,7 +10429,7 @@
     </row>
     <row r="231" spans="1:7" ht="14.25">
       <c r="A231" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2" t="s">
@@ -10448,7 +10448,7 @@
     </row>
     <row r="232" spans="1:7" ht="14.25">
       <c r="A232" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2" t="s">
@@ -10467,7 +10467,7 @@
     </row>
     <row r="233" spans="1:7" ht="14.25">
       <c r="A233" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" s="2" t="s">
@@ -10477,7 +10477,7 @@
         <v>687</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F233" s="17" t="s">
         <v>687</v>
@@ -10486,7 +10486,7 @@
     </row>
     <row r="234" spans="1:7" ht="14.25">
       <c r="A234" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>332</v>
@@ -10498,10 +10498,10 @@
         <v>333</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F234" s="16" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="G234" s="2" t="s">
         <v>334</v>
@@ -10509,7 +10509,7 @@
     </row>
     <row r="235" spans="1:7" ht="16.5">
       <c r="A235" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" s="2" t="s">
@@ -10519,13 +10519,13 @@
         <v>335</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F235" s="17" t="s">
         <v>335</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="14.25">
@@ -10539,10 +10539,10 @@
     </row>
     <row r="237" spans="1:7" ht="14.25">
       <c r="A237" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>690</v>
@@ -10562,7 +10562,7 @@
     </row>
     <row r="238" spans="1:7" ht="14.25">
       <c r="A238" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>4</v>
@@ -10574,7 +10574,7 @@
         <v>338</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>942</v>
@@ -10585,7 +10585,7 @@
     </row>
     <row r="239" spans="1:7" ht="14.25">
       <c r="A239" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>7</v>
@@ -10597,7 +10597,7 @@
         <v>340</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F239" s="17" t="s">
         <v>943</v>
@@ -10608,7 +10608,7 @@
     </row>
     <row r="240" spans="1:7" ht="14.25">
       <c r="A240" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>9</v>
@@ -10631,7 +10631,7 @@
     </row>
     <row r="241" spans="1:7" ht="14.25">
       <c r="A241" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>12</v>
@@ -10654,10 +10654,10 @@
     </row>
     <row r="242" spans="1:7" ht="14.25">
       <c r="A242" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>695</v>
@@ -10666,7 +10666,7 @@
         <v>346</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>944</v>
@@ -10677,7 +10677,7 @@
     </row>
     <row r="243" spans="1:7" ht="14.25">
       <c r="A243" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>98</v>
@@ -10689,10 +10689,10 @@
         <v>348</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F243" s="9" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="G243" s="2" t="s">
         <v>945</v>
@@ -10700,7 +10700,7 @@
     </row>
     <row r="244" spans="1:7" ht="14.25">
       <c r="A244" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>101</v>
@@ -10715,7 +10715,7 @@
         <v>349</v>
       </c>
       <c r="F244" s="18" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="G244" s="2" t="s">
         <v>946</v>
@@ -10723,7 +10723,7 @@
     </row>
     <row r="245" spans="1:7" ht="14.25">
       <c r="A245" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>104</v>
@@ -10735,10 +10735,10 @@
         <v>350</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F245" s="18" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="G245" s="2" t="s">
         <v>947</v>
@@ -10746,7 +10746,7 @@
     </row>
     <row r="246" spans="1:7" ht="14.25">
       <c r="A246" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>107</v>
@@ -10758,10 +10758,10 @@
         <v>351</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="G246" s="2" t="s">
         <v>948</v>
@@ -10769,10 +10769,10 @@
     </row>
     <row r="247" spans="1:7" ht="14.25">
       <c r="A247" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>700</v>
@@ -10781,10 +10781,10 @@
         <v>352</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F247" s="9" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="G247" s="2" t="s">
         <v>949</v>
@@ -10801,10 +10801,10 @@
     </row>
     <row r="249" spans="1:7" ht="14.25">
       <c r="A249" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>701</v>
@@ -10813,7 +10813,7 @@
         <v>353</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>952</v>
@@ -10824,7 +10824,7 @@
     </row>
     <row r="250" spans="1:7" ht="14.25">
       <c r="A250" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>4</v>
@@ -10836,7 +10836,7 @@
         <v>950</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>950</v>
@@ -10847,7 +10847,7 @@
     </row>
     <row r="251" spans="1:7" ht="14.25">
       <c r="A251" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>7</v>
@@ -10859,7 +10859,7 @@
         <v>354</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>951</v>
@@ -10870,7 +10870,7 @@
     </row>
     <row r="252" spans="1:7" ht="14.25">
       <c r="A252" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>9</v>
@@ -10893,7 +10893,7 @@
     </row>
     <row r="253" spans="1:7" ht="14.25">
       <c r="A253" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>12</v>
@@ -10905,7 +10905,7 @@
         <v>356</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>954</v>
@@ -10916,10 +10916,10 @@
     </row>
     <row r="254" spans="1:7" ht="14.25">
       <c r="A254" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>706</v>
@@ -10928,7 +10928,7 @@
         <v>357</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>955</v>
@@ -10948,10 +10948,10 @@
     </row>
     <row r="256" spans="1:7" ht="14.25">
       <c r="A256" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>707</v>
@@ -10960,7 +10960,7 @@
         <v>358</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>963</v>
@@ -10971,7 +10971,7 @@
     </row>
     <row r="257" spans="1:7" ht="14.25">
       <c r="A257" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>4</v>
@@ -10983,7 +10983,7 @@
         <v>359</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>962</v>
@@ -10994,7 +10994,7 @@
     </row>
     <row r="258" spans="1:7" ht="14.25">
       <c r="A258" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>7</v>
@@ -11006,7 +11006,7 @@
         <v>360</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>964</v>
@@ -11017,7 +11017,7 @@
     </row>
     <row r="259" spans="1:7" ht="14.25">
       <c r="A259" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>9</v>
@@ -11029,7 +11029,7 @@
         <v>361</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>965</v>
@@ -11040,7 +11040,7 @@
     </row>
     <row r="260" spans="1:7" ht="14.25">
       <c r="A260" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>12</v>
@@ -11052,7 +11052,7 @@
         <v>362</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>966</v>
@@ -11063,10 +11063,10 @@
     </row>
     <row r="261" spans="1:7" ht="14.25">
       <c r="A261" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>363</v>
@@ -11075,7 +11075,7 @@
         <v>364</v>
       </c>
       <c r="E261" s="17" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F261" s="17" t="s">
         <v>967</v>
@@ -11086,10 +11086,10 @@
     </row>
     <row r="262" spans="1:7" ht="14.25">
       <c r="A262" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>712</v>
@@ -11101,15 +11101,15 @@
         <v>365</v>
       </c>
       <c r="F262" s="17" t="s">
+        <v>977</v>
+      </c>
+      <c r="G262" s="2" t="s">
         <v>978</v>
-      </c>
-      <c r="G262" s="2" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="14.25">
       <c r="A263" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>98</v>
@@ -11121,18 +11121,18 @@
         <v>923</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F263" s="18" t="s">
         <v>924</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="14.25">
       <c r="A264" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>101</v>
@@ -11144,18 +11144,18 @@
         <v>366</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F264" s="17" t="s">
         <v>974</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="14.25">
       <c r="A265" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>101</v>
@@ -11167,18 +11167,18 @@
         <v>366</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F265" s="17" t="s">
-        <v>366</v>
+        <v>1377</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="14.25">
       <c r="A266" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2" t="s">
@@ -11199,7 +11199,7 @@
     </row>
     <row r="267" spans="1:7" ht="14.25">
       <c r="A267" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>101</v>
@@ -11211,18 +11211,18 @@
         <v>974</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F267" s="18" t="s">
-        <v>1320</v>
+        <v>1105</v>
+      </c>
+      <c r="F267" s="17" t="s">
+        <v>974</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="14.25">
       <c r="A268" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>104</v>
@@ -11234,18 +11234,18 @@
         <v>975</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F268" s="18" t="s">
-        <v>977</v>
+        <v>1106</v>
+      </c>
+      <c r="F268" s="17" t="s">
+        <v>1378</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="14.25">
       <c r="A269" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>107</v>
@@ -11257,21 +11257,21 @@
         <v>718</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F269" s="17" t="s">
         <v>718</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="14.25">
       <c r="A270" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>719</v>
@@ -11280,21 +11280,21 @@
         <v>367</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F270" s="18" t="s">
         <v>976</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="14.25">
       <c r="A271" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>720</v>
@@ -11303,18 +11303,18 @@
         <v>368</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F271" s="16" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="14.25">
       <c r="A272" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>141</v>
@@ -11323,13 +11323,13 @@
         <v>721</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F272" s="17" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G272" s="2" t="s">
         <v>369</v>
@@ -11337,22 +11337,22 @@
     </row>
     <row r="273" spans="1:7" ht="14.25">
       <c r="A273" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>372</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F273" s="17" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>371</v>
@@ -11360,22 +11360,22 @@
     </row>
     <row r="274" spans="1:7" ht="14.25">
       <c r="A274" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>374</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F274" s="17" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>373</v>
@@ -11383,7 +11383,7 @@
     </row>
     <row r="275" spans="1:7" ht="14.25">
       <c r="A275" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>199</v>
@@ -11395,10 +11395,10 @@
         <v>370</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F275" s="17" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="G275" s="2" t="s">
         <v>375</v>
@@ -11406,7 +11406,7 @@
     </row>
     <row r="276" spans="1:7" ht="14.25">
       <c r="A276" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>202</v>
@@ -11418,10 +11418,10 @@
         <v>376</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F276" s="17" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="G276" s="2" t="s">
         <v>377</v>
@@ -11429,7 +11429,7 @@
     </row>
     <row r="277" spans="1:7" ht="14.25">
       <c r="A277" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>205</v>
@@ -11441,10 +11441,10 @@
         <v>378</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F277" s="17" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G277" s="2" t="s">
         <v>379</v>
@@ -11452,7 +11452,7 @@
     </row>
     <row r="278" spans="1:7" ht="14.25">
       <c r="A278" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>208</v>
@@ -11464,10 +11464,10 @@
         <v>380</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F278" s="17" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G278" s="2" t="s">
         <v>381</v>
@@ -11475,7 +11475,7 @@
     </row>
     <row r="279" spans="1:7" ht="14.25">
       <c r="A279" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>211</v>
@@ -11487,10 +11487,10 @@
         <v>382</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F279" s="17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="G279" s="2" t="s">
         <v>383</v>
@@ -11498,7 +11498,7 @@
     </row>
     <row r="280" spans="1:7" ht="14.25">
       <c r="A280" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>214</v>
@@ -11510,10 +11510,10 @@
         <v>384</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="G280" s="2" t="s">
         <v>385</v>
@@ -11521,7 +11521,7 @@
     </row>
     <row r="281" spans="1:7" ht="14.25">
       <c r="A281" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>217</v>
@@ -11530,13 +11530,13 @@
         <v>728</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="G281" s="2" t="s">
         <v>386</v>
@@ -11544,7 +11544,7 @@
     </row>
     <row r="282" spans="1:7" ht="14.25">
       <c r="A282" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>219</v>
@@ -11556,10 +11556,10 @@
         <v>387</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G282" s="2" t="s">
         <v>388</v>
@@ -11567,7 +11567,7 @@
     </row>
     <row r="283" spans="1:7" ht="14.25">
       <c r="A283" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>222</v>
@@ -11579,21 +11579,21 @@
         <v>389</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F283" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G283" s="2" t="s">
         <v>1003</v>
-      </c>
-      <c r="G283" s="2" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="14.25">
       <c r="A284" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>731</v>
@@ -11602,13 +11602,13 @@
         <v>390</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F284" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G284" s="2" t="s">
         <v>1005</v>
-      </c>
-      <c r="G284" s="2" t="s">
-        <v>1006</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="14.25">
@@ -11622,10 +11622,10 @@
     </row>
     <row r="286" spans="1:7" ht="14.25">
       <c r="A286" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>732</v>
@@ -11637,15 +11637,15 @@
         <v>391</v>
       </c>
       <c r="F286" s="17" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G286" s="2" t="s">
         <v>1010</v>
-      </c>
-      <c r="G286" s="2" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="14.25">
       <c r="A287" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>4</v>
@@ -11657,18 +11657,18 @@
         <v>392</v>
       </c>
       <c r="E287" s="17" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F287" s="17" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="14.25">
       <c r="A288" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>7</v>
@@ -11677,21 +11677,21 @@
         <v>734</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E288" s="17" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F288" s="17" t="s">
         <v>393</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="14.25">
       <c r="A289" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>9</v>
@@ -11700,21 +11700,21 @@
         <v>735</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E289" s="17" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F289" s="17" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="290" spans="1:7" ht="14.25">
       <c r="A290" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>12</v>
@@ -11723,24 +11723,24 @@
         <v>736</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E290" s="17" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F290" s="17" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="291" spans="1:7" ht="14.25">
       <c r="A291" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>737</v>
@@ -11752,10 +11752,10 @@
         <v>394</v>
       </c>
       <c r="F291" s="17" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G291" s="2" t="s">
         <v>1017</v>
-      </c>
-      <c r="G291" s="2" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="292" spans="1:7" ht="14.25">
@@ -11769,30 +11769,30 @@
     </row>
     <row r="293" spans="1:7" ht="14.25">
       <c r="A293" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>738</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F293" s="17" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="294" spans="1:7" ht="14.25">
       <c r="A294" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>4</v>
@@ -11801,21 +11801,21 @@
         <v>739</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F294" s="18" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="295" spans="1:7" ht="14.25">
       <c r="A295" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>7</v>
@@ -11824,21 +11824,21 @@
         <v>740</v>
       </c>
       <c r="D295" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E295" s="16" t="s">
         <v>1023</v>
       </c>
-      <c r="E295" s="16" t="s">
-        <v>1024</v>
-      </c>
       <c r="F295" s="18" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="296" spans="1:7" ht="14.25">
       <c r="A296" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>9</v>
@@ -11850,18 +11850,18 @@
         <v>395</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F296" s="17" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="297" spans="1:7" ht="14.25">
       <c r="A297" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>12</v>
@@ -11873,21 +11873,21 @@
         <v>396</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F297" s="17" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="14.25">
       <c r="A298" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>743</v>
@@ -11896,13 +11896,13 @@
         <v>397</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="14.25">
@@ -11916,10 +11916,10 @@
     </row>
     <row r="300" spans="1:7" ht="14.25">
       <c r="A300" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>744</v>
@@ -11928,18 +11928,18 @@
         <v>398</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F300" s="16" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="14.25">
       <c r="A301" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>4</v>
@@ -11951,18 +11951,18 @@
         <v>399</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F301" s="16" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="14.25">
       <c r="A302" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>7</v>
@@ -11974,18 +11974,18 @@
         <v>400</v>
       </c>
       <c r="E302" s="16" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F302" s="21" t="s">
         <v>1247</v>
       </c>
-      <c r="F302" s="21" t="s">
-        <v>1248</v>
-      </c>
       <c r="G302" s="2" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="14.25">
       <c r="A303" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>9</v>
@@ -11997,18 +11997,18 @@
         <v>401</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F303" s="16" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="304" spans="1:7" ht="14.25">
       <c r="A304" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>12</v>
@@ -12020,21 +12020,21 @@
         <v>402</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F304" s="16" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="14.25">
       <c r="A305" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>749</v>
@@ -12043,13 +12043,13 @@
         <v>403</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F305" s="16" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="14.25">
@@ -12063,10 +12063,10 @@
     </row>
     <row r="307" spans="1:7" ht="14.25">
       <c r="A307" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>750</v>
@@ -12075,7 +12075,7 @@
         <v>404</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F307" s="11"/>
       <c r="G307" s="2" t="s">
@@ -12084,7 +12084,7 @@
     </row>
     <row r="308" spans="1:7" ht="14.25">
       <c r="A308" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>4</v>
@@ -12096,7 +12096,7 @@
         <v>406</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F308" s="11"/>
       <c r="G308" s="2" t="s">
@@ -12105,7 +12105,7 @@
     </row>
     <row r="309" spans="1:7" ht="14.25">
       <c r="A309" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>7</v>
@@ -12117,7 +12117,7 @@
         <v>408</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F309" s="11"/>
       <c r="G309" s="2" t="s">
@@ -12126,7 +12126,7 @@
     </row>
     <row r="310" spans="1:7" ht="14.25">
       <c r="A310" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>9</v>
@@ -12138,7 +12138,7 @@
         <v>410</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F310" s="11"/>
       <c r="G310" s="2" t="s">
@@ -12147,7 +12147,7 @@
     </row>
     <row r="311" spans="1:7" ht="14.25">
       <c r="A311" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>12</v>
@@ -12168,10 +12168,10 @@
     </row>
     <row r="312" spans="1:7" ht="14.25">
       <c r="A312" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>755</v>
@@ -12180,7 +12180,7 @@
         <v>414</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F312" s="11"/>
       <c r="G312" s="2" t="s">
@@ -12198,10 +12198,10 @@
     </row>
     <row r="314" spans="1:7" ht="14.25">
       <c r="A314" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>756</v>
@@ -12210,7 +12210,7 @@
         <v>416</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F314" s="11"/>
       <c r="G314" s="2" t="s">
@@ -12219,7 +12219,7 @@
     </row>
     <row r="315" spans="1:7" ht="14.25">
       <c r="A315" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>4</v>
@@ -12231,7 +12231,7 @@
         <v>418</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F315" s="11"/>
       <c r="G315" s="2" t="s">
@@ -12240,7 +12240,7 @@
     </row>
     <row r="316" spans="1:7" ht="14.25">
       <c r="A316" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>7</v>
@@ -12252,7 +12252,7 @@
         <v>420</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F316" s="11"/>
       <c r="G316" s="2" t="s">
@@ -12261,7 +12261,7 @@
     </row>
     <row r="317" spans="1:7" ht="14.25">
       <c r="A317" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>9</v>
@@ -12273,7 +12273,7 @@
         <v>422</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F317" s="11"/>
       <c r="G317" s="2" t="s">
@@ -12282,7 +12282,7 @@
     </row>
     <row r="318" spans="1:7" ht="14.25">
       <c r="A318" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>12</v>
@@ -12294,7 +12294,7 @@
         <v>423</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="F318" s="11"/>
       <c r="G318" s="2" t="s">
@@ -12303,7 +12303,7 @@
     </row>
     <row r="319" spans="1:7" ht="14.25">
       <c r="A319" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>98</v>
@@ -12315,7 +12315,7 @@
         <v>425</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F319" s="11"/>
       <c r="G319" s="2" t="s">
@@ -12324,10 +12324,10 @@
     </row>
     <row r="320" spans="1:7" ht="14.25">
       <c r="A320" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>763</v>
@@ -12336,7 +12336,7 @@
         <v>427</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F320" s="11"/>
       <c r="G320" s="2" t="s">
@@ -12354,10 +12354,10 @@
     </row>
     <row r="322" spans="1:7" ht="14.25">
       <c r="A322" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>764</v>
@@ -12366,7 +12366,7 @@
         <v>429</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F322" s="11"/>
       <c r="G322" s="2" t="s">
@@ -12375,7 +12375,7 @@
     </row>
     <row r="323" spans="1:7" ht="14.25">
       <c r="A323" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>4</v>
@@ -12387,7 +12387,7 @@
         <v>431</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F323" s="11"/>
       <c r="G323" s="2" t="s">
@@ -12396,7 +12396,7 @@
     </row>
     <row r="324" spans="1:7" ht="14.25">
       <c r="A324" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>7</v>
@@ -12408,7 +12408,7 @@
         <v>433</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F324" s="11"/>
       <c r="G324" s="2" t="s">
@@ -12417,7 +12417,7 @@
     </row>
     <row r="325" spans="1:7" ht="14.25">
       <c r="A325" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>9</v>
@@ -12429,7 +12429,7 @@
         <v>435</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F325" s="11"/>
       <c r="G325" s="2" t="s">
@@ -12438,7 +12438,7 @@
     </row>
     <row r="326" spans="1:7" ht="14.25">
       <c r="A326" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>12</v>
@@ -12450,7 +12450,7 @@
         <v>437</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F326" s="11"/>
       <c r="G326" s="2" t="s">
@@ -12459,10 +12459,10 @@
     </row>
     <row r="327" spans="1:7" ht="14.25">
       <c r="A327" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>769</v>
@@ -12471,7 +12471,7 @@
         <v>439</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F327" s="11"/>
       <c r="G327" s="2" t="s">
@@ -12489,10 +12489,10 @@
     </row>
     <row r="329" spans="1:7" ht="14.25">
       <c r="A329" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>770</v>
@@ -12501,7 +12501,7 @@
         <v>441</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F329" s="11"/>
       <c r="G329" s="2" t="s">
@@ -12510,7 +12510,7 @@
     </row>
     <row r="330" spans="1:7" ht="14.25">
       <c r="A330" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>4</v>
@@ -12522,7 +12522,7 @@
         <v>443</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F330" s="11"/>
       <c r="G330" s="2" t="s">
@@ -12531,7 +12531,7 @@
     </row>
     <row r="331" spans="1:7" ht="14.25">
       <c r="A331" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>7</v>
@@ -12543,7 +12543,7 @@
         <v>445</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F331" s="11"/>
       <c r="G331" s="2" t="s">
@@ -12552,7 +12552,7 @@
     </row>
     <row r="332" spans="1:7" ht="14.25">
       <c r="A332" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>9</v>
@@ -12564,7 +12564,7 @@
         <v>447</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F332" s="11"/>
       <c r="G332" s="2" t="s">
@@ -12573,7 +12573,7 @@
     </row>
     <row r="333" spans="1:7" ht="14.25">
       <c r="A333" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>12</v>
@@ -12585,7 +12585,7 @@
         <v>449</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F333" s="11"/>
       <c r="G333" s="2" t="s">
@@ -12594,10 +12594,10 @@
     </row>
     <row r="334" spans="1:7" ht="14.25">
       <c r="A334" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>775</v>
@@ -12606,7 +12606,7 @@
         <v>451</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F334" s="11"/>
       <c r="G334" s="2" t="s">
@@ -12624,10 +12624,10 @@
     </row>
     <row r="336" spans="1:7" ht="14.25">
       <c r="A336" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>776</v>
@@ -12636,7 +12636,7 @@
         <v>453</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F336" s="11"/>
       <c r="G336" s="2" t="s">
@@ -12645,7 +12645,7 @@
     </row>
     <row r="337" spans="1:7" ht="14.25">
       <c r="A337" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>4</v>
@@ -12657,7 +12657,7 @@
         <v>778</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F337" s="11"/>
       <c r="G337" s="2" t="s">
@@ -12666,7 +12666,7 @@
     </row>
     <row r="338" spans="1:7" ht="14.25">
       <c r="A338" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>7</v>
@@ -12678,7 +12678,7 @@
         <v>456</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F338" s="11"/>
       <c r="G338" s="2" t="s">
@@ -12687,7 +12687,7 @@
     </row>
     <row r="339" spans="1:7" ht="14.25">
       <c r="A339" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>9</v>
@@ -12699,7 +12699,7 @@
         <v>458</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="F339" s="11"/>
       <c r="G339" s="2" t="s">
@@ -12708,7 +12708,7 @@
     </row>
     <row r="340" spans="1:7" ht="14.25">
       <c r="A340" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>12</v>
@@ -12720,7 +12720,7 @@
         <v>460</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="F340" s="11"/>
       <c r="G340" s="2" t="s">
@@ -12729,10 +12729,10 @@
     </row>
     <row r="341" spans="1:7" ht="14.25">
       <c r="A341" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>782</v>
@@ -12759,10 +12759,10 @@
     </row>
     <row r="343" spans="1:7" ht="14.25">
       <c r="A343" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>783</v>
@@ -12771,7 +12771,7 @@
         <v>464</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F343" s="11"/>
       <c r="G343" s="2" t="s">
@@ -12780,7 +12780,7 @@
     </row>
     <row r="344" spans="1:7" ht="14.25">
       <c r="A344" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>4</v>
@@ -12792,7 +12792,7 @@
         <v>466</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F344" s="11"/>
       <c r="G344" s="2" t="s">
@@ -12801,7 +12801,7 @@
     </row>
     <row r="345" spans="1:7" ht="14.25">
       <c r="A345" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>7</v>
@@ -12813,7 +12813,7 @@
         <v>468</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F345" s="11"/>
       <c r="G345" s="2" t="s">
@@ -12822,7 +12822,7 @@
     </row>
     <row r="346" spans="1:7" ht="14.25">
       <c r="A346" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>9</v>
@@ -12834,7 +12834,7 @@
         <v>470</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F346" s="11"/>
       <c r="G346" s="2" t="s">
@@ -12843,7 +12843,7 @@
     </row>
     <row r="347" spans="1:7" ht="14.25">
       <c r="A347" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>12</v>
@@ -12855,7 +12855,7 @@
         <v>472</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="F347" s="11"/>
       <c r="G347" s="2" t="s">
@@ -12864,10 +12864,10 @@
     </row>
     <row r="348" spans="1:7" ht="14.25">
       <c r="A348" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>788</v>
@@ -12876,7 +12876,7 @@
         <v>474</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F348" s="11"/>
       <c r="G348" s="2" t="s">
@@ -12894,10 +12894,10 @@
     </row>
     <row r="350" spans="1:7" ht="14.25">
       <c r="A350" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>789</v>
@@ -12906,7 +12906,7 @@
         <v>476</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="F350" s="11"/>
       <c r="G350" s="2" t="s">
@@ -12915,7 +12915,7 @@
     </row>
     <row r="351" spans="1:7" ht="14.25">
       <c r="A351" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>4</v>
@@ -12927,7 +12927,7 @@
         <v>478</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F351" s="11"/>
       <c r="G351" s="2" t="s">
@@ -12936,7 +12936,7 @@
     </row>
     <row r="352" spans="1:7" ht="14.25">
       <c r="A352" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>7</v>
@@ -12948,7 +12948,7 @@
         <v>479</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="F352" s="11"/>
       <c r="G352" s="2" t="s">
@@ -12957,7 +12957,7 @@
     </row>
     <row r="353" spans="1:7" ht="14.25">
       <c r="A353" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>9</v>
@@ -12969,7 +12969,7 @@
         <v>481</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="F353" s="11"/>
       <c r="G353" s="2" t="s">
@@ -12978,7 +12978,7 @@
     </row>
     <row r="354" spans="1:7" ht="14.25">
       <c r="A354" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>12</v>
@@ -12990,7 +12990,7 @@
         <v>483</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="F354" s="11"/>
       <c r="G354" s="2" t="s">
@@ -12999,10 +12999,10 @@
     </row>
     <row r="355" spans="1:7" ht="14.25">
       <c r="A355" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>795</v>
@@ -13011,7 +13011,7 @@
         <v>485</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F355" s="11"/>
       <c r="G355" s="2" t="s">
@@ -13029,16 +13029,16 @@
     </row>
     <row r="357" spans="1:7" ht="14.25">
       <c r="A357" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>796</v>
       </c>
       <c r="D357" s="16" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E357" s="11"/>
       <c r="F357" s="11"/>
@@ -13048,7 +13048,7 @@
     </row>
     <row r="358" spans="1:7" ht="14.25">
       <c r="A358" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>4</v>
@@ -13067,7 +13067,7 @@
     </row>
     <row r="359" spans="1:7" ht="14.25">
       <c r="A359" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>7</v>
@@ -13076,7 +13076,7 @@
         <v>799</v>
       </c>
       <c r="D359" s="16" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E359" s="11"/>
       <c r="F359" s="11"/>
@@ -13086,7 +13086,7 @@
     </row>
     <row r="360" spans="1:7" ht="16.5">
       <c r="A360" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>9</v>
@@ -13095,7 +13095,7 @@
         <v>800</v>
       </c>
       <c r="D360" s="16" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E360" s="11"/>
       <c r="F360" s="11"/>
@@ -13105,7 +13105,7 @@
     </row>
     <row r="361" spans="1:7" ht="14.25">
       <c r="A361" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>12</v>
@@ -13114,7 +13114,7 @@
         <v>801</v>
       </c>
       <c r="D361" s="16" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="E361" s="11"/>
       <c r="F361" s="11"/>
@@ -13124,16 +13124,16 @@
     </row>
     <row r="362" spans="1:7" ht="14.25">
       <c r="A362" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>802</v>
       </c>
       <c r="D362" s="16" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E362" s="11"/>
       <c r="F362" s="11"/>
@@ -13152,10 +13152,10 @@
     </row>
     <row r="364" spans="1:7" ht="14.25">
       <c r="A364" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>803</v>
@@ -13171,7 +13171,7 @@
     </row>
     <row r="365" spans="1:7" ht="14.25">
       <c r="A365" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>4</v>
@@ -13190,7 +13190,7 @@
     </row>
     <row r="366" spans="1:7" ht="14.25">
       <c r="A366" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>7</v>
@@ -13209,7 +13209,7 @@
     </row>
     <row r="367" spans="1:7" ht="14.25">
       <c r="A367" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>9</v>
@@ -13228,7 +13228,7 @@
     </row>
     <row r="368" spans="1:7" ht="14.25">
       <c r="A368" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>12</v>
@@ -13247,10 +13247,10 @@
     </row>
     <row r="369" spans="1:7" ht="57">
       <c r="A369" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>804</v>
@@ -13275,10 +13275,10 @@
     </row>
     <row r="371" spans="1:7" ht="14.25">
       <c r="A371" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>806</v>
@@ -13294,7 +13294,7 @@
     </row>
     <row r="372" spans="1:7" ht="14.25">
       <c r="A372" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>4</v>
@@ -13313,7 +13313,7 @@
     </row>
     <row r="373" spans="1:7" ht="14.25">
       <c r="A373" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>7</v>
@@ -13332,7 +13332,7 @@
     </row>
     <row r="374" spans="1:7" ht="14.25">
       <c r="A374" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>9</v>
@@ -13351,7 +13351,7 @@
     </row>
     <row r="375" spans="1:7" ht="14.25">
       <c r="A375" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>12</v>
@@ -13370,10 +13370,10 @@
     </row>
     <row r="376" spans="1:7" ht="14.25">
       <c r="A376" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>812</v>
@@ -13398,10 +13398,10 @@
     </row>
     <row r="378" spans="1:7" ht="14.25">
       <c r="A378" s="2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>813</v>
@@ -13419,7 +13419,7 @@
     </row>
     <row r="379" spans="1:7" ht="14.25">
       <c r="A379" s="2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>816</v>
@@ -13440,7 +13440,7 @@
     </row>
     <row r="380" spans="1:7" ht="14.25">
       <c r="A380" s="2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>820</v>
@@ -13461,7 +13461,7 @@
     </row>
     <row r="381" spans="1:7" ht="14.25">
       <c r="A381" s="2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>824</v>
@@ -13482,7 +13482,7 @@
     </row>
     <row r="382" spans="1:7" ht="14.25">
       <c r="A382" s="2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>828</v>
@@ -13491,11 +13491,11 @@
         <v>829</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="E382" s="14"/>
       <c r="F382" s="5" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="G382" s="2" t="s">
         <v>830</v>
@@ -13503,20 +13503,20 @@
     </row>
     <row r="383" spans="1:7" ht="14.25">
       <c r="A383" s="2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>831</v>
       </c>
       <c r="D383" s="17" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="E383" s="14"/>
       <c r="F383" s="17" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G383" s="2" t="s">
         <v>832</v>
@@ -13533,128 +13533,128 @@
     </row>
     <row r="385" spans="1:7" ht="14.25">
       <c r="A385" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C385" s="19" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="E385" s="11"/>
       <c r="F385" s="22" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="14.25">
       <c r="A386" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C386" s="19" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="E386" s="11"/>
       <c r="F386" s="22" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="387" spans="1:7" ht="14.25">
       <c r="A387" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C387" s="19" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="E387" s="11"/>
       <c r="F387" s="17" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="14.25">
       <c r="A388" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C388" s="19" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="E388" s="11"/>
       <c r="F388" s="22" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="14.25">
       <c r="A389" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C389" s="19" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="E389" s="11"/>
       <c r="F389" s="22" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="14.25">
       <c r="A390" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="C390" s="19" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="E390" s="13"/>
       <c r="F390" s="22" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="14.25">
